--- a/Ch-2/fig_outputs/Main_pairwise_comparisons.xlsx
+++ b/Ch-2/fig_outputs/Main_pairwise_comparisons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="8820" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="8820" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="rPI_mig" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Exposure_diet!$A$1:$F$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">rPI_diet!$A$1:$F$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">rPI_for!$A$1:$F$277</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2192,7 +2195,7 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9498,7 +9501,7 @@
   <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F191"/>
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -13324,6 +13327,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F191"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13361,7 +13365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>303</v>
       </c>
@@ -13381,7 +13385,7 @@
         <v>7.9773081777843107E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>263</v>
       </c>
@@ -13401,7 +13405,7 @@
         <v>8.5394825272592901E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>312</v>
       </c>
@@ -13421,7 +13425,7 @@
         <v>3.0179690618879101E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>198</v>
       </c>
@@ -13441,7 +13445,7 @@
         <v>6.06265346225098E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>213</v>
       </c>
@@ -13461,7 +13465,7 @@
         <v>1.0215530043511899E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>296</v>
       </c>
@@ -13481,7 +13485,7 @@
         <v>2.5739985807087699E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>261</v>
       </c>
@@ -13501,7 +13505,7 @@
         <v>2.75540641513984E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>308</v>
       </c>
@@ -13521,7 +13525,7 @@
         <v>3.40951257096977E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>268</v>
       </c>
@@ -13541,7 +13545,7 @@
         <v>3.5898225013238701E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>147</v>
       </c>
@@ -13561,7 +13565,7 @@
         <v>7.0650559977062599E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>301</v>
       </c>
@@ -13581,7 +13585,7 @@
         <v>9.4049616426290006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>323</v>
       </c>
@@ -13601,7 +13605,7 @@
         <v>9.4049616426290006E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>272</v>
       </c>
@@ -13621,7 +13625,7 @@
         <v>9.5670955068100805E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>258</v>
       </c>
@@ -13641,7 +13645,7 @@
         <v>0.100361714265516</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>181</v>
       </c>
@@ -13661,7 +13665,7 @@
         <v>0.13773706954364201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>282</v>
       </c>
@@ -13681,7 +13685,7 @@
         <v>0.14527427620382799</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>176</v>
       </c>
@@ -13701,7 +13705,7 @@
         <v>0.14549515181230899</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>203</v>
       </c>
@@ -13721,7 +13725,7 @@
         <v>0.15453198573124999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>196</v>
       </c>
@@ -13741,7 +13745,7 @@
         <v>0.176463879341587</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>251</v>
       </c>
@@ -13761,7 +13765,7 @@
         <v>0.23810264031734699</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>277</v>
       </c>
@@ -13781,7 +13785,7 @@
         <v>0.24046027434013301</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>246</v>
       </c>
@@ -13801,7 +13805,7 @@
         <v>0.25076367021114199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>309</v>
       </c>
@@ -13821,7 +13825,7 @@
         <v>0.33908424289195299</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>193</v>
       </c>
@@ -13841,7 +13845,7 @@
         <v>0.38866560820413598</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>186</v>
       </c>
@@ -13861,7 +13865,7 @@
         <v>0.42539989523159699</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>306</v>
       </c>
@@ -13881,7 +13885,7 @@
         <v>0.461219601468975</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>266</v>
       </c>
@@ -13901,7 +13905,7 @@
         <v>0.48686676190616801</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>256</v>
       </c>
@@ -13921,7 +13925,7 @@
         <v>0.70719133890145702</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>171</v>
       </c>
@@ -13941,7 +13945,7 @@
         <v>0.75630903947903705</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>152</v>
       </c>
@@ -13961,7 +13965,7 @@
         <v>0.967808343373735</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>134</v>
       </c>
@@ -13981,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>135</v>
       </c>
@@ -14001,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>136</v>
       </c>
@@ -14021,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>137</v>
       </c>
@@ -14041,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>138</v>
       </c>
@@ -14061,7 +14065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>139</v>
       </c>
@@ -14081,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>140</v>
       </c>
@@ -14101,7 +14105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>141</v>
       </c>
@@ -14121,7 +14125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>142</v>
       </c>
@@ -14141,7 +14145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>143</v>
       </c>
@@ -14161,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>144</v>
       </c>
@@ -14181,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>145</v>
       </c>
@@ -14201,7 +14205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>146</v>
       </c>
@@ -14221,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>148</v>
       </c>
@@ -14241,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>149</v>
       </c>
@@ -14261,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>150</v>
       </c>
@@ -14281,7 +14285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>151</v>
       </c>
@@ -14301,7 +14305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>153</v>
       </c>
@@ -14321,7 +14325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>154</v>
       </c>
@@ -14341,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>155</v>
       </c>
@@ -14361,7 +14365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>156</v>
       </c>
@@ -14381,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>157</v>
       </c>
@@ -14401,7 +14405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>158</v>
       </c>
@@ -14421,7 +14425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>159</v>
       </c>
@@ -14441,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>160</v>
       </c>
@@ -14461,7 +14465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>161</v>
       </c>
@@ -14481,7 +14485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>162</v>
       </c>
@@ -14501,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>163</v>
       </c>
@@ -14521,7 +14525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>164</v>
       </c>
@@ -14541,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>165</v>
       </c>
@@ -14561,7 +14565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>166</v>
       </c>
@@ -14581,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>167</v>
       </c>
@@ -14601,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>168</v>
       </c>
@@ -14621,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>169</v>
       </c>
@@ -14641,7 +14645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>170</v>
       </c>
@@ -14661,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>172</v>
       </c>
@@ -14681,7 +14685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>173</v>
       </c>
@@ -14701,7 +14705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>174</v>
       </c>
@@ -14721,7 +14725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>175</v>
       </c>
@@ -14741,7 +14745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>177</v>
       </c>
@@ -14761,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>178</v>
       </c>
@@ -14781,7 +14785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>179</v>
       </c>
@@ -14801,7 +14805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>180</v>
       </c>
@@ -14821,7 +14825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>182</v>
       </c>
@@ -14841,7 +14845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>183</v>
       </c>
@@ -14861,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>184</v>
       </c>
@@ -14881,7 +14885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>185</v>
       </c>
@@ -14901,7 +14905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>187</v>
       </c>
@@ -14921,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>188</v>
       </c>
@@ -14941,7 +14945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>189</v>
       </c>
@@ -14961,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>190</v>
       </c>
@@ -14981,7 +14985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>191</v>
       </c>
@@ -15001,7 +15005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>192</v>
       </c>
@@ -15021,7 +15025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>194</v>
       </c>
@@ -15041,7 +15045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>195</v>
       </c>
@@ -15061,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>197</v>
       </c>
@@ -15081,7 +15085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>199</v>
       </c>
@@ -15101,7 +15105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>200</v>
       </c>
@@ -15121,7 +15125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>201</v>
       </c>
@@ -15141,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>202</v>
       </c>
@@ -15161,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>204</v>
       </c>
@@ -15181,7 +15185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>205</v>
       </c>
@@ -15201,7 +15205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>206</v>
       </c>
@@ -15221,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>207</v>
       </c>
@@ -15241,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>208</v>
       </c>
@@ -15261,7 +15265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>209</v>
       </c>
@@ -15281,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>210</v>
       </c>
@@ -15301,7 +15305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>211</v>
       </c>
@@ -15321,7 +15325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>212</v>
       </c>
@@ -15341,7 +15345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>214</v>
       </c>
@@ -15361,7 +15365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>215</v>
       </c>
@@ -15381,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>216</v>
       </c>
@@ -15401,7 +15405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>217</v>
       </c>
@@ -15421,7 +15425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>218</v>
       </c>
@@ -15441,7 +15445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>219</v>
       </c>
@@ -15461,7 +15465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>220</v>
       </c>
@@ -15481,7 +15485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>221</v>
       </c>
@@ -15501,7 +15505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>222</v>
       </c>
@@ -15521,7 +15525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>223</v>
       </c>
@@ -15541,7 +15545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>224</v>
       </c>
@@ -15561,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>225</v>
       </c>
@@ -15581,7 +15585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>226</v>
       </c>
@@ -15601,7 +15605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>227</v>
       </c>
@@ -15621,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>228</v>
       </c>
@@ -15641,7 +15645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>229</v>
       </c>
@@ -15661,7 +15665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>230</v>
       </c>
@@ -15681,7 +15685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>231</v>
       </c>
@@ -15701,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>232</v>
       </c>
@@ -15721,7 +15725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>233</v>
       </c>
@@ -15741,7 +15745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>234</v>
       </c>
@@ -15761,7 +15765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>235</v>
       </c>
@@ -15781,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>236</v>
       </c>
@@ -15801,7 +15805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>237</v>
       </c>
@@ -15821,7 +15825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>238</v>
       </c>
@@ -15841,7 +15845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>239</v>
       </c>
@@ -15861,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>240</v>
       </c>
@@ -15881,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>241</v>
       </c>
@@ -15901,7 +15905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>242</v>
       </c>
@@ -15921,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>243</v>
       </c>
@@ -15941,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>244</v>
       </c>
@@ -15961,7 +15965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>245</v>
       </c>
@@ -15981,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>247</v>
       </c>
@@ -16001,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>248</v>
       </c>
@@ -16021,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>249</v>
       </c>
@@ -16041,7 +16045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>250</v>
       </c>
@@ -16061,7 +16065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>252</v>
       </c>
@@ -16081,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>253</v>
       </c>
@@ -16101,7 +16105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>254</v>
       </c>
@@ -16121,7 +16125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>255</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>257</v>
       </c>
@@ -16161,7 +16165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>259</v>
       </c>
@@ -16181,7 +16185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>260</v>
       </c>
@@ -16201,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>262</v>
       </c>
@@ -16221,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>264</v>
       </c>
@@ -16241,7 +16245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>265</v>
       </c>
@@ -16261,7 +16265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>267</v>
       </c>
@@ -16281,7 +16285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>269</v>
       </c>
@@ -16301,7 +16305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>270</v>
       </c>
@@ -16321,7 +16325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>271</v>
       </c>
@@ -16341,7 +16345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>273</v>
       </c>
@@ -16361,7 +16365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>274</v>
       </c>
@@ -16381,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>275</v>
       </c>
@@ -16401,7 +16405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>276</v>
       </c>
@@ -16421,7 +16425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>278</v>
       </c>
@@ -16441,7 +16445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>279</v>
       </c>
@@ -16461,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>280</v>
       </c>
@@ -16481,7 +16485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>281</v>
       </c>
@@ -16501,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>283</v>
       </c>
@@ -16521,7 +16525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>284</v>
       </c>
@@ -16541,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>285</v>
       </c>
@@ -16561,7 +16565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>286</v>
       </c>
@@ -16581,7 +16585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>287</v>
       </c>
@@ -16601,7 +16605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>288</v>
       </c>
@@ -16621,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>289</v>
       </c>
@@ -16641,7 +16645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>290</v>
       </c>
@@ -16661,7 +16665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>291</v>
       </c>
@@ -16681,7 +16685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>292</v>
       </c>
@@ -16701,7 +16705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>293</v>
       </c>
@@ -16721,7 +16725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>294</v>
       </c>
@@ -16741,7 +16745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>295</v>
       </c>
@@ -16761,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>297</v>
       </c>
@@ -16781,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
         <v>298</v>
       </c>
@@ -16801,7 +16805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>299</v>
       </c>
@@ -16821,7 +16825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>300</v>
       </c>
@@ -16841,7 +16845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>302</v>
       </c>
@@ -16861,7 +16865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
         <v>304</v>
       </c>
@@ -16881,7 +16885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>305</v>
       </c>
@@ -16901,7 +16905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
         <v>307</v>
       </c>
@@ -16921,7 +16925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>310</v>
       </c>
@@ -16941,7 +16945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
         <v>311</v>
       </c>
@@ -16961,7 +16965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>313</v>
       </c>
@@ -16981,7 +16985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
         <v>314</v>
       </c>
@@ -17001,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>315</v>
       </c>
@@ -17021,7 +17025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
         <v>316</v>
       </c>
@@ -17041,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>317</v>
       </c>
@@ -17061,7 +17065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
         <v>318</v>
       </c>
@@ -17081,7 +17085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>319</v>
       </c>
@@ -17101,7 +17105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
         <v>320</v>
       </c>
@@ -17121,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>321</v>
       </c>
@@ -17141,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
         <v>322</v>
       </c>
@@ -21010,8 +21014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F277"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -21036,461 +21040,461 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4">
-        <v>6.3231958233412504E-3</v>
+        <v>-7.7604993512173995E-2</v>
       </c>
       <c r="C2" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>8.0553365536235096E-3</v>
       </c>
       <c r="D2" s="4">
-        <v>367.21846322896698</v>
+        <v>695.99999999998499</v>
       </c>
       <c r="E2" s="4">
-        <v>0.128207247148829</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>-9.6339852463725109</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.9002588133382699E-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>326</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4">
-        <v>1.86379541954916E-2</v>
+        <v>-5.8564304664416103E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>4.6584846287783102E-2</v>
+        <v>8.05533655362352E-3</v>
       </c>
       <c r="D3" s="4">
-        <v>367.21846322896698</v>
+        <v>695.99999999998499</v>
       </c>
       <c r="E3" s="4">
-        <v>0.40008620143025903</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>-7.2702492657581503</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.66022948371523E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="B4" s="4">
-        <v>1.6463423890574602E-2</v>
+        <v>-7.4619536403015094E-2</v>
       </c>
       <c r="C4" s="4">
-        <v>3.78261836823367E-2</v>
+        <v>1.1668734472093999E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>367.218463228948</v>
+        <v>695.99999999998499</v>
       </c>
       <c r="E4" s="4">
-        <v>0.435238828977144</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>-6.3948268410314002</v>
+      </c>
+      <c r="F4" s="5">
+        <v>8.0760426601403703E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="B5" s="4">
-        <v>1.6342179861149601E-2</v>
+        <v>-4.4215038033366599E-2</v>
       </c>
       <c r="C5" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>8.05533655362352E-3</v>
       </c>
       <c r="D5" s="4">
-        <v>367.218463228958</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E5" s="4">
-        <v>0.41439885184617298</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>-5.4889125661022096</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.5477850497565401E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>329</v>
+        <v>180</v>
       </c>
       <c r="B6" s="4">
-        <v>-3.5539150109869799E-2</v>
+        <v>-5.8032939181672599E-2</v>
       </c>
       <c r="C6" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>1.1668734472093999E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>367.21846322897699</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.635309162715191</v>
+        <v>-4.9733704473659497</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>2.2567682113544299E-4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>330</v>
+        <v>175</v>
       </c>
       <c r="B7" s="4">
-        <v>-2.0286036163034302E-2</v>
+        <v>-5.6201555322542403E-2</v>
       </c>
       <c r="C7" s="4">
-        <v>2.7478456379489001E-2</v>
+        <v>1.1668734472093999E-2</v>
       </c>
       <c r="D7" s="4">
-        <v>695.99999999980798</v>
+        <v>695.99999999998499</v>
       </c>
       <c r="E7" s="4">
-        <v>-0.73825239245158503</v>
+        <v>-4.8164225055381502</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>4.86312434451488E-4</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="B8" s="4">
-        <v>-9.5292629420076103E-2</v>
+        <v>-0.106487463383933</v>
       </c>
       <c r="C8" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>2.5276503554143698E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>367.21846322897699</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E8" s="4">
-        <v>-1.9321251520351801</v>
+        <v>-4.2129032267390496</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>7.7025508266418503E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>332</v>
+        <v>162</v>
       </c>
       <c r="B9" s="4">
-        <v>-1.6594105238352402E-2</v>
+        <v>-3.3389955478807402E-2</v>
       </c>
       <c r="C9" s="4">
-        <v>4.6584846287783102E-2</v>
+        <v>8.05533655362352E-3</v>
       </c>
       <c r="D9" s="4">
-        <v>367.21846322896698</v>
+        <v>695.99999999998499</v>
       </c>
       <c r="E9" s="4">
-        <v>-0.35621251459842701</v>
+        <v>-4.14507268027028</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>1.0264854183913799E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>333</v>
+        <v>184</v>
       </c>
       <c r="B10" s="4">
-        <v>-4.2100880773841602E-2</v>
+        <v>-7.7483749482749095E-2</v>
       </c>
       <c r="C10" s="4">
-        <v>3.78261836823367E-2</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>367.218463228948</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E10" s="4">
-        <v>-1.1130089444762299</v>
+        <v>-4.1367871348476104</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>1.1711318917275599E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B11" s="4">
-        <v>-3.9859375461392801E-2</v>
+        <v>-0.101615825243417</v>
       </c>
       <c r="C11" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>2.5276503554143698E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>367.218463228948</v>
+        <v>695.99999999998499</v>
       </c>
       <c r="E11" s="4">
-        <v>-1.0107390548169299</v>
+        <v>-4.02016936502908</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>1.7223299120021601E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>335</v>
+        <v>168</v>
       </c>
       <c r="B12" s="4">
-        <v>-7.54453646450053E-2</v>
+        <v>-7.4740780432440104E-2</v>
       </c>
       <c r="C12" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D12" s="4">
-        <v>367.21846322898699</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E12" s="4">
-        <v>-1.3486853595311299</v>
+        <v>-3.99034250414309</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>2.1191709240183501E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="B13" s="4">
-        <v>3.7444115858608497E-2</v>
+        <v>-8.2826455898930701E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>2.7478456379489001E-2</v>
+        <v>2.2103661148690699E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>695.99999999987801</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E13" s="4">
-        <v>1.3626717360498499</v>
+        <v>-3.7471826654308402</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>5.1319088244896803E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>337</v>
+        <v>401</v>
       </c>
       <c r="B14" s="4">
-        <v>-6.63942842687998E-2</v>
+        <v>-0.116627691451166</v>
       </c>
       <c r="C14" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>367.21846322897699</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E14" s="4">
-        <v>-1.3461908582836899</v>
+        <v>-3.3279924276043902</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>0.25428722610068699</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="B15" s="4">
-        <v>-6.4188501703439094E-2</v>
+        <v>-0.111756053310651</v>
       </c>
       <c r="C15" s="4">
-        <v>4.6584846287783102E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>367.21846322896698</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E15" s="4">
-        <v>-1.37788372868953</v>
+        <v>-3.1889793455487201</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>0.40776253838876397</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
       <c r="B16" s="4">
-        <v>-1.6926531588232801E-2</v>
+        <v>-0.116506447421741</v>
       </c>
       <c r="C16" s="4">
-        <v>3.78261836823367E-2</v>
+        <v>3.6776104146463498E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>367.21846322893799</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E16" s="4">
-        <v>-0.44748187473474599</v>
+        <v>-3.1679931881241701</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>0.43585359120022499</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>340</v>
+        <v>237</v>
       </c>
       <c r="B17" s="4">
-        <v>-4.1690759320522998E-2</v>
+        <v>2.5174349185608701E-2</v>
       </c>
       <c r="C17" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>8.0553365536235304E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>367.218463228948</v>
+        <v>695.99999999998499</v>
       </c>
       <c r="E17" s="4">
-        <v>-1.05717859807012</v>
+        <v>3.1251765854878601</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>0.48306955679406599</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>341</v>
+        <v>174</v>
       </c>
       <c r="B18" s="4">
-        <v>-9.3520374420302504E-2</v>
+        <v>-5.8443060634991197E-2</v>
       </c>
       <c r="C18" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>367.21846322897699</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E18" s="4">
-        <v>-1.6717999891976301</v>
+        <v>-3.1202220203576698</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>0.50702722418475898</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="B19" s="4">
-        <v>-3.4448024307976298E-2</v>
+        <v>-5.8154183211097499E-2</v>
       </c>
       <c r="C19" s="4">
-        <v>2.7478456379489001E-2</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D19" s="4">
-        <v>696.000000000162</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E19" s="4">
-        <v>-1.2536375345192099</v>
+        <v>-3.10479911660445</v>
       </c>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>0.53144649136253397</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="B20" s="4">
-        <v>-0.100164267560592</v>
+        <v>-0.111634809281226</v>
       </c>
       <c r="C20" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>3.6776104146463602E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>367.21846322896698</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E20" s="4">
-        <v>-2.0309010451990801</v>
+        <v>-3.0355256999662599</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
+        <v>0.66368621576312603</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="B21" s="4">
-        <v>-3.6613356923217301E-2</v>
+        <v>-5.6322799351967302E-2</v>
       </c>
       <c r="C21" s="4">
+        <v>1.8730417340074999E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>367.21846322900598</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-3.0070231927753599</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.72469615867774695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6.3231958233412504E-3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.9320112271040301E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>367.21846322896698</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.128207247148829</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.86379541954916E-2</v>
+      </c>
+      <c r="C23" s="4">
         <v>4.6584846287783102E-2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D23" s="4">
         <v>367.21846322896698</v>
       </c>
-      <c r="E21" s="4">
-        <v>-0.785949935243624</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="4">
-        <v>-6.1141569621599501E-2</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="E23" s="4">
+        <v>0.40008620143025903</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1.6463423890574602E-2</v>
+      </c>
+      <c r="C24" s="4">
         <v>3.78261836823367E-2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D24" s="4">
         <v>367.218463228948</v>
       </c>
-      <c r="E22" s="4">
-        <v>-1.6163821900476401</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B23" s="4">
-        <v>-5.8277356541865499E-2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3.9435871475859897E-2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>367.218463228948</v>
-      </c>
-      <c r="E23" s="4">
-        <v>-1.4777752934289601</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B24" s="4">
-        <v>-7.6993197021309898E-2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>5.5939930030258399E-2</v>
-      </c>
-      <c r="D24" s="4">
-        <v>367.21846322897699</v>
-      </c>
       <c r="E24" s="4">
-        <v>-1.3763549039060901</v>
+        <v>0.435238828977144</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -21498,19 +21502,19 @@
     </row>
     <row r="25" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B25" s="4">
-        <v>1.2314758372150399E-2</v>
+        <v>1.6342179861149601E-2</v>
       </c>
       <c r="C25" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D25" s="4">
-        <v>367.21846322900598</v>
+        <v>367.218463228958</v>
       </c>
       <c r="E25" s="4">
-        <v>0.27763547022275098</v>
+        <v>0.41439885184617298</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -21518,59 +21522,59 @@
     </row>
     <row r="26" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B26" s="4">
-        <v>1.01402280672333E-2</v>
+        <v>-3.5539150109869799E-2</v>
       </c>
       <c r="C26" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D26" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322897699</v>
       </c>
       <c r="E26" s="4">
-        <v>0.28935325566367898</v>
+        <v>-0.635309162715191</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B27" s="4">
-        <v>1.00189840378084E-2</v>
+        <v>-2.0286036163034302E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>3.6776104146463498E-2</v>
+        <v>2.7478456379489001E-2</v>
       </c>
       <c r="D27" s="4">
-        <v>367.21846322901598</v>
+        <v>695.99999999980798</v>
       </c>
       <c r="E27" s="4">
-        <v>0.27243190300710002</v>
+        <v>-0.73825239245158503</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B28" s="4">
-        <v>-4.1862345933211101E-2</v>
+        <v>-9.5292629420076103E-2</v>
       </c>
       <c r="C28" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D28" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322897699</v>
       </c>
       <c r="E28" s="4">
-        <v>-0.77382744763989497</v>
+        <v>-1.9321251520351801</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -21578,19 +21582,19 @@
     </row>
     <row r="29" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="B29" s="4">
-        <v>-2.6609231986375499E-2</v>
+        <v>-1.6594105238352402E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>4.6584846287783102E-2</v>
       </c>
       <c r="D29" s="4">
-        <v>367.218463228909</v>
+        <v>367.21846322896698</v>
       </c>
       <c r="E29" s="4">
-        <v>-0.53952091268859304</v>
+        <v>-0.35621251459842701</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -21598,39 +21602,39 @@
     </row>
     <row r="30" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B30" s="4">
-        <v>-0.101615825243417</v>
+        <v>-4.2100880773841602E-2</v>
       </c>
       <c r="C30" s="4">
-        <v>2.5276503554143698E-2</v>
+        <v>3.78261836823367E-2</v>
       </c>
       <c r="D30" s="4">
-        <v>695.99999999998499</v>
+        <v>367.218463228948</v>
       </c>
       <c r="E30" s="4">
-        <v>-4.02016936502908</v>
+        <v>-1.1130089444762299</v>
       </c>
       <c r="F30" s="4">
-        <v>1.7223299120021601E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B31" s="4">
-        <v>-2.2917301061693599E-2</v>
+        <v>-3.9859375461392801E-2</v>
       </c>
       <c r="C31" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>367.21846322901598</v>
+        <v>367.218463228948</v>
       </c>
       <c r="E31" s="4">
-        <v>-0.51666914317123003</v>
+        <v>-1.0107390548169299</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -21638,19 +21642,19 @@
     </row>
     <row r="32" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B32" s="4">
-        <v>-4.84240765971828E-2</v>
+        <v>-7.54453646450053E-2</v>
       </c>
       <c r="C32" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D32" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322898699</v>
       </c>
       <c r="E32" s="4">
-        <v>-1.38178984959706</v>
+        <v>-1.3486853595311299</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -21658,19 +21662,19 @@
     </row>
     <row r="33" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B33" s="4">
-        <v>-4.6182571284733999E-2</v>
+        <v>3.7444115858608497E-2</v>
       </c>
       <c r="C33" s="4">
-        <v>3.6776104146463602E-2</v>
+        <v>2.7478456379489001E-2</v>
       </c>
       <c r="D33" s="4">
-        <v>367.21846322901598</v>
+        <v>695.99999999987801</v>
       </c>
       <c r="E33" s="4">
-        <v>-1.2557766070274501</v>
+        <v>1.3626717360498499</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -21678,19 +21682,19 @@
     </row>
     <row r="34" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B34" s="4">
-        <v>-8.1768560468346504E-2</v>
+        <v>-6.63942842687998E-2</v>
       </c>
       <c r="C34" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D34" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322897699</v>
       </c>
       <c r="E34" s="4">
-        <v>-1.51149571372231</v>
+        <v>-1.3461908582836899</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -21698,19 +21702,19 @@
     </row>
     <row r="35" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B35" s="4">
-        <v>3.1120920035267199E-2</v>
+        <v>-6.4188501703439094E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>4.6584846287783102E-2</v>
       </c>
       <c r="D35" s="4">
-        <v>367.21846322891798</v>
+        <v>367.21846322896698</v>
       </c>
       <c r="E35" s="4">
-        <v>0.63099856432282997</v>
+        <v>-1.37788372868953</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -21718,19 +21722,19 @@
     </row>
     <row r="36" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B36" s="4">
-        <v>-7.2717480092141004E-2</v>
+        <v>-1.6926531588232801E-2</v>
       </c>
       <c r="C36" s="4">
-        <v>2.5276503554143698E-2</v>
+        <v>3.78261836823367E-2</v>
       </c>
       <c r="D36" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322893799</v>
       </c>
       <c r="E36" s="4">
-        <v>-2.87688049640157</v>
+        <v>-0.44748187473474599</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -21738,19 +21742,19 @@
     </row>
     <row r="37" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B37" s="4">
-        <v>-7.0511697526780395E-2</v>
+        <v>-4.1690759320522998E-2</v>
       </c>
       <c r="C37" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D37" s="4">
-        <v>367.21846322901598</v>
+        <v>367.218463228948</v>
       </c>
       <c r="E37" s="4">
-        <v>-1.58968188473142</v>
+        <v>-1.05717859807012</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -21758,19 +21762,19 @@
     </row>
     <row r="38" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B38" s="4">
-        <v>-2.3249727411574099E-2</v>
+        <v>-9.3520374420302504E-2</v>
       </c>
       <c r="C38" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D38" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322897699</v>
       </c>
       <c r="E38" s="4">
-        <v>-0.66343520828398495</v>
+        <v>-1.6717999891976301</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -21778,19 +21782,19 @@
     </row>
     <row r="39" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B39" s="4">
-        <v>-4.8013955143864202E-2</v>
+        <v>-3.4448024307976298E-2</v>
       </c>
       <c r="C39" s="4">
-        <v>3.6776104146463498E-2</v>
+        <v>2.7478456379489001E-2</v>
       </c>
       <c r="D39" s="4">
-        <v>367.21846322901598</v>
+        <v>696.000000000162</v>
       </c>
       <c r="E39" s="4">
-        <v>-1.30557480892063</v>
+        <v>-1.2536375345192099</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -21798,19 +21802,19 @@
     </row>
     <row r="40" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B40" s="4">
-        <v>-9.9843570243643806E-2</v>
+        <v>-0.100164267560592</v>
       </c>
       <c r="C40" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D40" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322896698</v>
       </c>
       <c r="E40" s="4">
-        <v>-1.8456131256513899</v>
+        <v>-2.0309010451990801</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -21818,19 +21822,19 @@
     </row>
     <row r="41" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B41" s="4">
-        <v>-4.0771220131317502E-2</v>
+        <v>-3.6613356923217301E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>4.6584846287783102E-2</v>
       </c>
       <c r="D41" s="4">
-        <v>367.21846322891798</v>
+        <v>367.21846322896698</v>
       </c>
       <c r="E41" s="4">
-        <v>-0.82666519304047703</v>
+        <v>-0.785949935243624</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -21838,39 +21842,39 @@
     </row>
     <row r="42" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B42" s="4">
-        <v>-0.106487463383933</v>
+        <v>-6.1141569621599501E-2</v>
       </c>
       <c r="C42" s="4">
-        <v>2.5276503554143698E-2</v>
+        <v>3.78261836823367E-2</v>
       </c>
       <c r="D42" s="4">
-        <v>696.00000000002001</v>
+        <v>367.218463228948</v>
       </c>
       <c r="E42" s="4">
-        <v>-4.2129032267390496</v>
+        <v>-1.6163821900476401</v>
       </c>
       <c r="F42" s="4">
-        <v>7.7025508266418503E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="B43" s="4">
-        <v>-4.2936552746558498E-2</v>
+        <v>-5.8277356541865499E-2</v>
       </c>
       <c r="C43" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D43" s="4">
-        <v>367.21846322901598</v>
+        <v>367.218463228948</v>
       </c>
       <c r="E43" s="4">
-        <v>-0.96800194135300399</v>
+        <v>-1.4777752934289601</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -21878,59 +21882,59 @@
     </row>
     <row r="44" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B44" s="4">
-        <v>-6.7464765444940705E-2</v>
+        <v>-7.6993197021309898E-2</v>
       </c>
       <c r="C44" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D44" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322897699</v>
       </c>
       <c r="E44" s="4">
-        <v>-1.9251193754862199</v>
+        <v>-1.3763549039060901</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B45" s="4">
-        <v>-6.4600552365206704E-2</v>
+        <v>1.2314758372150399E-2</v>
       </c>
       <c r="C45" s="4">
-        <v>3.6776104146463498E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D45" s="4">
         <v>367.21846322900598</v>
       </c>
       <c r="E45" s="4">
-        <v>-1.75659042371455</v>
+        <v>0.27763547022275098</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="B46" s="4">
-        <v>-8.3316392844651199E-2</v>
+        <v>1.01402280672333E-2</v>
       </c>
       <c r="C46" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D46" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E46" s="4">
-        <v>-1.5401074685207901</v>
+        <v>0.28935325566367898</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -21938,19 +21942,19 @@
     </row>
     <row r="47" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B47" s="4">
-        <v>-2.1745303049170699E-3</v>
+        <v>1.00189840378084E-2</v>
       </c>
       <c r="C47" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>3.6776104146463498E-2</v>
       </c>
       <c r="D47" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E47" s="4">
-        <v>-6.9972026908443702E-2</v>
+        <v>0.27243190300710002</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -21958,39 +21962,39 @@
     </row>
     <row r="48" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B48" s="4">
-        <v>-2.2957743343420302E-3</v>
+        <v>-4.1862345933211101E-2</v>
       </c>
       <c r="C48" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D48" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E48" s="4">
-        <v>-6.9532015578938594E-2</v>
+        <v>-0.77382744763989497</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B49" s="4">
-        <v>-5.4177104305361497E-2</v>
+        <v>-2.6609231986375499E-2</v>
       </c>
       <c r="C49" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D49" s="4">
-        <v>367.21846322901598</v>
+        <v>367.218463228909</v>
       </c>
       <c r="E49" s="4">
-        <v>-1.04961199280206</v>
+        <v>-0.53952091268859304</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -21998,19 +22002,19 @@
     </row>
     <row r="50" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="B50" s="4">
-        <v>-3.8923990358525902E-2</v>
+        <v>-2.2917301061693599E-2</v>
       </c>
       <c r="C50" s="4">
-        <v>4.6584846287782998E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D50" s="4">
-        <v>367.21846322888899</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E50" s="4">
-        <v>-0.83555047317466002</v>
+        <v>-0.51666914317123003</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -22018,19 +22022,19 @@
     </row>
     <row r="51" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B51" s="4">
-        <v>-0.113930583615568</v>
+        <v>-4.84240765971828E-2</v>
       </c>
       <c r="C51" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D51" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E51" s="4">
-        <v>-2.5685580016246199</v>
+        <v>-1.38178984959706</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -22038,19 +22042,19 @@
     </row>
     <row r="52" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B52" s="4">
-        <v>-3.5232059433843999E-2</v>
+        <v>-4.6182571284733999E-2</v>
       </c>
       <c r="C52" s="4">
-        <v>2.2103661148690699E-2</v>
+        <v>3.6776104146463602E-2</v>
       </c>
       <c r="D52" s="4">
-        <v>695.99999999998499</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E52" s="4">
-        <v>-1.5939467763660999</v>
+        <v>-1.2557766070274501</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -22058,19 +22062,19 @@
     </row>
     <row r="53" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="B53" s="4">
-        <v>-6.0738834969333202E-2</v>
+        <v>-8.1768560468346504E-2</v>
       </c>
       <c r="C53" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D53" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E53" s="4">
-        <v>-1.9544539734633799</v>
+        <v>-1.51149571372231</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -22078,19 +22082,19 @@
     </row>
     <row r="54" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B54" s="4">
-        <v>-5.8497329656884402E-2</v>
+        <v>3.1120920035267199E-2</v>
       </c>
       <c r="C54" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D54" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322891798</v>
       </c>
       <c r="E54" s="4">
-        <v>-1.7717060323328899</v>
+        <v>0.63099856432282997</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -22098,19 +22102,19 @@
     </row>
     <row r="55" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="B55" s="4">
-        <v>-9.4083318840496893E-2</v>
+        <v>-7.2717480092141004E-2</v>
       </c>
       <c r="C55" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>2.5276503554143698E-2</v>
       </c>
       <c r="D55" s="4">
-        <v>367.21846322901598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E55" s="4">
-        <v>-1.8227437779068101</v>
+        <v>-2.87688049640157</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -22118,19 +22122,19 @@
     </row>
     <row r="56" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="B56" s="4">
-        <v>1.88061616631169E-2</v>
+        <v>-7.0511697526780395E-2</v>
       </c>
       <c r="C56" s="4">
-        <v>4.6584846287782998E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D56" s="4">
-        <v>367.218463228899</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E56" s="4">
-        <v>0.40369697791723302</v>
+        <v>-1.58968188473142</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -22138,19 +22142,19 @@
     </row>
     <row r="57" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B57" s="4">
-        <v>-8.5032238464291393E-2</v>
+        <v>-2.3249727411574099E-2</v>
       </c>
       <c r="C57" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D57" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E57" s="4">
-        <v>-1.9170465872489799</v>
+        <v>-0.66343520828398495</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -22158,39 +22162,39 @@
     </row>
     <row r="58" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B58" s="4">
-        <v>-8.2826455898930701E-2</v>
+        <v>-4.8013955143864202E-2</v>
       </c>
       <c r="C58" s="4">
-        <v>2.2103661148690699E-2</v>
+        <v>3.6776104146463498E-2</v>
       </c>
       <c r="D58" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E58" s="4">
-        <v>-3.7471826654308402</v>
+        <v>-1.30557480892063</v>
       </c>
       <c r="F58" s="4">
-        <v>5.1319088244896803E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B59" s="4">
-        <v>-3.5564485783724502E-2</v>
+        <v>-9.9843570243643806E-2</v>
       </c>
       <c r="C59" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D59" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E59" s="4">
-        <v>-1.1443938723763301</v>
+        <v>-1.8456131256513899</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -22198,19 +22202,19 @@
     </row>
     <row r="60" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B60" s="4">
-        <v>-6.0328713516014598E-2</v>
+        <v>-4.0771220131317502E-2</v>
       </c>
       <c r="C60" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D60" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322891798</v>
       </c>
       <c r="E60" s="4">
-        <v>-1.8271730741580401</v>
+        <v>-0.82666519304047703</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -22218,19 +22222,19 @@
     </row>
     <row r="61" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B61" s="4">
-        <v>-0.112158328615794</v>
+        <v>-4.2936552746558498E-2</v>
       </c>
       <c r="C61" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D61" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E61" s="4">
-        <v>-2.1729239374671101</v>
+        <v>-0.96800194135300399</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -22238,19 +22242,19 @@
     </row>
     <row r="62" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B62" s="4">
-        <v>-5.3085978503467898E-2</v>
+        <v>-6.7464765444940705E-2</v>
       </c>
       <c r="C62" s="4">
-        <v>4.6584846287782998E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D62" s="4">
-        <v>367.218463228899</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E62" s="4">
-        <v>-1.1395546563687999</v>
+        <v>-1.9251193754862199</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -22258,19 +22262,19 @@
     </row>
     <row r="63" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B63" s="4">
-        <v>-0.118802221756083</v>
+        <v>-6.4600552365206704E-2</v>
       </c>
       <c r="C63" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>3.6776104146463498E-2</v>
       </c>
       <c r="D63" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E63" s="4">
-        <v>-2.6783887839285501</v>
+        <v>-1.75659042371455</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -22278,30 +22282,30 @@
     </row>
     <row r="64" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B64" s="4">
-        <v>-5.5251311118708901E-2</v>
+        <v>-8.3316392844651199E-2</v>
       </c>
       <c r="C64" s="4">
-        <v>2.2103661148690699E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D64" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E64" s="4">
-        <v>-2.4996452283191899</v>
+        <v>-1.5401074685207901</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B65" s="4">
-        <v>-7.9779523817091094E-2</v>
+        <v>-2.1745303049170699E-3</v>
       </c>
       <c r="C65" s="4">
         <v>3.1077137550444001E-2</v>
@@ -22310,38 +22314,38 @@
         <v>367.21846322900598</v>
       </c>
       <c r="E65" s="4">
-        <v>-2.5671451782711401</v>
+        <v>-6.9972026908443702E-2</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B66" s="4">
-        <v>-7.6915310737357107E-2</v>
+        <v>-2.2957743343420302E-3</v>
       </c>
       <c r="C66" s="4">
         <v>3.3017514525171099E-2</v>
       </c>
       <c r="D66" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E66" s="4">
-        <v>-2.3295306095411998</v>
+        <v>-6.9532015578938594E-2</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B67" s="4">
-        <v>-9.5631151216801505E-2</v>
+        <v>-5.4177104305361497E-2</v>
       </c>
       <c r="C67" s="4">
         <v>5.1616316007146001E-2</v>
@@ -22350,47 +22354,47 @@
         <v>367.21846322901598</v>
       </c>
       <c r="E67" s="4">
-        <v>-1.85273104736033</v>
+        <v>-1.04961199280206</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>153</v>
+        <v>373</v>
       </c>
       <c r="B68" s="4">
-        <v>-1.21244029424959E-4</v>
+        <v>-3.8923990358525902E-2</v>
       </c>
       <c r="C68" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>4.6584846287782998E-2</v>
       </c>
       <c r="D68" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322888899</v>
       </c>
       <c r="E68" s="4">
-        <v>-6.4731088060461101E-3</v>
+        <v>-0.83555047317466002</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="B69" s="4">
-        <v>-5.2002574000444397E-2</v>
+        <v>-0.113930583615568</v>
       </c>
       <c r="C69" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D69" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E69" s="4">
-        <v>-1.1852744162443201</v>
+        <v>-2.5685580016246199</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -22398,19 +22402,19 @@
     </row>
     <row r="70" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="B70" s="4">
-        <v>-3.6749460053608803E-2</v>
+        <v>-3.5232059433843999E-2</v>
       </c>
       <c r="C70" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>2.2103661148690699E-2</v>
       </c>
       <c r="D70" s="4">
-        <v>367.21846322883101</v>
+        <v>695.99999999998499</v>
       </c>
       <c r="E70" s="4">
-        <v>-0.97153496536235096</v>
+        <v>-1.5939467763660999</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -22418,39 +22422,39 @@
     </row>
     <row r="71" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B71" s="4">
-        <v>-0.111756053310651</v>
+        <v>-6.0738834969333202E-2</v>
       </c>
       <c r="C71" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D71" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E71" s="4">
-        <v>-3.1889793455487201</v>
+        <v>-1.9544539734633799</v>
       </c>
       <c r="F71" s="4">
-        <v>0.40776253838876397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B72" s="4">
-        <v>-3.3057529128927003E-2</v>
+        <v>-5.8497329656884402E-2</v>
       </c>
       <c r="C72" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D72" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E72" s="4">
-        <v>-1.06372503179446</v>
+        <v>-1.7717060323328899</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -22458,59 +22462,59 @@
     </row>
     <row r="73" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>157</v>
+        <v>378</v>
       </c>
       <c r="B73" s="4">
-        <v>-5.8564304664416103E-2</v>
+        <v>-9.4083318840496893E-2</v>
       </c>
       <c r="C73" s="4">
-        <v>8.05533655362352E-3</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D73" s="4">
-        <v>695.99999999998499</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E73" s="4">
-        <v>-7.2702492657581503</v>
-      </c>
-      <c r="F73" s="5">
-        <v>2.66022948371523E-10</v>
+        <v>-1.8227437779068101</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>158</v>
+        <v>379</v>
       </c>
       <c r="B74" s="4">
-        <v>-5.6322799351967302E-2</v>
+        <v>1.88061616631169E-2</v>
       </c>
       <c r="C74" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>4.6584846287782998E-2</v>
       </c>
       <c r="D74" s="4">
-        <v>367.21846322900598</v>
+        <v>367.218463228899</v>
       </c>
       <c r="E74" s="4">
-        <v>-3.0070231927753599</v>
+        <v>0.40369697791723302</v>
       </c>
       <c r="F74" s="4">
-        <v>0.72469615867774695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B75" s="4">
-        <v>-9.1908788535579905E-2</v>
+        <v>-8.5032238464291393E-2</v>
       </c>
       <c r="C75" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D75" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E75" s="4">
-        <v>-2.0948412222499</v>
+        <v>-1.9170465872489799</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -22518,19 +22522,19 @@
     </row>
     <row r="76" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B76" s="4">
-        <v>2.0980691968033899E-2</v>
+        <v>-3.5564485783724502E-2</v>
       </c>
       <c r="C76" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D76" s="4">
-        <v>367.21846322883999</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E76" s="4">
-        <v>0.55466055323553798</v>
+        <v>-1.1443938723763301</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -22538,19 +22542,19 @@
     </row>
     <row r="77" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B77" s="4">
-        <v>-8.2857708159374294E-2</v>
+        <v>-6.0328713516014598E-2</v>
       </c>
       <c r="C77" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D77" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E77" s="4">
-        <v>-2.36435980076407</v>
+        <v>-1.8271730741580401</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -22558,19 +22562,19 @@
     </row>
     <row r="78" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B78" s="4">
-        <v>-8.0651925594013699E-2</v>
+        <v>-0.112158328615794</v>
       </c>
       <c r="C78" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D78" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E78" s="4">
-        <v>-2.5952173189406702</v>
+        <v>-2.1729239374671101</v>
       </c>
       <c r="F78" s="4">
         <v>1</v>
@@ -22578,59 +22582,59 @@
     </row>
     <row r="79" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>162</v>
+        <v>385</v>
       </c>
       <c r="B79" s="4">
-        <v>-3.3389955478807402E-2</v>
+        <v>-5.3085978503467898E-2</v>
       </c>
       <c r="C79" s="4">
-        <v>8.05533655362352E-3</v>
+        <v>4.6584846287782998E-2</v>
       </c>
       <c r="D79" s="4">
-        <v>695.99999999998499</v>
+        <v>367.218463228899</v>
       </c>
       <c r="E79" s="4">
-        <v>-4.14507268027028</v>
+        <v>-1.1395546563687999</v>
       </c>
       <c r="F79" s="4">
-        <v>1.0264854183913799E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="B80" s="4">
-        <v>-5.8154183211097499E-2</v>
+        <v>-0.118802221756083</v>
       </c>
       <c r="C80" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D80" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E80" s="4">
-        <v>-3.10479911660445</v>
+        <v>-2.6783887839285501</v>
       </c>
       <c r="F80" s="4">
-        <v>0.53144649136253397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B81" s="4">
-        <v>-0.109983798310877</v>
+        <v>-5.5251311118708901E-2</v>
       </c>
       <c r="C81" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>2.2103661148690699E-2</v>
       </c>
       <c r="D81" s="4">
-        <v>367.21846322901598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E81" s="4">
-        <v>-2.5068178805561399</v>
+        <v>-2.4996452283191899</v>
       </c>
       <c r="F81" s="4">
         <v>1</v>
@@ -22638,19 +22642,19 @@
     </row>
     <row r="82" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B82" s="4">
-        <v>-5.0911448198550799E-2</v>
+        <v>-7.9779523817091094E-2</v>
       </c>
       <c r="C82" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D82" s="4">
-        <v>367.21846322883999</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E82" s="4">
-        <v>-1.3459313957258801</v>
+        <v>-2.5671451782711401</v>
       </c>
       <c r="F82" s="4">
         <v>1</v>
@@ -22658,119 +22662,119 @@
     </row>
     <row r="83" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B83" s="4">
-        <v>-0.116627691451166</v>
+        <v>-7.6915310737357107E-2</v>
       </c>
       <c r="C83" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D83" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E83" s="4">
-        <v>-3.3279924276043902</v>
+        <v>-2.3295306095411998</v>
       </c>
       <c r="F83" s="4">
-        <v>0.25428722610068699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B84" s="4">
-        <v>-5.3076780813791802E-2</v>
+        <v>-9.5631151216801505E-2</v>
       </c>
       <c r="C84" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D84" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E84" s="4">
-        <v>-1.7079044274151201</v>
+        <v>-1.85273104736033</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B85" s="4">
-        <v>-7.7604993512173995E-2</v>
+        <v>-1.21244029424959E-4</v>
       </c>
       <c r="C85" s="4">
-        <v>8.0553365536235096E-3</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D85" s="4">
-        <v>695.99999999998499</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E85" s="4">
-        <v>-9.6339852463725109</v>
-      </c>
-      <c r="F85" s="5">
-        <v>2.9002588133382699E-18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+        <v>-6.4731088060461101E-3</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>168</v>
+        <v>391</v>
       </c>
       <c r="B86" s="4">
-        <v>-7.4740780432440104E-2</v>
+        <v>-5.2002574000444397E-2</v>
       </c>
       <c r="C86" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D86" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E86" s="4">
-        <v>-3.99034250414309</v>
+        <v>-1.1852744162443201</v>
       </c>
       <c r="F86" s="4">
-        <v>2.1191709240183501E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B87" s="4">
-        <v>-9.3456620911884503E-2</v>
+        <v>-3.6749460053608803E-2</v>
       </c>
       <c r="C87" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D87" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322883101</v>
       </c>
       <c r="E87" s="4">
-        <v>-2.13012036278346</v>
+        <v>-0.97153496536235096</v>
       </c>
       <c r="F87" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B88" s="4">
-        <v>-5.1881329971019401E-2</v>
+        <v>-3.3057529128927003E-2</v>
       </c>
       <c r="C88" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D88" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E88" s="4">
-        <v>-1.1460670112729401</v>
+        <v>-1.06372503179446</v>
       </c>
       <c r="F88" s="4">
         <v>1</v>
@@ -22778,19 +22782,19 @@
     </row>
     <row r="89" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B89" s="4">
-        <v>-3.6628216024183903E-2</v>
+        <v>-9.1908788535579905E-2</v>
       </c>
       <c r="C89" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D89" s="4">
-        <v>367.21846322883999</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E89" s="4">
-        <v>-0.92880452880584397</v>
+        <v>-2.0948412222499</v>
       </c>
       <c r="F89" s="4">
         <v>1</v>
@@ -22798,39 +22802,39 @@
     </row>
     <row r="90" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B90" s="4">
-        <v>-0.111634809281226</v>
+        <v>2.0980691968033899E-2</v>
       </c>
       <c r="C90" s="4">
-        <v>3.6776104146463602E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D90" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322883999</v>
       </c>
       <c r="E90" s="4">
-        <v>-3.0355256999662599</v>
+        <v>0.55466055323553798</v>
       </c>
       <c r="F90" s="4">
-        <v>0.66368621576312603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B91" s="4">
-        <v>-3.2936285099502E-2</v>
+        <v>-8.2857708159374294E-2</v>
       </c>
       <c r="C91" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D91" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E91" s="4">
-        <v>-0.997539807982603</v>
+        <v>-2.36435980076407</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
@@ -22838,59 +22842,59 @@
     </row>
     <row r="92" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>174</v>
+        <v>398</v>
       </c>
       <c r="B92" s="4">
-        <v>-5.8443060634991197E-2</v>
+        <v>-8.0651925594013699E-2</v>
       </c>
       <c r="C92" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D92" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E92" s="4">
-        <v>-3.1202220203576698</v>
+        <v>-2.5952173189406702</v>
       </c>
       <c r="F92" s="4">
-        <v>0.50702722418475898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>175</v>
+        <v>399</v>
       </c>
       <c r="B93" s="4">
-        <v>-5.6201555322542403E-2</v>
+        <v>-0.109983798310877</v>
       </c>
       <c r="C93" s="4">
-        <v>1.1668734472093999E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D93" s="4">
-        <v>695.99999999998499</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E93" s="4">
-        <v>-4.8164225055381502</v>
+        <v>-2.5068178805561399</v>
       </c>
       <c r="F93" s="4">
-        <v>4.86312434451488E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B94" s="4">
-        <v>-9.1787544506154894E-2</v>
+        <v>-5.0911448198550799E-2</v>
       </c>
       <c r="C94" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D94" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322883999</v>
       </c>
       <c r="E94" s="4">
-        <v>-2.0276017762654099</v>
+        <v>-1.3459313957258801</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -22898,19 +22902,19 @@
     </row>
     <row r="95" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B95" s="4">
-        <v>2.1101935997458899E-2</v>
+        <v>-5.3076780813791802E-2</v>
       </c>
       <c r="C95" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D95" s="4">
-        <v>367.21846322885</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E95" s="4">
-        <v>0.535094958162041</v>
+        <v>-1.7079044274151201</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -22918,39 +22922,39 @@
     </row>
     <row r="96" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B96" s="4">
-        <v>-8.2736464129949394E-2</v>
+        <v>-9.3456620911884503E-2</v>
       </c>
       <c r="C96" s="4">
-        <v>3.6776104146463498E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D96" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E96" s="4">
-        <v>-2.24973433293655</v>
+        <v>-2.13012036278346</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B97" s="4">
-        <v>-8.0530681564588702E-2</v>
+        <v>-5.1881329971019401E-2</v>
       </c>
       <c r="C97" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D97" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E97" s="4">
-        <v>-2.4390291856522301</v>
+        <v>-1.1460670112729401</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -22958,19 +22962,19 @@
     </row>
     <row r="98" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>179</v>
+        <v>405</v>
       </c>
       <c r="B98" s="4">
-        <v>-3.3268711449382503E-2</v>
+        <v>-3.6628216024183903E-2</v>
       </c>
       <c r="C98" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D98" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322883999</v>
       </c>
       <c r="E98" s="4">
-        <v>-1.77618634146511</v>
+        <v>-0.92880452880584397</v>
       </c>
       <c r="F98" s="4">
         <v>1</v>
@@ -22978,30 +22982,30 @@
     </row>
     <row r="99" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>180</v>
+        <v>407</v>
       </c>
       <c r="B99" s="4">
-        <v>-5.8032939181672599E-2</v>
+        <v>-3.2936285099502E-2</v>
       </c>
       <c r="C99" s="4">
-        <v>1.1668734472093999E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D99" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E99" s="4">
-        <v>-4.9733704473659497</v>
+        <v>-0.997539807982603</v>
       </c>
       <c r="F99" s="4">
-        <v>2.2567682113544299E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B100" s="4">
-        <v>-0.109862554281452</v>
+        <v>-9.1787544506154894E-2</v>
       </c>
       <c r="C100" s="4">
         <v>4.5269019578004097E-2</v>
@@ -23010,7 +23014,7 @@
         <v>367.21846322901598</v>
       </c>
       <c r="E100" s="4">
-        <v>-2.42688167991236</v>
+        <v>-2.0276017762654099</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
@@ -23018,10 +23022,10 @@
     </row>
     <row r="101" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B101" s="4">
-        <v>-5.0790204169125899E-2</v>
+        <v>2.1101935997458899E-2</v>
       </c>
       <c r="C101" s="4">
         <v>3.9435871475859897E-2</v>
@@ -23030,7 +23034,7 @@
         <v>367.21846322885</v>
       </c>
       <c r="E101" s="4">
-        <v>-1.28791889891964</v>
+        <v>0.535094958162041</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -23038,10 +23042,10 @@
     </row>
     <row r="102" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B102" s="4">
-        <v>-0.116506447421741</v>
+        <v>-8.2736464129949394E-2</v>
       </c>
       <c r="C102" s="4">
         <v>3.6776104146463498E-2</v>
@@ -23050,18 +23054,18 @@
         <v>367.21846322901598</v>
       </c>
       <c r="E102" s="4">
-        <v>-3.1679931881241701</v>
+        <v>-2.24973433293655</v>
       </c>
       <c r="F102" s="4">
-        <v>0.43585359120022499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B103" s="4">
-        <v>-5.2955536784366902E-2</v>
+        <v>-8.0530681564588702E-2</v>
       </c>
       <c r="C103" s="4">
         <v>3.3017514525171099E-2</v>
@@ -23070,7 +23074,7 @@
         <v>367.21846322901598</v>
       </c>
       <c r="E103" s="4">
-        <v>-1.60386199706207</v>
+        <v>-2.4390291856522301</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -23078,10 +23082,10 @@
     </row>
     <row r="104" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B104" s="4">
-        <v>-7.7483749482749095E-2</v>
+        <v>-3.3268711449382503E-2</v>
       </c>
       <c r="C104" s="4">
         <v>1.8730417340074999E-2</v>
@@ -23090,47 +23094,47 @@
         <v>367.21846322901598</v>
       </c>
       <c r="E104" s="4">
-        <v>-4.1367871348476104</v>
+        <v>-1.77618634146511</v>
       </c>
       <c r="F104" s="4">
-        <v>1.1711318917275599E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>185</v>
+        <v>412</v>
       </c>
       <c r="B105" s="4">
-        <v>-7.4619536403015094E-2</v>
+        <v>-0.109862554281452</v>
       </c>
       <c r="C105" s="4">
-        <v>1.1668734472093999E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D105" s="4">
-        <v>695.99999999998499</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E105" s="4">
-        <v>-6.3948268410314002</v>
-      </c>
-      <c r="F105" s="5">
-        <v>8.0760426601403703E-8</v>
+        <v>-2.42688167991236</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B106" s="4">
-        <v>-9.3335376882459506E-2</v>
+        <v>-5.0790204169125899E-2</v>
       </c>
       <c r="C106" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D106" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322885</v>
       </c>
       <c r="E106" s="4">
-        <v>-2.0617936450254</v>
+        <v>-1.28791889891964</v>
       </c>
       <c r="F106" s="4">
         <v>1</v>
@@ -23138,19 +23142,19 @@
     </row>
     <row r="107" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B107" s="4">
-        <v>1.52531139468356E-2</v>
+        <v>-5.2955536784366902E-2</v>
       </c>
       <c r="C107" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D107" s="4">
-        <v>367.21846322892799</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E107" s="4">
-        <v>0.27266952137024503</v>
+        <v>-1.60386199706207</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -23158,19 +23162,19 @@
     </row>
     <row r="108" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B108" s="4">
-        <v>-5.9753479310206303E-2</v>
+        <v>-9.3335376882459506E-2</v>
       </c>
       <c r="C108" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D108" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E108" s="4">
-        <v>-1.10454589563594</v>
+        <v>-2.0617936450254</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -23178,19 +23182,19 @@
     </row>
     <row r="109" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B109" s="4">
-        <v>1.8945044871517401E-2</v>
+        <v>1.52531139468356E-2</v>
       </c>
       <c r="C109" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D109" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322892799</v>
       </c>
       <c r="E109" s="4">
-        <v>0.36703597499857599</v>
+        <v>0.27266952137024503</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -23198,19 +23202,19 @@
     </row>
     <row r="110" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B110" s="4">
-        <v>-6.56173066397175E-3</v>
+        <v>-5.9753479310206303E-2</v>
       </c>
       <c r="C110" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D110" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E110" s="4">
-        <v>-0.14955897148908601</v>
+        <v>-1.10454589563594</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
@@ -23218,19 +23222,19 @@
     </row>
     <row r="111" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B111" s="4">
-        <v>-4.3202253515229301E-3</v>
+        <v>1.8945044871517401E-2</v>
       </c>
       <c r="C111" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D111" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E111" s="4">
-        <v>-9.5434480176418299E-2</v>
+        <v>0.36703597499857599</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -23238,19 +23242,19 @@
     </row>
     <row r="112" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B112" s="4">
-        <v>-3.9906214535135501E-2</v>
+        <v>-6.56173066397175E-3</v>
       </c>
       <c r="C112" s="4">
-        <v>3.2221346214494101E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D112" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E112" s="4">
-        <v>-1.23850239743194</v>
+        <v>-0.14955897148908601</v>
       </c>
       <c r="F112" s="4">
         <v>1</v>
@@ -23258,19 +23262,19 @@
     </row>
     <row r="113" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B113" s="4">
-        <v>7.2983265968478303E-2</v>
+        <v>-4.3202253515229301E-3</v>
       </c>
       <c r="C113" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D113" s="4">
-        <v>367.21846322893799</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E113" s="4">
-        <v>1.3046720996790799</v>
+        <v>-9.5434480176418299E-2</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -23278,19 +23282,19 @@
     </row>
     <row r="114" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B114" s="4">
-        <v>-3.08551341589299E-2</v>
+        <v>-3.9906214535135501E-2</v>
       </c>
       <c r="C114" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>3.2221346214494101E-2</v>
       </c>
       <c r="D114" s="4">
-        <v>367.21846322901598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E114" s="4">
-        <v>-0.57035861656881204</v>
+        <v>-1.23850239743194</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -23298,19 +23302,19 @@
     </row>
     <row r="115" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B115" s="4">
-        <v>-2.8649351593569301E-2</v>
+        <v>7.2983265968478303E-2</v>
       </c>
       <c r="C115" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D115" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322893799</v>
       </c>
       <c r="E115" s="4">
-        <v>-0.55504448611952395</v>
+        <v>1.3046720996790799</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -23318,19 +23322,19 @@
     </row>
     <row r="116" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B116" s="4">
-        <v>1.8612618521636998E-2</v>
+        <v>-3.08551341589299E-2</v>
       </c>
       <c r="C116" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D116" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E116" s="4">
-        <v>0.42423016508419298</v>
+        <v>-0.57035861656881204</v>
       </c>
       <c r="F116" s="4">
         <v>1</v>
@@ -23338,19 +23342,19 @@
     </row>
     <row r="117" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B117" s="4">
-        <v>-6.15160921065315E-3</v>
+        <v>-2.8649351593569301E-2</v>
       </c>
       <c r="C117" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D117" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E117" s="4">
-        <v>-0.13589004727732501</v>
+        <v>-0.55504448611952395</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -23358,19 +23362,19 @@
     </row>
     <row r="118" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B118" s="4">
-        <v>-5.7981224310432698E-2</v>
+        <v>1.8612618521636998E-2</v>
       </c>
       <c r="C118" s="4">
-        <v>3.2221346214494101E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D118" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E118" s="4">
-        <v>-1.79946622727858</v>
+        <v>0.42423016508419298</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
@@ -23378,19 +23382,19 @@
     </row>
     <row r="119" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B119" s="4">
-        <v>1.0911258018935601E-3</v>
+        <v>-6.15160921065315E-3</v>
       </c>
       <c r="C119" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D119" s="4">
-        <v>367.21846322893799</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E119" s="4">
-        <v>1.9505312239456798E-2</v>
+        <v>-0.13589004727732501</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -23398,19 +23402,19 @@
     </row>
     <row r="120" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B120" s="4">
-        <v>-6.4625117450721997E-2</v>
+        <v>-5.7981224310432698E-2</v>
       </c>
       <c r="C120" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>3.2221346214494101E-2</v>
       </c>
       <c r="D120" s="4">
-        <v>367.21846322901598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E120" s="4">
-        <v>-1.19459835743813</v>
+        <v>-1.79946622727858</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
@@ -23418,19 +23422,19 @@
     </row>
     <row r="121" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B121" s="4">
-        <v>-1.07420681334744E-3</v>
+        <v>1.0911258018935601E-3</v>
       </c>
       <c r="C121" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D121" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322893799</v>
       </c>
       <c r="E121" s="4">
-        <v>-2.0811380905191301E-2</v>
+        <v>1.9505312239456798E-2</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -23438,19 +23442,19 @@
     </row>
     <row r="122" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B122" s="4">
-        <v>-2.5602419511729601E-2</v>
+        <v>-6.4625117450721997E-2</v>
       </c>
       <c r="C122" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D122" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E122" s="4">
-        <v>-0.58354597680007503</v>
+        <v>-1.19459835743813</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
@@ -23458,19 +23462,19 @@
     </row>
     <row r="123" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B123" s="4">
-        <v>-2.27382064319957E-2</v>
+        <v>-1.07420681334744E-3</v>
       </c>
       <c r="C123" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D123" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E123" s="4">
-        <v>-0.50229067569742503</v>
+        <v>-2.0811380905191301E-2</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -23478,19 +23482,19 @@
     </row>
     <row r="124" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B124" s="4">
-        <v>-4.1454046911440098E-2</v>
+        <v>-2.5602419511729601E-2</v>
       </c>
       <c r="C124" s="4">
-        <v>3.2221346214494101E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D124" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E124" s="4">
-        <v>-1.2865398805960799</v>
+        <v>-0.58354597680007503</v>
       </c>
       <c r="F124" s="4">
         <v>1</v>
@@ -23498,19 +23502,19 @@
     </row>
     <row r="125" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B125" s="4">
-        <v>-7.5006593257041801E-2</v>
+        <v>-2.27382064319957E-2</v>
       </c>
       <c r="C125" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D125" s="4">
-        <v>367.218463228909</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E125" s="4">
-        <v>-1.5208114864954201</v>
+        <v>-0.50229067569742503</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -23518,19 +23522,19 @@
     </row>
     <row r="126" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B126" s="4">
-        <v>3.6919309246818701E-3</v>
+        <v>-4.1454046911440098E-2</v>
       </c>
       <c r="C126" s="4">
-        <v>4.6584846287782998E-2</v>
+        <v>3.2221346214494101E-2</v>
       </c>
       <c r="D126" s="4">
-        <v>367.218463228899</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E126" s="4">
-        <v>7.9251757145973101E-2</v>
+        <v>-1.2865398805960799</v>
       </c>
       <c r="F126" s="4">
         <v>1</v>
@@ -23538,19 +23542,19 @@
     </row>
     <row r="127" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B127" s="4">
-        <v>-2.18148446108073E-2</v>
+        <v>-7.5006593257041801E-2</v>
       </c>
       <c r="C127" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D127" s="4">
-        <v>367.21846322883101</v>
+        <v>367.218463228909</v>
       </c>
       <c r="E127" s="4">
-        <v>-0.57671280809102698</v>
+        <v>-1.5208114864954201</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -23558,19 +23562,19 @@
     </row>
     <row r="128" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B128" s="4">
-        <v>-1.95733392983585E-2</v>
+        <v>3.6919309246818701E-3</v>
       </c>
       <c r="C128" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>4.6584846287782998E-2</v>
       </c>
       <c r="D128" s="4">
-        <v>367.21846322883999</v>
+        <v>367.218463228899</v>
       </c>
       <c r="E128" s="4">
-        <v>-0.496333377857265</v>
+        <v>7.9251757145973101E-2</v>
       </c>
       <c r="F128" s="4">
         <v>1</v>
@@ -23578,19 +23582,19 @@
     </row>
     <row r="129" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B129" s="4">
-        <v>-5.5159328481970998E-2</v>
+        <v>-2.18148446108073E-2</v>
       </c>
       <c r="C129" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D129" s="4">
-        <v>367.21846322892799</v>
+        <v>367.21846322883101</v>
       </c>
       <c r="E129" s="4">
-        <v>-0.98604571818618403</v>
+        <v>-0.57671280809102698</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -23598,19 +23602,19 @@
     </row>
     <row r="130" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B130" s="4">
-        <v>5.7730152021642701E-2</v>
+        <v>-1.95733392983585E-2</v>
       </c>
       <c r="C130" s="4">
-        <v>2.7478456379489001E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D130" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322883999</v>
       </c>
       <c r="E130" s="4">
-        <v>2.1009241285014402</v>
+        <v>-0.496333377857265</v>
       </c>
       <c r="F130" s="4">
         <v>1</v>
@@ -23618,19 +23622,19 @@
     </row>
     <row r="131" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B131" s="4">
-        <v>-4.6108248105765498E-2</v>
+        <v>-5.5159328481970998E-2</v>
       </c>
       <c r="C131" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D131" s="4">
-        <v>367.218463228909</v>
+        <v>367.21846322892799</v>
       </c>
       <c r="E131" s="4">
-        <v>-0.934877192743928</v>
+        <v>-0.98604571818618403</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -23638,19 +23642,19 @@
     </row>
     <row r="132" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B132" s="4">
-        <v>-4.3902465540404799E-2</v>
+        <v>5.7730152021642701E-2</v>
       </c>
       <c r="C132" s="4">
-        <v>4.6584846287782998E-2</v>
+        <v>2.7478456379489001E-2</v>
       </c>
       <c r="D132" s="4">
-        <v>367.218463228899</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E132" s="4">
-        <v>-0.94241945694512996</v>
+        <v>2.1009241285014402</v>
       </c>
       <c r="F132" s="4">
         <v>1</v>
@@ -23658,19 +23662,19 @@
     </row>
     <row r="133" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B133" s="4">
-        <v>3.3595045748014201E-3</v>
+        <v>-4.6108248105765498E-2</v>
       </c>
       <c r="C133" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D133" s="4">
-        <v>367.21846322883101</v>
+        <v>367.218463228909</v>
       </c>
       <c r="E133" s="4">
-        <v>8.8814261650460302E-2</v>
+        <v>-0.934877192743928</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -23678,19 +23682,19 @@
     </row>
     <row r="134" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B134" s="4">
-        <v>-2.14047231574887E-2</v>
+        <v>-4.3902465540404799E-2</v>
       </c>
       <c r="C134" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>4.6584846287782998E-2</v>
       </c>
       <c r="D134" s="4">
-        <v>367.21846322885</v>
+        <v>367.218463228899</v>
       </c>
       <c r="E134" s="4">
-        <v>-0.54277292111044895</v>
+        <v>-0.94241945694512996</v>
       </c>
       <c r="F134" s="4">
         <v>1</v>
@@ -23698,19 +23702,19 @@
     </row>
     <row r="135" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B135" s="4">
-        <v>-7.32343382572683E-2</v>
+        <v>3.3595045748014201E-3</v>
       </c>
       <c r="C135" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D135" s="4">
-        <v>367.21846322892799</v>
+        <v>367.21846322883101</v>
       </c>
       <c r="E135" s="4">
-        <v>-1.3091603478526901</v>
+        <v>8.8814261650460302E-2</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -23718,19 +23722,19 @@
     </row>
     <row r="136" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B136" s="4">
-        <v>-1.4161988144942E-2</v>
+        <v>-2.14047231574887E-2</v>
       </c>
       <c r="C136" s="4">
-        <v>2.7478456379489001E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D136" s="4">
-        <v>695.99999999991405</v>
+        <v>367.21846322885</v>
       </c>
       <c r="E136" s="4">
-        <v>-0.51538514206762598</v>
+        <v>-0.54277292111044895</v>
       </c>
       <c r="F136" s="4">
         <v>1</v>
@@ -23738,19 +23742,19 @@
     </row>
     <row r="137" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B137" s="4">
-        <v>-7.9878231397557495E-2</v>
+        <v>-7.32343382572683E-2</v>
       </c>
       <c r="C137" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D137" s="4">
-        <v>367.218463228909</v>
+        <v>367.21846322892799</v>
       </c>
       <c r="E137" s="4">
-        <v>-1.6195873796593201</v>
+        <v>-1.3091603478526901</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -23758,19 +23762,19 @@
     </row>
     <row r="138" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B138" s="4">
-        <v>-1.6327320760182999E-2</v>
+        <v>-1.4161988144942E-2</v>
       </c>
       <c r="C138" s="4">
-        <v>4.6584846287782998E-2</v>
+        <v>2.7478456379489001E-2</v>
       </c>
       <c r="D138" s="4">
-        <v>367.218463228899</v>
+        <v>695.99999999991405</v>
       </c>
       <c r="E138" s="4">
-        <v>-0.350485663499224</v>
+        <v>-0.51538514206762598</v>
       </c>
       <c r="F138" s="4">
         <v>1</v>
@@ -23778,19 +23782,19 @@
     </row>
     <row r="139" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B139" s="4">
-        <v>-4.0855533458565199E-2</v>
+        <v>-7.9878231397557495E-2</v>
       </c>
       <c r="C139" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D139" s="4">
-        <v>367.21846322883101</v>
+        <v>367.218463228909</v>
       </c>
       <c r="E139" s="4">
-        <v>-1.0800860536624299</v>
+        <v>-1.6195873796593201</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -23798,19 +23802,19 @@
     </row>
     <row r="140" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B140" s="4">
-        <v>-3.7991320378831198E-2</v>
+        <v>-1.6327320760182999E-2</v>
       </c>
       <c r="C140" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>4.6584846287782998E-2</v>
       </c>
       <c r="D140" s="4">
-        <v>367.21846322883999</v>
+        <v>367.218463228899</v>
       </c>
       <c r="E140" s="4">
-        <v>-0.96336961646928698</v>
+        <v>-0.350485663499224</v>
       </c>
       <c r="F140" s="4">
         <v>1</v>
@@ -23818,19 +23822,19 @@
     </row>
     <row r="141" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B141" s="4">
-        <v>-5.6707160858275603E-2</v>
+        <v>-4.0855533458565199E-2</v>
       </c>
       <c r="C141" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D141" s="4">
-        <v>367.21846322892799</v>
+        <v>367.21846322883101</v>
       </c>
       <c r="E141" s="4">
-        <v>-1.0137152625611501</v>
+        <v>-1.0800860536624299</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -23838,19 +23842,19 @@
     </row>
     <row r="142" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B142" s="4">
-        <v>7.8698524181723697E-2</v>
+        <v>-3.7991320378831198E-2</v>
       </c>
       <c r="C142" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D142" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322883999</v>
       </c>
       <c r="E142" s="4">
-        <v>1.7742533882306399</v>
+        <v>-0.96336961646928698</v>
       </c>
       <c r="F142" s="4">
         <v>1</v>
@@ -23858,19 +23862,19 @@
     </row>
     <row r="143" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B143" s="4">
-        <v>5.31917486462345E-2</v>
+        <v>-5.6707160858275603E-2</v>
       </c>
       <c r="C143" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D143" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322892799</v>
       </c>
       <c r="E143" s="4">
-        <v>1.5178362402879799</v>
+        <v>-1.0137152625611501</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -23878,19 +23882,19 @@
     </row>
     <row r="144" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B144" s="4">
-        <v>5.5433253958683301E-2</v>
+        <v>7.8698524181723697E-2</v>
       </c>
       <c r="C144" s="4">
-        <v>3.6776104146463602E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D144" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E144" s="4">
-        <v>1.5073171899317099</v>
+        <v>1.7742533882306399</v>
       </c>
       <c r="F144" s="4">
         <v>1</v>
@@ -23898,19 +23902,19 @@
     </row>
     <row r="145" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B145" s="4">
-        <v>1.9847264775070799E-2</v>
+        <v>5.31917486462345E-2</v>
       </c>
       <c r="C145" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D145" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E145" s="4">
-        <v>0.36687762955352798</v>
+        <v>1.5178362402879799</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -23918,19 +23922,19 @@
     </row>
     <row r="146" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B146" s="4">
-        <v>0.13273674527868501</v>
+        <v>5.5433253958683301E-2</v>
       </c>
       <c r="C146" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>3.6776104146463602E-2</v>
       </c>
       <c r="D146" s="4">
-        <v>367.21846322891798</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E146" s="4">
-        <v>2.6913309635068399</v>
+        <v>1.5073171899317099</v>
       </c>
       <c r="F146" s="4">
         <v>1</v>
@@ -23938,19 +23942,19 @@
     </row>
     <row r="147" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B147" s="4">
-        <v>2.8898345151276299E-2</v>
+        <v>1.9847264775070799E-2</v>
       </c>
       <c r="C147" s="4">
-        <v>2.5276503554143698E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D147" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E147" s="4">
-        <v>1.14328886862751</v>
+        <v>0.36687762955352798</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -23958,19 +23962,19 @@
     </row>
     <row r="148" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B148" s="4">
-        <v>3.1104127716636999E-2</v>
+        <v>0.13273674527868501</v>
       </c>
       <c r="C148" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D148" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322891798</v>
       </c>
       <c r="E148" s="4">
-        <v>0.70124064667044606</v>
+        <v>2.6913309635068399</v>
       </c>
       <c r="F148" s="4">
         <v>1</v>
@@ -23978,19 +23982,19 @@
     </row>
     <row r="149" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B149" s="4">
-        <v>7.8366097831843298E-2</v>
+        <v>2.8898345151276299E-2</v>
       </c>
       <c r="C149" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>2.5276503554143698E-2</v>
       </c>
       <c r="D149" s="4">
-        <v>367.21846322901598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E149" s="4">
-        <v>2.2361908816010501</v>
+        <v>1.14328886862751</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -23998,19 +24002,19 @@
     </row>
     <row r="150" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B150" s="4">
-        <v>5.3601870099553098E-2</v>
+        <v>3.1104127716636999E-2</v>
       </c>
       <c r="C150" s="4">
-        <v>3.6776104146463498E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D150" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E150" s="4">
-        <v>1.45751898803853</v>
+        <v>0.70124064667044606</v>
       </c>
       <c r="F150" s="4">
         <v>1</v>
@@ -24018,19 +24022,19 @@
     </row>
     <row r="151" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B151" s="4">
-        <v>1.7722549997735799E-3</v>
+        <v>7.8366097831843298E-2</v>
       </c>
       <c r="C151" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D151" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E151" s="4">
-        <v>3.2760217624445899E-2</v>
+        <v>2.2361908816010501</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -24038,19 +24042,19 @@
     </row>
     <row r="152" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B152" s="4">
-        <v>6.0844605112099798E-2</v>
+        <v>5.3601870099553098E-2</v>
       </c>
       <c r="C152" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>3.6776104146463498E-2</v>
       </c>
       <c r="D152" s="4">
-        <v>367.21846322891798</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E152" s="4">
-        <v>1.2336672061435401</v>
+        <v>1.45751898803853</v>
       </c>
       <c r="F152" s="4">
         <v>1</v>
@@ -24058,19 +24062,19 @@
     </row>
     <row r="153" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B153" s="4">
-        <v>-4.8716381405156904E-3</v>
+        <v>1.7722549997735799E-3</v>
       </c>
       <c r="C153" s="4">
-        <v>2.5276503554143698E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D153" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E153" s="4">
-        <v>-0.19273386170996201</v>
+        <v>3.2760217624445899E-2</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -24078,19 +24082,19 @@
     </row>
     <row r="154" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B154" s="4">
-        <v>5.8679272496858802E-2</v>
+        <v>6.0844605112099798E-2</v>
       </c>
       <c r="C154" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D154" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322891798</v>
       </c>
       <c r="E154" s="4">
-        <v>1.3229205900488601</v>
+        <v>1.2336672061435401</v>
       </c>
       <c r="F154" s="4">
         <v>1</v>
@@ -24098,19 +24102,19 @@
     </row>
     <row r="155" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B155" s="4">
-        <v>3.4151059798476602E-2</v>
+        <v>-4.8716381405156904E-3</v>
       </c>
       <c r="C155" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>2.5276503554143698E-2</v>
       </c>
       <c r="D155" s="4">
-        <v>367.21846322901598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E155" s="4">
-        <v>0.97450671439881698</v>
+        <v>-0.19273386170996201</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -24118,19 +24122,19 @@
     </row>
     <row r="156" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B156" s="4">
-        <v>3.7015272878210603E-2</v>
+        <v>5.8679272496858802E-2</v>
       </c>
       <c r="C156" s="4">
-        <v>3.6776104146463602E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D156" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E156" s="4">
-        <v>1.00650337324461</v>
+        <v>1.3229205900488601</v>
       </c>
       <c r="F156" s="4">
         <v>1</v>
@@ -24138,19 +24142,19 @@
     </row>
     <row r="157" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B157" s="4">
-        <v>1.8299432398766202E-2</v>
+        <v>3.4151059798476602E-2</v>
       </c>
       <c r="C157" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D157" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E157" s="4">
-        <v>0.33826587475504699</v>
+        <v>0.97450671439881698</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -24158,19 +24162,19 @@
     </row>
     <row r="158" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B158" s="4">
-        <v>-2.55067755354892E-2</v>
+        <v>3.7015272878210603E-2</v>
       </c>
       <c r="C158" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>3.6776104146463602E-2</v>
       </c>
       <c r="D158" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E158" s="4">
-        <v>-0.82075691476047097</v>
+        <v>1.00650337324461</v>
       </c>
       <c r="F158" s="4">
         <v>1</v>
@@ -24178,19 +24182,19 @@
     </row>
     <row r="159" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B159" s="4">
-        <v>-2.32652702230404E-2</v>
+        <v>1.8299432398766202E-2</v>
       </c>
       <c r="C159" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D159" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E159" s="4">
-        <v>-0.70463420877134597</v>
+        <v>0.33826587475504699</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -24198,19 +24202,19 @@
     </row>
     <row r="160" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B160" s="4">
-        <v>-5.8851259406652902E-2</v>
+        <v>-2.55067755354892E-2</v>
       </c>
       <c r="C160" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D160" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E160" s="4">
-        <v>-1.14016776010332</v>
+        <v>-0.82075691476047097</v>
       </c>
       <c r="F160" s="4">
         <v>1</v>
@@ -24218,19 +24222,19 @@
     </row>
     <row r="161" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B161" s="4">
-        <v>5.4038221096960902E-2</v>
+        <v>-2.32652702230404E-2</v>
       </c>
       <c r="C161" s="4">
-        <v>4.6584846287782998E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D161" s="4">
-        <v>367.218463228899</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E161" s="4">
-        <v>1.1599956939459199</v>
+        <v>-0.70463420877134597</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -24238,19 +24242,19 @@
     </row>
     <row r="162" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B162" s="4">
-        <v>-4.9800179030447402E-2</v>
+        <v>-5.8851259406652902E-2</v>
       </c>
       <c r="C162" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D162" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E162" s="4">
-        <v>-1.122741973855</v>
+        <v>-1.14016776010332</v>
       </c>
       <c r="F162" s="4">
         <v>1</v>
@@ -24258,19 +24262,19 @@
     </row>
     <row r="163" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B163" s="4">
-        <v>-4.7594396465086702E-2</v>
+        <v>5.4038221096960902E-2</v>
       </c>
       <c r="C163" s="4">
-        <v>2.2103661148690699E-2</v>
+        <v>4.6584846287782998E-2</v>
       </c>
       <c r="D163" s="4">
-        <v>696.00000000002001</v>
+        <v>367.218463228899</v>
       </c>
       <c r="E163" s="4">
-        <v>-2.1532358890647401</v>
+        <v>1.1599956939459199</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -24278,19 +24282,19 @@
     </row>
     <row r="164" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B164" s="4">
-        <v>-3.3242634988045E-4</v>
+        <v>-4.9800179030447402E-2</v>
       </c>
       <c r="C164" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D164" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E164" s="4">
-        <v>-1.06968136734234E-2</v>
+        <v>-1.122741973855</v>
       </c>
       <c r="F164" s="4">
         <v>1</v>
@@ -24298,19 +24302,19 @@
     </row>
     <row r="165" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B165" s="4">
-        <v>-2.50966540821706E-2</v>
+        <v>-4.7594396465086702E-2</v>
       </c>
       <c r="C165" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>2.2103661148690699E-2</v>
       </c>
       <c r="D165" s="4">
-        <v>367.21846322901598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E165" s="4">
-        <v>-0.76010125059649802</v>
+        <v>-2.1532358890647401</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -24318,19 +24322,19 @@
     </row>
     <row r="166" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B166" s="4">
-        <v>-7.6926269181950099E-2</v>
+        <v>-3.3242634988045E-4</v>
       </c>
       <c r="C166" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D166" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E166" s="4">
-        <v>-1.49034791966362</v>
+        <v>-1.06968136734234E-2</v>
       </c>
       <c r="F166" s="4">
         <v>1</v>
@@ -24338,19 +24342,19 @@
     </row>
     <row r="167" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B167" s="4">
-        <v>-1.78539190696239E-2</v>
+        <v>-2.50966540821706E-2</v>
       </c>
       <c r="C167" s="4">
-        <v>4.6584846287783102E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D167" s="4">
-        <v>367.218463228909</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E167" s="4">
-        <v>-0.38325594034011201</v>
+        <v>-0.76010125059649802</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -24358,19 +24362,19 @@
     </row>
     <row r="168" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B168" s="4">
-        <v>-8.3570162322239405E-2</v>
+        <v>-7.6926269181950099E-2</v>
       </c>
       <c r="C168" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D168" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E168" s="4">
-        <v>-1.8840841705345699</v>
+        <v>-1.49034791966362</v>
       </c>
       <c r="F168" s="4">
         <v>1</v>
@@ -24378,19 +24382,19 @@
     </row>
     <row r="169" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B169" s="4">
-        <v>-2.0019251684864899E-2</v>
+        <v>-1.78539190696239E-2</v>
       </c>
       <c r="C169" s="4">
-        <v>2.2103661148690699E-2</v>
+        <v>4.6584846287783102E-2</v>
       </c>
       <c r="D169" s="4">
-        <v>696.00000000002001</v>
+        <v>367.218463228909</v>
       </c>
       <c r="E169" s="4">
-        <v>-0.90569845195309395</v>
+        <v>-0.38325594034011201</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -24398,19 +24402,19 @@
     </row>
     <row r="170" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B170" s="4">
-        <v>-4.4547464383247103E-2</v>
+        <v>-8.3570162322239405E-2</v>
       </c>
       <c r="C170" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D170" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E170" s="4">
-        <v>-1.43344811956823</v>
+        <v>-1.8840841705345699</v>
       </c>
       <c r="F170" s="4">
         <v>1</v>
@@ -24418,19 +24422,19 @@
     </row>
     <row r="171" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B171" s="4">
-        <v>-4.1683251303513101E-2</v>
+        <v>-2.0019251684864899E-2</v>
       </c>
       <c r="C171" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>2.2103661148690699E-2</v>
       </c>
       <c r="D171" s="4">
-        <v>367.21846322901598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E171" s="4">
-        <v>-1.2624587859796499</v>
+        <v>-0.90569845195309395</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -24438,19 +24442,19 @@
     </row>
     <row r="172" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B172" s="4">
-        <v>-6.0399091782957499E-2</v>
+        <v>-4.4547464383247103E-2</v>
       </c>
       <c r="C172" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D172" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E172" s="4">
-        <v>-1.1701550295568499</v>
+        <v>-1.43344811956823</v>
       </c>
       <c r="F172" s="4">
         <v>1</v>
@@ -24458,19 +24462,19 @@
     </row>
     <row r="173" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
-        <v>233</v>
+        <v>481</v>
       </c>
       <c r="B173" s="4">
-        <v>2.2415053124488298E-3</v>
+        <v>-4.1683251303513101E-2</v>
       </c>
       <c r="C173" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D173" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E173" s="4">
-        <v>0.11967193638835601</v>
+        <v>-1.2624587859796499</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -24478,19 +24482,19 @@
     </row>
     <row r="174" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B174" s="4">
-        <v>-3.3344483871163698E-2</v>
+        <v>-6.0399091782957499E-2</v>
       </c>
       <c r="C174" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D174" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E174" s="4">
-        <v>-0.760007834516498</v>
+        <v>-1.1701550295568499</v>
       </c>
       <c r="F174" s="4">
         <v>1</v>
@@ -24498,19 +24502,19 @@
     </row>
     <row r="175" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
-        <v>484</v>
+        <v>233</v>
       </c>
       <c r="B175" s="4">
-        <v>7.9544996632450099E-2</v>
+        <v>2.2415053124488298E-3</v>
       </c>
       <c r="C175" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D175" s="4">
-        <v>367.21846322883999</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E175" s="4">
-        <v>2.1029083266889099</v>
+        <v>0.11967193638835601</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -24518,19 +24522,19 @@
     </row>
     <row r="176" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B176" s="4">
-        <v>-2.4293403494958201E-2</v>
+        <v>-3.3344483871163698E-2</v>
       </c>
       <c r="C176" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D176" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E176" s="4">
-        <v>-0.69321669550332599</v>
+        <v>-0.760007834516498</v>
       </c>
       <c r="F176" s="4">
         <v>1</v>
@@ -24538,19 +24542,19 @@
     </row>
     <row r="177" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B177" s="4">
-        <v>-2.2087620929597498E-2</v>
+        <v>7.9544996632450099E-2</v>
       </c>
       <c r="C177" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D177" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322883999</v>
       </c>
       <c r="E177" s="4">
-        <v>-0.71073537238573503</v>
+        <v>2.1029083266889099</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -24558,39 +24562,39 @@
     </row>
     <row r="178" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
-        <v>237</v>
+        <v>485</v>
       </c>
       <c r="B178" s="4">
-        <v>2.5174349185608701E-2</v>
+        <v>-2.4293403494958201E-2</v>
       </c>
       <c r="C178" s="4">
-        <v>8.0553365536235304E-3</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D178" s="4">
-        <v>695.99999999998499</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E178" s="4">
-        <v>3.1251765854878601</v>
+        <v>-0.69321669550332599</v>
       </c>
       <c r="F178" s="4">
-        <v>0.48306955679406599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="B179" s="4">
-        <v>4.1012145331860401E-4</v>
+        <v>-2.2087620929597498E-2</v>
       </c>
       <c r="C179" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D179" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E179" s="4">
-        <v>2.18960125592675E-2</v>
+        <v>-0.71073537238573503</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -24598,19 +24602,19 @@
     </row>
     <row r="180" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
-        <v>487</v>
+        <v>238</v>
       </c>
       <c r="B180" s="4">
-        <v>-5.1419493646460902E-2</v>
+        <v>4.1012145331860401E-4</v>
       </c>
       <c r="C180" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D180" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E180" s="4">
-        <v>-1.1719844928227301</v>
+        <v>2.18960125592675E-2</v>
       </c>
       <c r="F180" s="4">
         <v>1</v>
@@ -24618,19 +24622,19 @@
     </row>
     <row r="181" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B181" s="4">
-        <v>7.6528564658653103E-3</v>
+        <v>-5.1419493646460902E-2</v>
       </c>
       <c r="C181" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D181" s="4">
-        <v>367.21846322883999</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E181" s="4">
-        <v>0.202316377727497</v>
+        <v>-1.1719844928227301</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -24638,19 +24642,19 @@
     </row>
     <row r="182" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B182" s="4">
-        <v>-5.8063386786750201E-2</v>
+        <v>7.6528564658653103E-3</v>
       </c>
       <c r="C182" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D182" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322883999</v>
       </c>
       <c r="E182" s="4">
-        <v>-1.65684932234365</v>
+        <v>0.202316377727497</v>
       </c>
       <c r="F182" s="4">
         <v>1</v>
@@ -24658,19 +24662,19 @@
     </row>
     <row r="183" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B183" s="4">
-        <v>5.4875238506243099E-3</v>
+        <v>-5.8063386786750201E-2</v>
       </c>
       <c r="C183" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D183" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E183" s="4">
-        <v>0.17657751913981901</v>
+        <v>-1.65684932234365</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -24678,19 +24682,19 @@
     </row>
     <row r="184" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
-        <v>242</v>
+        <v>490</v>
       </c>
       <c r="B184" s="4">
-        <v>-1.9040688847757899E-2</v>
+        <v>5.4875238506243099E-3</v>
       </c>
       <c r="C184" s="4">
-        <v>8.0553365536235096E-3</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D184" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E184" s="4">
-        <v>-2.3637359806143499</v>
+        <v>0.17657751913981901</v>
       </c>
       <c r="F184" s="4">
         <v>1</v>
@@ -24698,19 +24702,19 @@
     </row>
     <row r="185" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B185" s="4">
-        <v>-1.6176475768023901E-2</v>
+        <v>-1.9040688847757899E-2</v>
       </c>
       <c r="C185" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>8.0553365536235096E-3</v>
       </c>
       <c r="D185" s="4">
-        <v>367.21846322900598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E185" s="4">
-        <v>-0.86364737497937305</v>
+        <v>-2.3637359806143499</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -24718,19 +24722,19 @@
     </row>
     <row r="186" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
-        <v>491</v>
+        <v>243</v>
       </c>
       <c r="B186" s="4">
-        <v>-3.4892316247468302E-2</v>
+        <v>-1.6176475768023901E-2</v>
       </c>
       <c r="C186" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D186" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E186" s="4">
-        <v>-0.79528697505005796</v>
+        <v>-0.86364737497937305</v>
       </c>
       <c r="F186" s="4">
         <v>1</v>
@@ -24738,19 +24742,19 @@
     </row>
     <row r="187" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B187" s="4">
-        <v>-3.5585989183612499E-2</v>
+        <v>-3.4892316247468302E-2</v>
       </c>
       <c r="C187" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D187" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E187" s="4">
-        <v>-0.78610028481605299</v>
+        <v>-0.79528697505005796</v>
       </c>
       <c r="F187" s="4">
         <v>1</v>
@@ -24758,19 +24762,19 @@
     </row>
     <row r="188" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B188" s="4">
-        <v>7.7303491320001194E-2</v>
+        <v>-3.5585989183612499E-2</v>
       </c>
       <c r="C188" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D188" s="4">
-        <v>367.21846322886</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E188" s="4">
-        <v>1.9602328648251499</v>
+        <v>-0.78610028481605299</v>
       </c>
       <c r="F188" s="4">
         <v>1</v>
@@ -24778,19 +24782,19 @@
     </row>
     <row r="189" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B189" s="4">
-        <v>-2.6534908807406998E-2</v>
+        <v>7.7303491320001194E-2</v>
       </c>
       <c r="C189" s="4">
-        <v>3.6776104146463602E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D189" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322886</v>
       </c>
       <c r="E189" s="4">
-        <v>-0.72152582290200695</v>
+        <v>1.9602328648251499</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -24798,19 +24802,19 @@
     </row>
     <row r="190" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B190" s="4">
-        <v>-2.4329126242046299E-2</v>
+        <v>-2.6534908807406998E-2</v>
       </c>
       <c r="C190" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>3.6776104146463602E-2</v>
       </c>
       <c r="D190" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E190" s="4">
-        <v>-0.73685516889827896</v>
+        <v>-0.72152582290200695</v>
       </c>
       <c r="F190" s="4">
         <v>1</v>
@@ -24818,19 +24822,19 @@
     </row>
     <row r="191" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
-        <v>249</v>
+        <v>495</v>
       </c>
       <c r="B191" s="4">
-        <v>2.29328438731599E-2</v>
+        <v>-2.4329126242046299E-2</v>
       </c>
       <c r="C191" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D191" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E191" s="4">
-        <v>1.2243637425042</v>
+        <v>-0.73685516889827896</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -24838,19 +24842,19 @@
     </row>
     <row r="192" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B192" s="4">
-        <v>-1.8313838591302201E-3</v>
+        <v>2.29328438731599E-2</v>
       </c>
       <c r="C192" s="4">
-        <v>1.1668734472093999E-2</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D192" s="4">
-        <v>695.99999999998499</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E192" s="4">
-        <v>-0.15694794182779701</v>
+        <v>1.2243637425042</v>
       </c>
       <c r="F192" s="4">
         <v>1</v>
@@ -24858,19 +24862,19 @@
     </row>
     <row r="193" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A193" s="3" t="s">
-        <v>496</v>
+        <v>250</v>
       </c>
       <c r="B193" s="4">
-        <v>-5.36609989589098E-2</v>
+        <v>-1.8313838591302201E-3</v>
       </c>
       <c r="C193" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>1.1668734472093999E-2</v>
       </c>
       <c r="D193" s="4">
-        <v>367.21846322901598</v>
+        <v>695.99999999998499</v>
       </c>
       <c r="E193" s="4">
-        <v>-1.185380188463</v>
+        <v>-0.15694794182779701</v>
       </c>
       <c r="F193" s="4">
         <v>1</v>
@@ -24878,19 +24882,19 @@
     </row>
     <row r="194" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B194" s="4">
-        <v>5.41135115341648E-3</v>
+        <v>-5.36609989589098E-2</v>
       </c>
       <c r="C194" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D194" s="4">
-        <v>367.21846322885</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E194" s="4">
-        <v>0.13721900774346901</v>
+        <v>-1.185380188463</v>
       </c>
       <c r="F194" s="4">
         <v>1</v>
@@ -24898,19 +24902,19 @@
     </row>
     <row r="195" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B195" s="4">
-        <v>-6.0304892099199002E-2</v>
+        <v>5.41135115341648E-3</v>
       </c>
       <c r="C195" s="4">
-        <v>3.6776104146463498E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D195" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322885</v>
       </c>
       <c r="E195" s="4">
-        <v>-1.6397846780896199</v>
+        <v>0.13721900774346901</v>
       </c>
       <c r="F195" s="4">
         <v>1</v>
@@ -24918,19 +24922,19 @@
     </row>
     <row r="196" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B196" s="4">
-        <v>3.2460185381754901E-3</v>
+        <v>-6.0304892099199002E-2</v>
       </c>
       <c r="C196" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>3.6776104146463498E-2</v>
       </c>
       <c r="D196" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E196" s="4">
-        <v>9.8312019691877903E-2</v>
+        <v>-1.6397846780896199</v>
       </c>
       <c r="F196" s="4">
         <v>1</v>
@@ -24938,19 +24942,19 @@
     </row>
     <row r="197" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A197" s="3" t="s">
-        <v>254</v>
+        <v>499</v>
       </c>
       <c r="B197" s="4">
-        <v>-2.1282194160206699E-2</v>
+        <v>3.2460185381754901E-3</v>
       </c>
       <c r="C197" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D197" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E197" s="4">
-        <v>-1.1362370508783</v>
+        <v>9.8312019691877903E-2</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -24958,19 +24962,19 @@
     </row>
     <row r="198" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B198" s="4">
-        <v>-1.8417981080472701E-2</v>
+        <v>-2.1282194160206699E-2</v>
       </c>
       <c r="C198" s="4">
-        <v>1.1668734472093999E-2</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D198" s="4">
-        <v>695.99999999998499</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E198" s="4">
-        <v>-1.57840433549325</v>
+        <v>-1.1362370508783</v>
       </c>
       <c r="F198" s="4">
         <v>1</v>
@@ -24978,19 +24982,19 @@
     </row>
     <row r="199" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A199" s="3" t="s">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="B199" s="4">
-        <v>-3.7133821559917103E-2</v>
+        <v>-1.8417981080472701E-2</v>
       </c>
       <c r="C199" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>1.1668734472093999E-2</v>
       </c>
       <c r="D199" s="4">
-        <v>367.21846322901598</v>
+        <v>695.99999999998499</v>
       </c>
       <c r="E199" s="4">
-        <v>-0.82029215357604501</v>
+        <v>-1.57840433549325</v>
       </c>
       <c r="F199" s="4">
         <v>1</v>
@@ -24998,19 +25002,19 @@
     </row>
     <row r="200" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B200" s="4">
-        <v>0.112889480503614</v>
+        <v>-3.7133821559917103E-2</v>
       </c>
       <c r="C200" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D200" s="4">
-        <v>367.21846322893799</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E200" s="4">
-        <v>2.0180482964950199</v>
+        <v>-0.82029215357604501</v>
       </c>
       <c r="F200" s="4">
         <v>1</v>
@@ -25018,19 +25022,19 @@
     </row>
     <row r="201" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A201" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B201" s="4">
-        <v>9.0510803762055194E-3</v>
+        <v>0.112889480503614</v>
       </c>
       <c r="C201" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D201" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322893799</v>
       </c>
       <c r="E201" s="4">
-        <v>0.167309649513601</v>
+        <v>2.0180482964950199</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -25038,19 +25042,19 @@
     </row>
     <row r="202" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B202" s="4">
-        <v>1.1256862941566199E-2</v>
+        <v>9.0510803762055194E-3</v>
       </c>
       <c r="C202" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D202" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E202" s="4">
-        <v>0.218087298985223</v>
+        <v>0.167309649513601</v>
       </c>
       <c r="F202" s="4">
         <v>1</v>
@@ -25058,19 +25062,19 @@
     </row>
     <row r="203" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A203" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B203" s="4">
-        <v>5.8518833056772503E-2</v>
+        <v>1.1256862941566199E-2</v>
       </c>
       <c r="C203" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D203" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E203" s="4">
-        <v>1.3337969710897799</v>
+        <v>0.218087298985223</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -25078,19 +25082,19 @@
     </row>
     <row r="204" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B204" s="4">
-        <v>3.3754605324482302E-2</v>
+        <v>5.8518833056772503E-2</v>
       </c>
       <c r="C204" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D204" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E204" s="4">
-        <v>0.74564471771514595</v>
+        <v>1.3337969710897799</v>
       </c>
       <c r="F204" s="4">
         <v>1</v>
@@ -25098,19 +25102,19 @@
     </row>
     <row r="205" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B205" s="4">
-        <v>-1.8075009775297201E-2</v>
+        <v>3.3754605324482302E-2</v>
       </c>
       <c r="C205" s="4">
-        <v>3.2221346214494101E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D205" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E205" s="4">
-        <v>-0.56096382984664295</v>
+        <v>0.74564471771514595</v>
       </c>
       <c r="F205" s="4">
         <v>1</v>
@@ -25118,19 +25122,19 @@
     </row>
     <row r="206" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B206" s="4">
-        <v>4.0997340337029002E-2</v>
+        <v>-1.8075009775297201E-2</v>
       </c>
       <c r="C206" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>3.2221346214494101E-2</v>
       </c>
       <c r="D206" s="4">
-        <v>367.21846322893799</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E206" s="4">
-        <v>0.73288150905539495</v>
+        <v>-0.56096382984664295</v>
       </c>
       <c r="F206" s="4">
         <v>1</v>
@@ -25138,19 +25142,19 @@
     </row>
     <row r="207" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A207" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B207" s="4">
-        <v>-2.47189029155865E-2</v>
+        <v>4.0997340337029002E-2</v>
       </c>
       <c r="C207" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D207" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322893799</v>
       </c>
       <c r="E207" s="4">
-        <v>-0.456930091355714</v>
+        <v>0.73288150905539495</v>
       </c>
       <c r="F207" s="4">
         <v>1</v>
@@ -25158,19 +25162,19 @@
     </row>
     <row r="208" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B208" s="4">
-        <v>3.8832007721787999E-2</v>
+        <v>-2.47189029155865E-2</v>
       </c>
       <c r="C208" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D208" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E208" s="4">
-        <v>0.75232040419955504</v>
+        <v>-0.456930091355714</v>
       </c>
       <c r="F208" s="4">
         <v>1</v>
@@ -25178,19 +25182,19 @@
     </row>
     <row r="209" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A209" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B209" s="4">
-        <v>1.4303795023405799E-2</v>
+        <v>3.8832007721787999E-2</v>
       </c>
       <c r="C209" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D209" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E209" s="4">
-        <v>0.32602082920550901</v>
+        <v>0.75232040419955504</v>
       </c>
       <c r="F209" s="4">
         <v>1</v>
@@ -25198,19 +25202,19 @@
     </row>
     <row r="210" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B210" s="4">
-        <v>1.7168008103139801E-2</v>
+        <v>1.4303795023405799E-2</v>
       </c>
       <c r="C210" s="4">
-        <v>4.5269019578004097E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D210" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E210" s="4">
-        <v>0.37924408929504599</v>
+        <v>0.32602082920550901</v>
       </c>
       <c r="F210" s="4">
         <v>1</v>
@@ -25218,19 +25222,19 @@
     </row>
     <row r="211" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A211" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B211" s="4">
-        <v>-1.5478323763046099E-3</v>
+        <v>1.7168008103139801E-2</v>
       </c>
       <c r="C211" s="4">
-        <v>3.2221346214494101E-2</v>
+        <v>4.5269019578004097E-2</v>
       </c>
       <c r="D211" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E211" s="4">
-        <v>-4.8037483164137598E-2</v>
+        <v>0.37924408929504599</v>
       </c>
       <c r="F211" s="4">
         <v>1</v>
@@ -25238,19 +25242,19 @@
     </row>
     <row r="212" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B212" s="4">
-        <v>-0.103838400127408</v>
+        <v>-1.5478323763046099E-3</v>
       </c>
       <c r="C212" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>3.2221346214494101E-2</v>
       </c>
       <c r="D212" s="4">
-        <v>367.21846322891798</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E212" s="4">
-        <v>-2.1053966697553501</v>
+        <v>-4.8037483164137598E-2</v>
       </c>
       <c r="F212" s="4">
         <v>1</v>
@@ -25258,19 +25262,19 @@
     </row>
     <row r="213" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A213" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B213" s="4">
-        <v>-0.101632617562048</v>
+        <v>-0.103838400127408</v>
       </c>
       <c r="C213" s="4">
-        <v>4.6584846287782998E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D213" s="4">
-        <v>367.218463228909</v>
+        <v>367.21846322891798</v>
       </c>
       <c r="E213" s="4">
-        <v>-2.1816669080370201</v>
+        <v>-2.1053966697553501</v>
       </c>
       <c r="F213" s="4">
         <v>1</v>
@@ -25278,19 +25282,19 @@
     </row>
     <row r="214" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B214" s="4">
-        <v>-5.4370647446841301E-2</v>
+        <v>-0.101632617562048</v>
       </c>
       <c r="C214" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>4.6584846287782998E-2</v>
       </c>
       <c r="D214" s="4">
-        <v>367.21846322883999</v>
+        <v>367.218463228909</v>
       </c>
       <c r="E214" s="4">
-        <v>-1.43738125694743</v>
+        <v>-2.1816669080370201</v>
       </c>
       <c r="F214" s="4">
         <v>1</v>
@@ -25298,19 +25302,19 @@
     </row>
     <row r="215" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A215" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B215" s="4">
-        <v>-7.9134875179131495E-2</v>
+        <v>-5.4370647446841301E-2</v>
       </c>
       <c r="C215" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D215" s="4">
-        <v>367.21846322885</v>
+        <v>367.21846322883999</v>
       </c>
       <c r="E215" s="4">
-        <v>-2.0066724080783298</v>
+        <v>-1.43738125694743</v>
       </c>
       <c r="F215" s="4">
         <v>1</v>
@@ -25318,19 +25322,19 @@
     </row>
     <row r="216" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B216" s="4">
-        <v>-0.13096449027891099</v>
+        <v>-7.9134875179131495E-2</v>
       </c>
       <c r="C216" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D216" s="4">
-        <v>367.21846322893799</v>
+        <v>367.21846322885</v>
       </c>
       <c r="E216" s="4">
-        <v>-2.3411629261615299</v>
+        <v>-2.0066724080783298</v>
       </c>
       <c r="F216" s="4">
         <v>1</v>
@@ -25338,19 +25342,19 @@
     </row>
     <row r="217" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A217" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B217" s="4">
-        <v>-7.1892140166584795E-2</v>
+        <v>-0.13096449027891099</v>
       </c>
       <c r="C217" s="4">
-        <v>2.7478456379489102E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D217" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322893799</v>
       </c>
       <c r="E217" s="4">
-        <v>-2.6163092705690598</v>
+        <v>-2.3411629261615299</v>
       </c>
       <c r="F217" s="4">
         <v>1</v>
@@ -25358,19 +25362,19 @@
     </row>
     <row r="218" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B218" s="4">
-        <v>-0.13760838341920001</v>
+        <v>-7.1892140166584795E-2</v>
       </c>
       <c r="C218" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>2.7478456379489102E-2</v>
       </c>
       <c r="D218" s="4">
-        <v>367.21846322891798</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E218" s="4">
-        <v>-2.7901068566707399</v>
+        <v>-2.6163092705690598</v>
       </c>
       <c r="F218" s="4">
         <v>1</v>
@@ -25378,19 +25382,19 @@
     </row>
     <row r="219" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A219" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B219" s="4">
-        <v>-7.4057472781825798E-2</v>
+        <v>-0.13760838341920001</v>
       </c>
       <c r="C219" s="4">
-        <v>4.6584846287782998E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D219" s="4">
-        <v>367.218463228909</v>
+        <v>367.21846322891798</v>
       </c>
       <c r="E219" s="4">
-        <v>-1.58973311459112</v>
+        <v>-2.7901068566707399</v>
       </c>
       <c r="F219" s="4">
         <v>1</v>
@@ -25398,19 +25402,19 @@
     </row>
     <row r="220" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B220" s="4">
-        <v>-9.8585685480208005E-2</v>
+        <v>-7.4057472781825798E-2</v>
       </c>
       <c r="C220" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>4.6584846287782998E-2</v>
       </c>
       <c r="D220" s="4">
-        <v>367.21846322883999</v>
+        <v>367.218463228909</v>
       </c>
       <c r="E220" s="4">
-        <v>-2.6062815722603201</v>
+        <v>-1.58973311459112</v>
       </c>
       <c r="F220" s="4">
         <v>1</v>
@@ -25418,19 +25422,19 @@
     </row>
     <row r="221" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A221" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B221" s="4">
-        <v>-9.5721472400474003E-2</v>
+        <v>-9.8585685480208005E-2</v>
       </c>
       <c r="C221" s="4">
-        <v>3.9435871475859897E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D221" s="4">
-        <v>367.21846322885</v>
+        <v>367.21846322883999</v>
       </c>
       <c r="E221" s="4">
-        <v>-2.4272691034371698</v>
+        <v>-2.6062815722603201</v>
       </c>
       <c r="F221" s="4">
         <v>1</v>
@@ -25438,19 +25442,19 @@
     </row>
     <row r="222" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B222" s="4">
-        <v>-0.114437312879918</v>
+        <v>-9.5721472400474003E-2</v>
       </c>
       <c r="C222" s="4">
-        <v>5.5939930030258399E-2</v>
+        <v>3.9435871475859897E-2</v>
       </c>
       <c r="D222" s="4">
-        <v>367.21846322893799</v>
+        <v>367.21846322885</v>
       </c>
       <c r="E222" s="4">
-        <v>-2.0457178408699899</v>
+        <v>-2.4272691034371698</v>
       </c>
       <c r="F222" s="4">
         <v>1</v>
@@ -25458,19 +25462,19 @@
     </row>
     <row r="223" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A223" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B223" s="4">
-        <v>2.20578256536068E-3</v>
+        <v>-0.114437312879918</v>
       </c>
       <c r="C223" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>5.5939930030258399E-2</v>
       </c>
       <c r="D223" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322893799</v>
       </c>
       <c r="E223" s="4">
-        <v>4.97292322948047E-2</v>
+        <v>-2.0457178408699899</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
@@ -25478,19 +25482,19 @@
     </row>
     <row r="224" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B224" s="4">
-        <v>4.9467752680566898E-2</v>
+        <v>2.20578256536068E-3</v>
       </c>
       <c r="C224" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D224" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E224" s="4">
-        <v>1.4115713368164</v>
+        <v>4.97292322948047E-2</v>
       </c>
       <c r="F224" s="4">
         <v>1</v>
@@ -25498,19 +25502,19 @@
     </row>
     <row r="225" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A225" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B225" s="4">
-        <v>2.4703524948276798E-2</v>
+        <v>4.9467752680566898E-2</v>
       </c>
       <c r="C225" s="4">
-        <v>3.6776104146463498E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D225" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E225" s="4">
-        <v>0.67172762100882699</v>
+        <v>1.4115713368164</v>
       </c>
       <c r="F225" s="4">
         <v>1</v>
@@ -25518,19 +25522,19 @@
     </row>
     <row r="226" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B226" s="4">
-        <v>-2.7126090151502701E-2</v>
+        <v>2.4703524948276798E-2</v>
       </c>
       <c r="C226" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>3.6776104146463498E-2</v>
       </c>
       <c r="D226" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E226" s="4">
-        <v>-0.50142706144268301</v>
+        <v>0.67172762100882699</v>
       </c>
       <c r="F226" s="4">
         <v>1</v>
@@ -25538,19 +25542,19 @@
     </row>
     <row r="227" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A227" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B227" s="4">
-        <v>3.1946259960823502E-2</v>
+        <v>-2.7126090151502701E-2</v>
       </c>
       <c r="C227" s="4">
-        <v>4.9320112271040301E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D227" s="4">
-        <v>367.21846322891798</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E227" s="4">
-        <v>0.647732912392044</v>
+        <v>-0.50142706144268301</v>
       </c>
       <c r="F227" s="4">
         <v>1</v>
@@ -25558,19 +25562,19 @@
     </row>
     <row r="228" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B228" s="4">
-        <v>-3.3769983291791997E-2</v>
+        <v>3.1946259960823502E-2</v>
       </c>
       <c r="C228" s="4">
-        <v>2.5276503554143698E-2</v>
+        <v>4.9320112271040301E-2</v>
       </c>
       <c r="D228" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322891798</v>
       </c>
       <c r="E228" s="4">
-        <v>-1.3360227303374801</v>
+        <v>0.647732912392044</v>
       </c>
       <c r="F228" s="4">
         <v>1</v>
@@ -25578,19 +25582,19 @@
     </row>
     <row r="229" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A229" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B229" s="4">
-        <v>2.9780927345582499E-2</v>
+        <v>-3.3769983291791997E-2</v>
       </c>
       <c r="C229" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>2.5276503554143698E-2</v>
       </c>
       <c r="D229" s="4">
-        <v>367.21846322901598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E229" s="4">
-        <v>0.671409175673221</v>
+        <v>-1.3360227303374801</v>
       </c>
       <c r="F229" s="4">
         <v>1</v>
@@ -25598,19 +25602,19 @@
     </row>
     <row r="230" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B230" s="4">
-        <v>5.2527146472003197E-3</v>
+        <v>2.9780927345582499E-2</v>
       </c>
       <c r="C230" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D230" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E230" s="4">
-        <v>0.14988716961416401</v>
+        <v>0.671409175673221</v>
       </c>
       <c r="F230" s="4">
         <v>1</v>
@@ -25618,19 +25622,19 @@
     </row>
     <row r="231" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A231" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B231" s="4">
-        <v>8.11692772693429E-3</v>
+        <v>5.2527146472003197E-3</v>
       </c>
       <c r="C231" s="4">
-        <v>3.6776104146463498E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D231" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E231" s="4">
-        <v>0.220712006214906</v>
+        <v>0.14988716961416401</v>
       </c>
       <c r="F231" s="4">
         <v>1</v>
@@ -25638,19 +25642,19 @@
     </row>
     <row r="232" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B232" s="4">
-        <v>-1.05989127525101E-2</v>
+        <v>8.11692772693429E-3</v>
       </c>
       <c r="C232" s="4">
-        <v>5.4097778595069902E-2</v>
+        <v>3.6776104146463498E-2</v>
       </c>
       <c r="D232" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E232" s="4">
-        <v>-0.19592140431208099</v>
+        <v>0.220712006214906</v>
       </c>
       <c r="F232" s="4">
         <v>1</v>
@@ -25658,19 +25662,19 @@
     </row>
     <row r="233" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A233" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B233" s="4">
-        <v>4.7261970115206303E-2</v>
+        <v>-1.05989127525101E-2</v>
       </c>
       <c r="C233" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>5.4097778595069902E-2</v>
       </c>
       <c r="D233" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E233" s="4">
-        <v>1.52079547347278</v>
+        <v>-0.19592140431208099</v>
       </c>
       <c r="F233" s="4">
         <v>1</v>
@@ -25678,19 +25682,19 @@
     </row>
     <row r="234" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B234" s="4">
-        <v>2.2497742382916099E-2</v>
+        <v>4.7261970115206303E-2</v>
       </c>
       <c r="C234" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D234" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E234" s="4">
-        <v>0.68138812707312701</v>
+        <v>1.52079547347278</v>
       </c>
       <c r="F234" s="4">
         <v>1</v>
@@ -25698,19 +25702,19 @@
     </row>
     <row r="235" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A235" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B235" s="4">
-        <v>-2.93318727168634E-2</v>
+        <v>2.2497742382916099E-2</v>
       </c>
       <c r="C235" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D235" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E235" s="4">
-        <v>-0.56826745854552296</v>
+        <v>0.68138812707312701</v>
       </c>
       <c r="F235" s="4">
         <v>1</v>
@@ -25718,19 +25722,19 @@
     </row>
     <row r="236" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B236" s="4">
-        <v>2.9740477395462799E-2</v>
+        <v>-2.93318727168634E-2</v>
       </c>
       <c r="C236" s="4">
-        <v>4.6584846287782998E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D236" s="4">
-        <v>367.218463228909</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E236" s="4">
-        <v>0.63841527375099105</v>
+        <v>-0.56826745854552296</v>
       </c>
       <c r="F236" s="4">
         <v>1</v>
@@ -25738,19 +25742,19 @@
     </row>
     <row r="237" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A237" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B237" s="4">
-        <v>-3.5975765857152703E-2</v>
+        <v>2.9740477395462799E-2</v>
       </c>
       <c r="C237" s="4">
-        <v>4.4355853963004302E-2</v>
+        <v>4.6584846287782998E-2</v>
       </c>
       <c r="D237" s="4">
-        <v>367.21846322901598</v>
+        <v>367.218463228909</v>
       </c>
       <c r="E237" s="4">
-        <v>-0.81107142897437701</v>
+        <v>0.63841527375099105</v>
       </c>
       <c r="F237" s="4">
         <v>1</v>
@@ -25758,19 +25762,19 @@
     </row>
     <row r="238" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B238" s="4">
-        <v>2.75751447802218E-2</v>
+        <v>-3.5975765857152703E-2</v>
       </c>
       <c r="C238" s="4">
-        <v>2.2103661148690699E-2</v>
+        <v>4.4355853963004302E-2</v>
       </c>
       <c r="D238" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E238" s="4">
-        <v>1.2475374371116501</v>
+        <v>-0.81107142897437701</v>
       </c>
       <c r="F238" s="4">
         <v>1</v>
@@ -25778,19 +25782,19 @@
     </row>
     <row r="239" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A239" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B239" s="4">
-        <v>3.0469320818396401E-3</v>
+        <v>2.75751447802218E-2</v>
       </c>
       <c r="C239" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>2.2103661148690699E-2</v>
       </c>
       <c r="D239" s="4">
-        <v>367.21846322901598</v>
+        <v>696.00000000002001</v>
       </c>
       <c r="E239" s="4">
-        <v>9.8044167577979194E-2</v>
+        <v>1.2475374371116501</v>
       </c>
       <c r="F239" s="4">
         <v>1</v>
@@ -25798,19 +25802,19 @@
     </row>
     <row r="240" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B240" s="4">
-        <v>5.91114516157361E-3</v>
+        <v>3.0469320818396401E-3</v>
       </c>
       <c r="C240" s="4">
-        <v>3.3017514525171099E-2</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D240" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E240" s="4">
-        <v>0.17903059168997101</v>
+        <v>9.8044167577979194E-2</v>
       </c>
       <c r="F240" s="4">
         <v>1</v>
@@ -25818,19 +25822,19 @@
     </row>
     <row r="241" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A241" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B241" s="4">
-        <v>-1.28046953178708E-2</v>
+        <v>5.91114516157361E-3</v>
       </c>
       <c r="C241" s="4">
-        <v>5.1616316007146001E-2</v>
+        <v>3.3017514525171099E-2</v>
       </c>
       <c r="D241" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E241" s="4">
-        <v>-0.24807456843874801</v>
+        <v>0.17903059168997101</v>
       </c>
       <c r="F241" s="4">
         <v>1</v>
@@ -25838,19 +25842,19 @@
     </row>
     <row r="242" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="s">
-        <v>288</v>
+        <v>542</v>
       </c>
       <c r="B242" s="4">
-        <v>-2.47642277322901E-2</v>
+        <v>-1.28046953178708E-2</v>
       </c>
       <c r="C242" s="4">
-        <v>1.8730417340074999E-2</v>
+        <v>5.1616316007146001E-2</v>
       </c>
       <c r="D242" s="4">
-        <v>367.21846322900598</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E242" s="4">
-        <v>-1.3221396663332901</v>
+        <v>-0.24807456843874801</v>
       </c>
       <c r="F242" s="4">
         <v>1</v>
@@ -25858,19 +25862,19 @@
     </row>
     <row r="243" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A243" s="3" t="s">
-        <v>543</v>
+        <v>288</v>
       </c>
       <c r="B243" s="4">
-        <v>-7.65938428320697E-2</v>
+        <v>-2.47642277322901E-2</v>
       </c>
       <c r="C243" s="4">
-        <v>4.3873868606074097E-2</v>
+        <v>1.8730417340074999E-2</v>
       </c>
       <c r="D243" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322900598</v>
       </c>
       <c r="E243" s="4">
-        <v>-1.74577362939601</v>
+        <v>-1.3221396663332901</v>
       </c>
       <c r="F243" s="4">
         <v>1</v>
@@ -25878,19 +25882,19 @@
     </row>
     <row r="244" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A244" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B244" s="4">
-        <v>-1.75214927197434E-2</v>
+        <v>-7.65938428320697E-2</v>
       </c>
       <c r="C244" s="4">
-        <v>3.7826183682336603E-2</v>
+        <v>4.3873868606074097E-2</v>
       </c>
       <c r="D244" s="4">
-        <v>367.21846322883999</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E244" s="4">
-        <v>-0.46321069201398901</v>
+        <v>-1.74577362939601</v>
       </c>
       <c r="F244" s="4">
         <v>1</v>
@@ -25898,19 +25902,19 @@
     </row>
     <row r="245" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A245" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B245" s="4">
-        <v>-8.3237735972359006E-2</v>
+        <v>-1.75214927197434E-2</v>
       </c>
       <c r="C245" s="4">
-        <v>3.5044458179587602E-2</v>
+        <v>3.7826183682336603E-2</v>
       </c>
       <c r="D245" s="4">
-        <v>367.21846322901598</v>
+        <v>367.21846322883999</v>
       </c>
       <c r="E245" s="4">
-        <v>-2.3752039636567299</v>
+        <v>-0.46321069201398901</v>
       </c>
       <c r="F245" s="4">
         <v>1</v>
@@ -25918,19 +25922,19 @@
     </row>
     <row r="246" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B246" s="4">
-        <v>-1.9686825334984399E-2</v>
+        <v>-8.3237735972359006E-2</v>
       </c>
       <c r="C246" s="4">
-        <v>3.1077137550444001E-2</v>
+        <v>3.5044458179587602E-2</v>
       </c>
       <c r="D246" s="4">
         <v>367.21846322901598</v>
       </c>
       <c r="E246" s="4">
-        <v>-0.63348258194722895</v>
+        <v>-2.3752039636567299</v>
       </c>
       <c r="F246" s="4">
         <v>1</v>
@@ -25938,22 +25942,22 @@
     </row>
     <row r="247" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A247" s="3" t="s">
-        <v>292</v>
+        <v>546</v>
       </c>
       <c r="B247" s="4">
-        <v>-4.4215038033366599E-2</v>
+        <v>-1.9686825334984399E-2</v>
       </c>
       <c r="C247" s="4">
-        <v>8.05533655362352E-3</v>
+        <v>3.1077137550444001E-2</v>
       </c>
       <c r="D247" s="4">
-        <v>696.00000000002001</v>
+        <v>367.21846322901598</v>
       </c>
       <c r="E247" s="4">
-        <v>-5.4889125661022096</v>
-      </c>
-      <c r="F247" s="5">
-        <v>1.5477850497565401E-5</v>
+        <v>-0.63348258194722895</v>
+      </c>
+      <c r="F247" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -26557,6 +26561,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F277">
+    <sortState ref="A2:F277">
+      <sortCondition ref="F1:F277"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26565,7 +26574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -26900,7 +26909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
+    <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/Ch-2/fig_outputs/Main_pairwise_comparisons.xlsx
+++ b/Ch-2/fig_outputs/Main_pairwise_comparisons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="8820" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="8820" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table S4" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Table S10'!$A$2:$F$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table S5'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Table S7'!$A$2:$F$192</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Table S8'!$A$2:$F$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Table S8'!$A$2:$F$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1812,27 +1813,18 @@
     <t>Table S4. Pairwise comparisons for the interaction between migratory strategy and season influencing the average relative predictor importance of modified habitats.</t>
   </si>
   <si>
-    <t>Table S5. Pairwise comparisons for the interaction between migratory strategy and season influencing the average exposure of forest birds to modified habitats.</t>
-  </si>
-  <si>
     <t>Table S6. Pairwise comparisons for the interaction between migratory strategy and season influencing the sensitivity to habitat modification in forest birds.</t>
   </si>
   <si>
     <t>Table S7. Pairwise comparisons for the interaction between diet and season influencing the average relative predictor importance of modified habitats.</t>
   </si>
   <si>
-    <t>Table S8. Pairwise comparisons for the interaction between diet and season influencing the average exposure of forest birds to modified habitats.</t>
-  </si>
-  <si>
     <t>Table S10. Pairwise comparisons for the interaction between foraging strategy and season influencing the average relative predictor importance of modified habitats.</t>
   </si>
   <si>
     <t>Table S9. Pairwise comparisons for the interaction between diet and season influencing the sensitivity to habitat modification in forest birds.</t>
   </si>
   <si>
-    <t>Table S11. Pairwise comparisons among foraging strategies influencing the average exposure of forest birds to modified habitats.</t>
-  </si>
-  <si>
     <t>N = Neotropical Migrants</t>
   </si>
   <si>
@@ -1879,6 +1871,15 @@
   </si>
   <si>
     <t>Table S12. Pairwise comparisons for the interaction between foraging strategy and season influencing the sensitivity to habitat modification in forest birds.</t>
+  </si>
+  <si>
+    <t>Table S5. Pairwise comparisons for the interaction between migratory strategy and season influencing the average Modified Habitat Association (MHA) of forest birds.</t>
+  </si>
+  <si>
+    <t>Table S8. Pairwise comparisons for the interaction between diet and season influencing the average Modified Habitat Association (MHA) of forest birds.</t>
+  </si>
+  <si>
+    <t>Table S11. Pairwise comparisons among foraging strategies influencing the average Modified Habitat Association (MHA) of forest birds.</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -2339,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -2362,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -2385,7 +2386,7 @@
         <v>7.6532190450697004E-20</v>
       </c>
       <c r="I6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -4718,13 +4719,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -4747,613 +4750,613 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4">
-        <v>-0.147543987259282</v>
+        <v>8.2401764075598793E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>1.1259677811822501E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>345.44353686791698</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E3" s="4">
-        <v>-2.0850948945633001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+        <v>7.31830567914455</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8.2639353019586506E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-7.6419602456630598E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.1259677811822501E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>702.00000000001899</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-6.7870150224361501</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.9001695195381899E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-6.5623472139131306E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.1259677811822501E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>702.00000000005502</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-5.82818382869067</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.0077766712666399E-6</v>
+      </c>
+      <c r="I5" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>-7.2849413318090001E-3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9.0869161550675107E-2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>345.44353686792601</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-8.0169566963005395E-2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>-8.5176869387105295E-2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7.0250010153017003E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>345.44353686791698</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-1.21248195127054</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
-        <v>6.8970967635791899E-2</v>
+        <v>-5.9641310520163103E-2</v>
       </c>
       <c r="C6" s="4">
-        <v>2.7025777891232301E-2</v>
+        <v>1.1259677811822501E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>698.99999999986801</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E6" s="4">
-        <v>2.5520437529447602</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.92827801019109901</v>
-      </c>
-      <c r="I6" t="s">
-        <v>601</v>
+        <v>-5.2968931719822701</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.84622027096467E-5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4">
-        <v>-0.26174170641719702</v>
+        <v>0.11827732208036</v>
       </c>
       <c r="C7" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D7" s="4">
-        <v>345.44353686791698</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E7" s="4">
-        <v>-3.6989395900336999</v>
+        <v>4.3925237398028996</v>
       </c>
       <c r="F7" s="4">
-        <v>2.6941028635401199E-2</v>
+        <v>1.68980752149069E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4">
-        <v>1.42354355477467E-2</v>
+        <v>-7.3009241856472007E-2</v>
       </c>
       <c r="C8" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>1.75038804944204E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>345.44353686792601</v>
+        <v>701.99999999998295</v>
       </c>
       <c r="E8" s="4">
-        <v>0.15665859907607901</v>
+        <v>-4.1710317823379004</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>3.9239620588182303E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4">
-        <v>-0.10857395259182399</v>
+        <v>-0.102584350163685</v>
       </c>
       <c r="C9" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>345.44353686791698</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E9" s="4">
-        <v>-1.5455364683269099</v>
+        <v>-3.80972603623957</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>1.85045054137736E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>8.8286284716762406E-2</v>
+        <v>-0.101499030143892</v>
       </c>
       <c r="C10" s="4">
-        <v>2.7025777891232301E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>698.99999999986801</v>
+        <v>378.11721734535098</v>
       </c>
       <c r="E10" s="4">
-        <v>3.2667435169518102</v>
+        <v>-3.7694199668395201</v>
       </c>
       <c r="F10" s="4">
-        <v>0.114107127018182</v>
+        <v>2.1444698874329701E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B11" s="4">
-        <v>-0.36880478686451901</v>
+        <v>-9.4666228944185193E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>345.44353686791698</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E11" s="4">
-        <v>-5.2119574132855</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3.7377375673561803E-5</v>
+        <v>-3.5156668301336</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.5091404005159703E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4">
-        <v>3.7723649690130999E-2</v>
+        <v>-5.7316269939797403E-2</v>
       </c>
       <c r="C12" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>1.75038804944204E-2</v>
       </c>
       <c r="D12" s="4">
-        <v>345.44353686792601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E12" s="4">
-        <v>0.41514248669603498</v>
+        <v>-3.2744893315552299</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>0.12326348296988</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4">
-        <v>-0.124019469277135</v>
+        <v>-8.5806058227217694E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>345.44353686791698</v>
+        <v>378.11721734535098</v>
       </c>
       <c r="E13" s="4">
-        <v>-1.7654014427471101</v>
+        <v>-3.18662226327619</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>0.17150479093297999</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="B14" s="4">
-        <v>4.7577201667821901E-2</v>
+        <v>9.8302327627791203E-2</v>
       </c>
       <c r="C14" s="4">
-        <v>2.7025777891232301E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>698.99999999997601</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E14" s="4">
-        <v>1.7604378256677999</v>
+        <v>3.08518732061032</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>0.23804730186829001</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>-0.208716701690907</v>
+        <v>-7.7887937007717706E-2</v>
       </c>
       <c r="C15" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>345.44353686791698</v>
+        <v>378.11721734535098</v>
       </c>
       <c r="E15" s="4">
-        <v>-2.9495890492712999</v>
+        <v>-2.8925630571702201</v>
       </c>
       <c r="F15" s="4">
-        <v>0.32289536287530901</v>
+        <v>0.43655348944538203</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-4.9398148720297498E-2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.75038804944204E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>702.00000000001899</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-2.82212557015822</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.52489795633210901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-8.8589220644942998E-2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.1862677177198102E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>378.11721734534098</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-2.7803445439399601</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.60437385860820703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8.7412448147489899E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.1862677177198102E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>378.11721734534098</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.74341191298404</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.66884478471550801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-2.8489788287420201E-2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2.69269625132788E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>378.11721734535098</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-1.0580394381048599</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-1.6379134792066999E-2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3.45959780101966E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>378.11721734535098</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-0.473440432504595</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-1.29098094989493E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.6731910135675802E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>378.11721734535098</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-0.482936289753577</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-1.20568772429615E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.45959780101966E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>378.11721734534098</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-0.348505171306557</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-3.19670251610105E-3</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.6731910135675802E-2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>378.11721734535098</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-0.11958376711115699</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1.6778291936467501E-2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.1259677811822501E-2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>702.00000000005502</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.49012185045388</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4">
+        <v>-9.9060790691593795E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.45959780101966E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>378.11721734534098</v>
+      </c>
+      <c r="E25" s="4">
+        <v>-0.28633614769438498</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-2.0952151749563701E-2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.6731910135675802E-2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>378.11721734535098</v>
+      </c>
+      <c r="E26" s="4">
+        <v>-0.78378805118012795</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
-        <v>-1.3638927520401399E-2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>9.0869161550675107E-2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>345.44353686792601</v>
-      </c>
-      <c r="E16" s="4">
-        <v>-0.150094127508763</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+      <c r="B27" s="4">
+        <v>-1.26442611272349E-2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3.45959780101966E-2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>378.11721734534098</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-0.36548355775657598</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4">
-        <v>-0.15898358806979099</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7.0250010153017003E-2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>345.44353686791698</v>
-      </c>
-      <c r="E17" s="4">
-        <v>-2.2631112468666701</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+      <c r="B28" s="4">
+        <v>-1.4086581996402401E-2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.6731910135675802E-2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>378.11721734535098</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-0.52695755465685001</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.14025904592747299</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.101564570091098</v>
-      </c>
-      <c r="D18" s="4">
-        <v>345.44353686794301</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1.3809839966995201</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+      <c r="B29" s="4">
+        <v>1.2110653495353301E-2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3.86977631379192E-2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>378.11721734534098</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.31295487163407298</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="4">
-        <v>6.2367117872176199E-2</v>
-      </c>
-      <c r="C19" s="4">
-        <v>8.3625482380467298E-2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>345.44353686794301</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.74579082950370501</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+      <c r="B30" s="4">
+        <v>1.5579978788470899E-2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.1862677177198102E-2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>378.11721734533</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.48897268430477098</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4">
-        <v>0.216514954895073</v>
-      </c>
-      <c r="C20" s="4">
-        <v>7.0761281725829003E-2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>345.44353686793397</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3.0597941362054502</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.2316485434195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="4">
-        <v>-0.114197719157916</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4.1831795403839099E-2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>699.00000000001103</v>
-      </c>
-      <c r="E21" s="4">
-        <v>-2.7299263169430001</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.57150153378142898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+      <c r="B31" s="4">
+        <v>-3.7133683851711098E-2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2.69269625132788E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>378.11721734534098</v>
+      </c>
+      <c r="E31" s="4">
+        <v>-1.3790520870446801</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.16177942280702801</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.101564570091098</v>
-      </c>
-      <c r="D22" s="4">
-        <v>345.44353686794301</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1.59287261947666</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="4">
-        <v>3.8970034667457701E-2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>8.3625482380467298E-2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>345.44353686794301</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.466006695066432</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.235830271976044</v>
-      </c>
-      <c r="C24" s="4">
-        <v>7.0761281725829003E-2</v>
-      </c>
-      <c r="D24" s="4">
-        <v>345.44353686793397</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3.3327586248337</v>
-      </c>
-      <c r="F24" s="4">
-        <v>9.6255412294777007E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="4">
-        <v>-0.22126079960523701</v>
-      </c>
-      <c r="C25" s="4">
-        <v>4.1831795403839099E-2</v>
-      </c>
-      <c r="D25" s="4">
-        <v>699.00000000001103</v>
-      </c>
-      <c r="E25" s="4">
-        <v>-5.2892972311901101</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1.9238188565551399E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.18526763694941301</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.101564570091098</v>
-      </c>
-      <c r="D26" s="4">
-        <v>345.44353686794301</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1.82413647577337</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2.3524517982146501E-2</v>
-      </c>
-      <c r="C27" s="4">
-        <v>8.3625482380467298E-2</v>
-      </c>
-      <c r="D27" s="4">
-        <v>345.44353686794301</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.28130800938304901</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.19512118892710301</v>
-      </c>
-      <c r="C28" s="4">
-        <v>7.0761281725829003E-2</v>
-      </c>
-      <c r="D28" s="4">
-        <v>345.44353686793397</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2.7574569618893898</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.55214362290878305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="4">
-        <v>-6.11727144316251E-2</v>
-      </c>
-      <c r="C29" s="4">
-        <v>4.1831795403839099E-2</v>
-      </c>
-      <c r="D29" s="4">
-        <v>698.99999999997601</v>
-      </c>
-      <c r="E29" s="4">
-        <v>-1.46234972324451</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.13390505973888001</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.101564570091098</v>
-      </c>
-      <c r="D30" s="4">
-        <v>345.44353686794301</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1.31842294629687</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="4">
-        <v>-1.14396008105093E-2</v>
-      </c>
-      <c r="C31" s="4">
-        <v>8.3625482380467298E-2</v>
-      </c>
-      <c r="D31" s="4">
-        <v>345.44353686794301</v>
-      </c>
-      <c r="E31" s="4">
-        <v>-0.13679563315955601</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="B32" s="4">
-        <v>-7.7891928055296294E-2</v>
+        <v>1.6432911044458799E-2</v>
       </c>
       <c r="C32" s="4">
-        <v>0.101209025451322</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D32" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734533</v>
       </c>
       <c r="E32" s="4">
-        <v>-0.76961444602348705</v>
+        <v>0.42464756905694201</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -5361,19 +5364,19 @@
     </row>
     <row r="33" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4">
-        <v>7.6255908967600899E-2</v>
+        <v>2.5293085771319199E-2</v>
       </c>
       <c r="C33" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D33" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E33" s="4">
-        <v>0.83918358732819598</v>
+        <v>0.79381546097512801</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -5381,19 +5384,19 @@
     </row>
     <row r="34" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B34" s="4">
-        <v>-0.254456765085388</v>
+        <v>4.5268080223887702E-2</v>
       </c>
       <c r="C34" s="4">
-        <v>0.101564570091098</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D34" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734533</v>
       </c>
       <c r="E34" s="4">
-        <v>-2.5053693906955399</v>
+        <v>1.6811432110682401</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -5401,19 +5404,19 @@
     </row>
     <row r="35" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B35" s="4">
-        <v>2.15203768795557E-2</v>
+        <v>1.8583709218260899E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>5.79638360090204E-2</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D35" s="4">
-        <v>699.00000000001103</v>
+        <v>378.11721734533</v>
       </c>
       <c r="E35" s="4">
-        <v>0.371272475413923</v>
+        <v>0.480226961750433</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -5421,19 +5424,19 @@
     </row>
     <row r="36" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B36" s="4">
-        <v>-0.10128901126001499</v>
+        <v>7.53763653785656E-3</v>
       </c>
       <c r="C36" s="4">
-        <v>0.101209025451322</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D36" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E36" s="4">
-        <v>-1.0007903031210501</v>
+        <v>0.23656632793087201</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -5441,19 +5444,19 @@
     </row>
     <row r="37" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B37" s="4">
-        <v>9.5571226048571406E-2</v>
+        <v>-3.1151522232742899E-2</v>
       </c>
       <c r="C37" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D37" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E37" s="4">
-        <v>1.0517454372600801</v>
+        <v>-1.1568895755464701</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -5461,59 +5464,59 @@
     </row>
     <row r="38" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B38" s="4">
-        <v>-0.36151984553270899</v>
+        <v>1.5845527160185301E-2</v>
       </c>
       <c r="C38" s="4">
-        <v>0.101564570091098</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D38" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734533</v>
       </c>
       <c r="E38" s="4">
-        <v>-3.5595074661217598</v>
+        <v>0.40946881357745901</v>
       </c>
       <c r="F38" s="4">
-        <v>4.4472852382359103E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B39" s="4">
-        <v>4.5008591021939999E-2</v>
+        <v>1.4403206291017901E-2</v>
       </c>
       <c r="C39" s="4">
-        <v>5.79638360090204E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D39" s="4">
-        <v>699.00000000001103</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E39" s="4">
-        <v>0.77649434752620095</v>
+        <v>0.452040053348852</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B40" s="4">
-        <v>-0.116734527945326</v>
+        <v>3.46932529311765E-3</v>
       </c>
       <c r="C40" s="4">
-        <v>0.101209025451322</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D40" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E40" s="4">
-        <v>-1.1534003753595199</v>
+        <v>8.99667747992344E-2</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -5521,19 +5524,19 @@
     </row>
     <row r="41" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B41" s="4">
-        <v>5.4862142999630902E-2</v>
+        <v>-4.9244337347064397E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D41" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E41" s="4">
-        <v>0.60374875329994004</v>
+        <v>-1.4234122050994</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -5541,19 +5544,19 @@
     </row>
     <row r="42" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B42" s="4">
-        <v>-0.20143176035909799</v>
+        <v>-8.5119895351825306E-2</v>
       </c>
       <c r="C42" s="4">
-        <v>0.101564570091098</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D42" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E42" s="4">
-        <v>-1.9832876777642501</v>
+        <v>-2.19960763748688</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -5561,19 +5564,19 @@
     </row>
     <row r="43" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B43" s="4">
-        <v>-6.3539861885924202E-3</v>
+        <v>4.3222575491054897E-3</v>
       </c>
       <c r="C43" s="4">
-        <v>5.79638360090204E-2</v>
+        <v>2.425408827676E-2</v>
       </c>
       <c r="D43" s="4">
-        <v>699.00000000001103</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E43" s="4">
-        <v>-0.109619835850816</v>
+        <v>0.17820738094892799</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -5581,19 +5584,19 @@
     </row>
     <row r="44" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B44" s="4">
-        <v>-0.151698646737982</v>
+        <v>1.31824322759659E-2</v>
       </c>
       <c r="C44" s="4">
-        <v>0.101209025451322</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D44" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E44" s="4">
-        <v>-1.49886481034187</v>
+        <v>0.34184771264623198</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -5601,19 +5604,19 @@
     </row>
     <row r="45" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B45" s="4">
-        <v>0.154147837022897</v>
+        <v>3.3157426728534403E-2</v>
       </c>
       <c r="C45" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D45" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E45" s="4">
-        <v>2.1942749429805901</v>
+        <v>0.958418539830317</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -5621,19 +5624,19 @@
     </row>
     <row r="46" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B46" s="4">
-        <v>-0.17656483703009199</v>
+        <v>-6.15088022156507E-2</v>
       </c>
       <c r="C46" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D46" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E46" s="4">
-        <v>-2.1113760064998202</v>
+        <v>-1.5894666055097999</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -5641,19 +5644,19 @@
     </row>
     <row r="47" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B47" s="4">
-        <v>9.9412304934851994E-2</v>
+        <v>6.4730557229075898E-3</v>
       </c>
       <c r="C47" s="4">
-        <v>0.101209025451322</v>
+        <v>2.425408827676E-2</v>
       </c>
       <c r="D47" s="4">
-        <v>345.44353686794301</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E47" s="4">
-        <v>0.98224742794965103</v>
+        <v>0.26688513907611999</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -5661,19 +5664,19 @@
     </row>
     <row r="48" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B48" s="4">
-        <v>-2.3397083204718502E-2</v>
+        <v>-4.5730169574967096E-3</v>
       </c>
       <c r="C48" s="4">
-        <v>4.1402740006443201E-2</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D48" s="4">
-        <v>699.00000000001103</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E48" s="4">
-        <v>-0.565109536254784</v>
+        <v>-0.11858778062246</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -5681,19 +5684,19 @@
     </row>
     <row r="49" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B49" s="4">
-        <v>0.17346315410386801</v>
+        <v>-4.3262175728096097E-2</v>
       </c>
       <c r="C49" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D49" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E49" s="4">
-        <v>2.4692260360679499</v>
+        <v>-1.25049726055859</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -5701,39 +5704,39 @@
     </row>
     <row r="50" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B50" s="4">
-        <v>-0.28362791747741301</v>
+        <v>-6.9426923435150695E-2</v>
       </c>
       <c r="C50" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D50" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E50" s="4">
-        <v>-3.3916446207987598</v>
+        <v>-1.7940810477265201</v>
       </c>
       <c r="F50" s="4">
-        <v>7.90763680356487E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B51" s="4">
-        <v>0.122900519077236</v>
+        <v>3.7348736648320402E-3</v>
       </c>
       <c r="C51" s="4">
-        <v>0.101209025451322</v>
+        <v>2.425408827676E-2</v>
       </c>
       <c r="D51" s="4">
-        <v>345.44353686794301</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E51" s="4">
-        <v>1.21432370808023</v>
+        <v>0.15398944797322101</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -5741,19 +5744,19 @@
     </row>
     <row r="52" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B52" s="4">
-        <v>-3.8842599890029701E-2</v>
+        <v>2.29255279566458E-3</v>
       </c>
       <c r="C52" s="4">
-        <v>4.1402740006443201E-2</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D52" s="4">
-        <v>699.00000000001103</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E52" s="4">
-        <v>-0.93816495922697296</v>
+        <v>5.9450631940472898E-2</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -5761,19 +5764,19 @@
     </row>
     <row r="53" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B53" s="4">
-        <v>0.13275407105492701</v>
+        <v>-5.2713662640181999E-2</v>
       </c>
       <c r="C53" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D53" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E53" s="4">
-        <v>1.88973739314436</v>
+        <v>-1.9719377467841901</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -5781,19 +5784,19 @@
     </row>
     <row r="54" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B54" s="4">
-        <v>-0.123539832303801</v>
+        <v>8.5293225598784598E-4</v>
       </c>
       <c r="C54" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D54" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734533</v>
       </c>
       <c r="E54" s="4">
-        <v>-1.47729889008876</v>
+        <v>2.21182961268254E-2</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -5801,19 +5804,19 @@
     </row>
     <row r="55" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B55" s="4">
-        <v>7.1537941866703897E-2</v>
+        <v>9.7131069828482706E-3</v>
       </c>
       <c r="C55" s="4">
-        <v>0.101209025451322</v>
+        <v>1.73243487691143E-2</v>
       </c>
       <c r="D55" s="4">
-        <v>345.44353686794301</v>
+        <v>701.99999999998295</v>
       </c>
       <c r="E55" s="4">
-        <v>0.706833620299121</v>
+        <v>0.56066217046869504</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -5821,19 +5824,19 @@
     </row>
     <row r="56" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B56" s="4">
-        <v>-7.3806718682685499E-2</v>
+        <v>2.9688101435416801E-2</v>
       </c>
       <c r="C56" s="4">
-        <v>4.1402740006443201E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D56" s="4">
-        <v>698.99999999997601</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E56" s="4">
-        <v>-1.78265300004781</v>
+        <v>1.11058660921487</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -5841,39 +5844,39 @@
     </row>
     <row r="57" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B57" s="4">
-        <v>-0.33071267405298899</v>
+        <v>-6.4978127508768399E-2</v>
       </c>
       <c r="C57" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D57" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E57" s="4">
-        <v>-4.6736388316758504</v>
+        <v>-2.03931788742688</v>
       </c>
       <c r="F57" s="4">
-        <v>4.84250437487571E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B58" s="4">
-        <v>-5.47355320880452E-2</v>
+        <v>3.0037304297899402E-3</v>
       </c>
       <c r="C58" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D58" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734533</v>
       </c>
       <c r="E58" s="4">
-        <v>-0.60235542128911101</v>
+        <v>7.7892937762453596E-2</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -5881,19 +5884,19 @@
     </row>
     <row r="59" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B59" s="4">
-        <v>-0.177544920227616</v>
+        <v>-8.0423422506143497E-3</v>
       </c>
       <c r="C59" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>1.73243487691143E-2</v>
       </c>
       <c r="D59" s="4">
-        <v>345.44353686793397</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E59" s="4">
-        <v>-2.52732946003696</v>
+        <v>-0.46422190858638102</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -5901,19 +5904,19 @@
     </row>
     <row r="60" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B60" s="4">
-        <v>1.93153170809706E-2</v>
+        <v>-4.6731501021213803E-2</v>
       </c>
       <c r="C60" s="4">
-        <v>2.7025777891232301E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D60" s="4">
-        <v>698.99999999993997</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E60" s="4">
-        <v>0.71469976400704704</v>
+        <v>-1.7481542016276299</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -5921,39 +5924,39 @@
     </row>
     <row r="61" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B61" s="4">
-        <v>-0.43777575450030998</v>
+        <v>-7.2896248728268304E-2</v>
       </c>
       <c r="C61" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D61" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E61" s="4">
-        <v>-6.18665665492765</v>
-      </c>
-      <c r="F61" s="5">
-        <v>2.0686003084806801E-7</v>
+        <v>-2.2878256062059701</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B62" s="4">
-        <v>-3.12473179456608E-2</v>
+        <v>2.6554837171439603E-4</v>
       </c>
       <c r="C62" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D62" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734533</v>
       </c>
       <c r="E62" s="4">
-        <v>-0.34387153366915502</v>
+        <v>6.8862180792691402E-3</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -5961,39 +5964,39 @@
     </row>
     <row r="63" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B63" s="4">
-        <v>-0.192990436912927</v>
+        <v>-1.1767724974530601E-3</v>
       </c>
       <c r="C63" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>1.73243487691143E-2</v>
       </c>
       <c r="D63" s="4">
-        <v>345.44353686793397</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E63" s="4">
-        <v>-2.7471944344571502</v>
+        <v>-6.7925929749867706E-2</v>
       </c>
       <c r="F63" s="4">
-        <v>0.56300653879289297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>-2.1393765967969901E-2</v>
+        <v>-3.5875558004760999E-2</v>
       </c>
       <c r="C64" s="4">
-        <v>2.7025777891232301E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D64" s="4">
-        <v>698.99999999997601</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E64" s="4">
-        <v>-0.791605927276953</v>
+        <v>-1.3323284416899699</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -6001,39 +6004,39 @@
     </row>
     <row r="65" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B65" s="4">
-        <v>-0.27768766932669797</v>
+        <v>5.3566594896169897E-2</v>
       </c>
       <c r="C65" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D65" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E65" s="4">
-        <v>-3.9242882909134398</v>
+        <v>1.5483474662974399</v>
       </c>
       <c r="F65" s="4">
-        <v>1.15480182448614E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B66" s="4">
-        <v>-8.2609895156193297E-2</v>
+        <v>6.2426769623030301E-2</v>
       </c>
       <c r="C66" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D66" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E66" s="4">
-        <v>-0.909108147873953</v>
+        <v>2.33529026942661</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -6041,59 +6044,59 @@
     </row>
     <row r="67" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4">
-        <v>-0.22795455570558301</v>
+        <v>-1.22644648685864E-2</v>
       </c>
       <c r="C67" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D67" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E67" s="4">
-        <v>-3.2449042385767202</v>
+        <v>-0.45547153202067497</v>
       </c>
       <c r="F67" s="4">
-        <v>0.12768408693788499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B68" s="4">
-        <v>0.27597714196494399</v>
+        <v>5.5717393069971997E-2</v>
       </c>
       <c r="C68" s="4">
-        <v>0.101564570091098</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D68" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E68" s="4">
-        <v>2.71725801347268</v>
+        <v>1.61051648990961</v>
       </c>
       <c r="F68" s="4">
-        <v>0.60152917482446999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="B69" s="4">
-        <v>0.15316775382537301</v>
+        <v>4.4671320389567698E-2</v>
       </c>
       <c r="C69" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D69" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E69" s="4">
-        <v>1.8315918720625399</v>
+        <v>1.6710859853576401</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -6101,79 +6104,79 @@
     </row>
     <row r="70" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B70" s="4">
-        <v>0.35002799113395999</v>
+        <v>5.9821616189682297E-3</v>
       </c>
       <c r="C70" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>1.1259677811822501E-2</v>
       </c>
       <c r="D70" s="4">
-        <v>345.44353686793397</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E70" s="4">
-        <v>4.9466033203041002</v>
+        <v>0.53129065670840303</v>
       </c>
       <c r="F70" s="4">
-        <v>1.3587013673960199E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4">
-        <v>-0.107063080447321</v>
+        <v>-2.0182586088086301E-2</v>
       </c>
       <c r="C71" s="4">
-        <v>4.1831795403839099E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D71" s="4">
-        <v>699.00000000001103</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E71" s="4">
-        <v>-2.5593709142471002</v>
+        <v>-0.74953073812664395</v>
       </c>
       <c r="F71" s="4">
-        <v>0.91981407106378299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B72" s="4">
-        <v>0.299465356107328</v>
+        <v>5.2979211011896399E-2</v>
       </c>
       <c r="C72" s="4">
-        <v>0.101564570091098</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D72" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E72" s="4">
-        <v>2.9485218697693898</v>
+        <v>1.53136907984742</v>
       </c>
       <c r="F72" s="4">
-        <v>0.32289536287530901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B73" s="4">
-        <v>0.13772223714006199</v>
+        <v>5.15368901427289E-2</v>
       </c>
       <c r="C73" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D73" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E73" s="4">
-        <v>1.64689318637916</v>
+        <v>1.92791648188092</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -6181,39 +6184,39 @@
     </row>
     <row r="74" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B74" s="4">
-        <v>0.309318908085019</v>
+        <v>8.9442152900930799E-2</v>
       </c>
       <c r="C74" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D74" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E74" s="4">
-        <v>4.3713016573597798</v>
+        <v>2.3113003349097498</v>
       </c>
       <c r="F74" s="4">
-        <v>1.8490158584263899E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B75" s="4">
-        <v>5.3025004726290598E-2</v>
+        <v>2.3611093136174599E-2</v>
       </c>
       <c r="C75" s="4">
-        <v>4.1831795403839099E-2</v>
+        <v>1.75038804944204E-2</v>
       </c>
       <c r="D75" s="4">
-        <v>699.00000000001103</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E75" s="4">
-        <v>1.26757659369849</v>
+        <v>1.34890621217969</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -6221,19 +6224,19 @@
     </row>
     <row r="76" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B76" s="4">
-        <v>0.24810277889679599</v>
+        <v>9.1592951074732906E-2</v>
       </c>
       <c r="C76" s="4">
-        <v>0.101564570091098</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D76" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E76" s="4">
-        <v>2.4428083402928902</v>
+        <v>2.3668797276032398</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -6241,19 +6244,19 @@
     </row>
     <row r="77" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B77" s="4">
-        <v>0.102758118347406</v>
+        <v>8.05468783943286E-2</v>
       </c>
       <c r="C77" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D77" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E77" s="4">
-        <v>1.2287895438365599</v>
+        <v>2.5279381875660598</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -6261,19 +6264,19 @@
     </row>
     <row r="78" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B78" s="4">
-        <v>-0.12280938813957</v>
+        <v>4.1857719623729202E-2</v>
       </c>
       <c r="C78" s="4">
-        <v>0.101209025451322</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D78" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E78" s="4">
-        <v>-1.21342328504721</v>
+        <v>1.5544909531881801</v>
       </c>
       <c r="F78" s="4">
         <v>1</v>
@@ -6281,19 +6284,19 @@
     </row>
     <row r="79" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B79" s="4">
-        <v>7.4050849169015706E-2</v>
+        <v>1.5692971916674601E-2</v>
       </c>
       <c r="C79" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>1.75038804944204E-2</v>
       </c>
       <c r="D79" s="4">
-        <v>345.44353686793397</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E79" s="4">
-        <v>0.814917271220993</v>
+        <v>0.89654245078266903</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
@@ -6301,39 +6304,39 @@
     </row>
     <row r="80" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B80" s="4">
-        <v>-0.38304022241226499</v>
+        <v>8.8854769016657398E-2</v>
       </c>
       <c r="C80" s="4">
-        <v>0.101564570091098</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D80" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E80" s="4">
-        <v>-3.7713960888989</v>
+        <v>2.2961215794302601</v>
       </c>
       <c r="F80" s="4">
-        <v>2.0620344371013601E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B81" s="4">
-        <v>2.3488214142384299E-2</v>
+        <v>8.8601747268604297E-3</v>
       </c>
       <c r="C81" s="4">
-        <v>5.79638360090204E-2</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D81" s="4">
-        <v>699.00000000001103</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E81" s="4">
-        <v>0.405221872112278</v>
+        <v>0.229762641720172</v>
       </c>
       <c r="F81" s="4">
         <v>1</v>
@@ -6341,19 +6344,19 @@
     </row>
     <row r="82" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B82" s="4">
-        <v>-0.13825490482488201</v>
+        <v>2.88351691794289E-2</v>
       </c>
       <c r="C82" s="4">
-        <v>0.101209025451322</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D82" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E82" s="4">
-        <v>-1.36603335728568</v>
+        <v>0.833483278632279</v>
       </c>
       <c r="F82" s="4">
         <v>1</v>
@@ -6361,19 +6364,19 @@
     </row>
     <row r="83" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" s="4">
-        <v>3.3341766120075202E-2</v>
+        <v>-6.58310597647562E-2</v>
       </c>
       <c r="C83" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D83" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E83" s="4">
-        <v>0.36692058726085502</v>
+        <v>-1.7011593029326699</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -6381,19 +6384,19 @@
     </row>
     <row r="84" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B84" s="4">
-        <v>-0.22295213723865301</v>
+        <v>2.1507981738020901E-3</v>
       </c>
       <c r="C84" s="4">
-        <v>0.101564570091098</v>
+        <v>2.425408827676E-2</v>
       </c>
       <c r="D84" s="4">
-        <v>345.44353686794301</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E84" s="4">
-        <v>-2.19517630054139</v>
+        <v>8.8677758127192294E-2</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
@@ -6401,19 +6404,19 @@
     </row>
     <row r="85" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B85" s="4">
-        <v>-2.7874363068148101E-2</v>
+        <v>-8.8952745066021993E-3</v>
       </c>
       <c r="C85" s="4">
-        <v>5.79638360090204E-2</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D85" s="4">
-        <v>699.00000000001103</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E85" s="4">
-        <v>-0.48089231126473903</v>
+        <v>-0.23067285154851899</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
@@ -6421,19 +6424,19 @@
     </row>
     <row r="86" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B86" s="4">
-        <v>-0.17321902361753699</v>
+        <v>-4.7584433277201597E-2</v>
       </c>
       <c r="C86" s="4">
-        <v>0.101209025451322</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D86" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E86" s="4">
-        <v>-1.7114977922680401</v>
+        <v>-1.3754325217566299</v>
       </c>
       <c r="F86" s="4">
         <v>1</v>
@@ -6441,59 +6444,59 @@
     </row>
     <row r="87" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B87" s="4">
-        <v>0.19686023730858601</v>
+        <v>-7.3749180984256202E-2</v>
       </c>
       <c r="C87" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D87" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E87" s="4">
-        <v>2.80228055312433</v>
+        <v>-1.9057737451493899</v>
       </c>
       <c r="F87" s="4">
-        <v>0.48779992335278699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B88" s="4">
-        <v>-0.260230834272695</v>
+        <v>-5.8738388427344995E-4</v>
       </c>
       <c r="C88" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>2.425408827676E-2</v>
       </c>
       <c r="D88" s="4">
-        <v>345.44353686794301</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E88" s="4">
-        <v>-3.11186048636148</v>
+        <v>-2.4217932975706801E-2</v>
       </c>
       <c r="F88" s="4">
-        <v>0.19738092045514499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B89" s="4">
-        <v>0.14629760228195501</v>
+        <v>-2.0297047534409102E-3</v>
       </c>
       <c r="C89" s="4">
-        <v>0.101209025451322</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D89" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E89" s="4">
-        <v>1.4454995651778</v>
+        <v>-5.2634438985586798E-2</v>
       </c>
       <c r="F89" s="4">
         <v>1</v>
@@ -6501,19 +6504,19 @@
     </row>
     <row r="90" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B90" s="4">
-        <v>-1.54455166853112E-2</v>
+        <v>1.9974994452568499E-2</v>
       </c>
       <c r="C90" s="4">
-        <v>4.1402740006443201E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D90" s="4">
-        <v>699.00000000001103</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E90" s="4">
-        <v>-0.37305542297219002</v>
+        <v>0.74723408657244905</v>
       </c>
       <c r="F90" s="4">
         <v>1</v>
@@ -6521,19 +6524,19 @@
     </row>
     <row r="91" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="4">
-        <v>0.15615115425964601</v>
+        <v>-7.4691234491616701E-2</v>
       </c>
       <c r="C91" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D91" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E91" s="4">
-        <v>2.2227919102007299</v>
+        <v>-2.3441606640972399</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
@@ -6541,19 +6544,19 @@
     </row>
     <row r="92" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B92" s="4">
-        <v>-0.10014274909908299</v>
+        <v>-6.7093765530583296E-3</v>
       </c>
       <c r="C92" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D92" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E92" s="4">
-        <v>-1.19751475565148</v>
+        <v>-0.17398800008454399</v>
       </c>
       <c r="F92" s="4">
         <v>1</v>
@@ -6561,19 +6564,19 @@
     </row>
     <row r="93" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B93" s="4">
-        <v>9.4935025071422402E-2</v>
+        <v>-1.7755449233462599E-2</v>
       </c>
       <c r="C93" s="4">
-        <v>0.101209025451322</v>
+        <v>1.73243487691143E-2</v>
       </c>
       <c r="D93" s="4">
-        <v>345.44353686794301</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E93" s="4">
-        <v>0.93800947739668294</v>
+        <v>-1.0248840790550799</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -6581,19 +6584,19 @@
     </row>
     <row r="94" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B94" s="4">
-        <v>-5.0409635477967001E-2</v>
+        <v>-5.6444608004062098E-2</v>
       </c>
       <c r="C94" s="4">
-        <v>4.1402740006443201E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D94" s="4">
-        <v>699.00000000001103</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E94" s="4">
-        <v>-1.21754346379303</v>
+        <v>-2.1115067242700398</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -6601,39 +6604,39 @@
     </row>
     <row r="95" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B95" s="4">
-        <v>-0.45709107158128098</v>
+        <v>-8.2609355711116605E-2</v>
       </c>
       <c r="C95" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D95" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E95" s="4">
-        <v>-6.4596211435558999</v>
-      </c>
-      <c r="F95" s="5">
-        <v>4.2809206419129898E-8</v>
+        <v>-2.5926683828763299</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B96" s="4">
-        <v>-5.05626350266314E-2</v>
+        <v>-9.4475586111338796E-3</v>
       </c>
       <c r="C96" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D96" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E96" s="4">
-        <v>-0.556433383601037</v>
+        <v>-0.24499471976772799</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -6641,39 +6644,39 @@
     </row>
     <row r="97" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B97" s="4">
-        <v>-0.21230575399389801</v>
+        <v>-1.08898794803013E-2</v>
       </c>
       <c r="C97" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>1.73243487691143E-2</v>
       </c>
       <c r="D97" s="4">
-        <v>345.44353686793397</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E97" s="4">
-        <v>-3.0221455275445201</v>
+        <v>-0.62858810021856304</v>
       </c>
       <c r="F97" s="4">
-        <v>0.25893953012135601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B98" s="4">
-        <v>-4.0709083048940498E-2</v>
+        <v>-2.66843710056269E-2</v>
       </c>
       <c r="C98" s="4">
-        <v>2.7025777891232301E-2</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D98" s="4">
-        <v>698.99999999997601</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E98" s="4">
-        <v>-1.506305691284</v>
+        <v>-0.77131425502010798</v>
       </c>
       <c r="F98" s="4">
         <v>1</v>
@@ -6681,22 +6684,22 @@
     </row>
     <row r="99" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B99" s="4">
-        <v>-0.29700298640766898</v>
+        <v>-3.7730443686031102E-2</v>
       </c>
       <c r="C99" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D99" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E99" s="4">
-        <v>-4.1972527795417003</v>
+        <v>-1.41143837064142</v>
       </c>
       <c r="F99" s="4">
-        <v>3.8529772874385001E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6704,16 +6707,16 @@
         <v>102</v>
       </c>
       <c r="B100" s="4">
-        <v>-0.101925212237164</v>
+        <v>-2.9422553063702402E-2</v>
       </c>
       <c r="C100" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D100" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734533</v>
       </c>
       <c r="E100" s="4">
-        <v>-1.12166999780584</v>
+        <v>-0.85046166508229804</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
@@ -6724,19 +6727,19 @@
         <v>103</v>
       </c>
       <c r="B101" s="4">
-        <v>-0.24726987278655299</v>
+        <v>-3.08648739328699E-2</v>
       </c>
       <c r="C101" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D101" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E101" s="4">
-        <v>-3.5198553316640901</v>
+        <v>-1.15460787411814</v>
       </c>
       <c r="F101" s="4">
-        <v>5.0919413230369602E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6744,19 +6747,19 @@
         <v>130</v>
       </c>
       <c r="B102" s="4">
-        <v>0.40652843655464999</v>
+        <v>6.7981857938558293E-2</v>
       </c>
       <c r="C102" s="4">
-        <v>0.101564570091098</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D102" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E102" s="4">
-        <v>4.0026599451956102</v>
+        <v>1.7567386956261599</v>
       </c>
       <c r="F102" s="4">
-        <v>8.5121047260468697E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6764,19 +6767,19 @@
         <v>131</v>
       </c>
       <c r="B103" s="4">
-        <v>0.24478531758738301</v>
+        <v>5.6935785258154001E-2</v>
       </c>
       <c r="C103" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D103" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E103" s="4">
-        <v>2.9271618006781002</v>
+        <v>1.7869115310529899</v>
       </c>
       <c r="F103" s="4">
-        <v>0.33555899629848202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6784,19 +6787,19 @@
         <v>116</v>
       </c>
       <c r="B104" s="4">
-        <v>0.41638198853233999</v>
+        <v>1.8246626487554599E-2</v>
       </c>
       <c r="C104" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D104" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E104" s="4">
-        <v>5.8843194806115902</v>
-      </c>
-      <c r="F104" s="5">
-        <v>1.1155513277000301E-6</v>
+        <v>0.67763404351888701</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6804,19 +6807,19 @@
         <v>119</v>
       </c>
       <c r="B105" s="4">
-        <v>0.160088085173612</v>
+        <v>-7.9181212194999392E-3</v>
       </c>
       <c r="C105" s="4">
-        <v>4.1831795403839099E-2</v>
+        <v>1.75038804944204E-2</v>
       </c>
       <c r="D105" s="4">
-        <v>699.00000000001103</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E105" s="4">
-        <v>3.8269475079455901</v>
+        <v>-0.45236376139702</v>
       </c>
       <c r="F105" s="4">
-        <v>1.5408821116377701E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6824,19 +6827,19 @@
         <v>117</v>
       </c>
       <c r="B106" s="4">
-        <v>0.35516585934411699</v>
+        <v>6.5243675880482799E-2</v>
       </c>
       <c r="C106" s="4">
-        <v>0.101564570091098</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D106" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E106" s="4">
-        <v>3.4969464157191101</v>
+        <v>1.6859805474531899</v>
       </c>
       <c r="F106" s="4">
-        <v>5.4801447979820901E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6844,16 +6847,16 @@
         <v>118</v>
       </c>
       <c r="B107" s="4">
-        <v>0.20982119879472799</v>
+        <v>6.38013550113153E-2</v>
       </c>
       <c r="C107" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D107" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E107" s="4">
-        <v>2.5090581581354998</v>
+        <v>2.0023852564709599</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -6864,16 +6867,16 @@
         <v>105</v>
       </c>
       <c r="B108" s="4">
-        <v>-0.16174311896726601</v>
+        <v>-1.1046072680404299E-2</v>
       </c>
       <c r="C108" s="4">
-        <v>0.101209025451322</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D108" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E108" s="4">
-        <v>-1.59810963741626</v>
+        <v>-0.28644749318414803</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -6884,16 +6887,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>9.8535519776909199E-3</v>
+        <v>-4.9735231451003697E-2</v>
       </c>
       <c r="C109" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D109" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E109" s="4">
-        <v>0.108436699640899</v>
+        <v>-1.4376015453688</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -6904,16 +6907,16 @@
         <v>110</v>
       </c>
       <c r="B110" s="4">
-        <v>-0.24644035138103801</v>
+        <v>-7.5899979158058295E-2</v>
       </c>
       <c r="C110" s="4">
-        <v>0.101564570091098</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D110" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E110" s="4">
-        <v>-2.4264401568381002</v>
+        <v>-1.9613531378428799</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
@@ -6924,16 +6927,16 @@
         <v>108</v>
       </c>
       <c r="B111" s="4">
-        <v>-5.1362577210532397E-2</v>
+        <v>-2.7381820580755401E-3</v>
       </c>
       <c r="C111" s="4">
-        <v>5.79638360090204E-2</v>
+        <v>2.425408827676E-2</v>
       </c>
       <c r="D111" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E111" s="4">
-        <v>-0.88611418337701597</v>
+        <v>-0.112895691102899</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -6944,16 +6947,16 @@
         <v>109</v>
       </c>
       <c r="B112" s="4">
-        <v>-0.19670723775992199</v>
+        <v>-4.1805029272430098E-3</v>
       </c>
       <c r="C112" s="4">
-        <v>0.101209025451322</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D112" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E112" s="4">
-        <v>-1.9435740723986199</v>
+        <v>-0.108409080621215</v>
       </c>
       <c r="F112" s="4">
         <v>1</v>
@@ -6964,16 +6967,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="4">
-        <v>0.17159667094495701</v>
+        <v>-3.8689158770599398E-2</v>
       </c>
       <c r="C113" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D113" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E113" s="4">
-        <v>2.4426568846209298</v>
+        <v>-1.4473024402010699</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -6984,16 +6987,16 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>-8.46972324137715E-2</v>
+        <v>-6.4853906477654003E-2</v>
       </c>
       <c r="C114" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D114" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E114" s="4">
-        <v>-1.0128160699680999</v>
+        <v>-2.0354192498320698</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -7004,16 +7007,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>0.11038054175673399</v>
+        <v>8.3078906223287494E-3</v>
       </c>
       <c r="C115" s="4">
-        <v>0.101209025451322</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D115" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E115" s="4">
-        <v>1.0906195496351501</v>
+        <v>0.215440773500963</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -7024,16 +7027,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>-3.4964118792655798E-2</v>
+        <v>6.8655697531612896E-3</v>
       </c>
       <c r="C116" s="4">
-        <v>4.1402740006443201E-2</v>
+        <v>1.73243487691143E-2</v>
       </c>
       <c r="D116" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E116" s="4">
-        <v>-0.84448804082083895</v>
+        <v>0.39629597883651302</v>
       </c>
       <c r="F116" s="4">
         <v>1</v>
@@ -7044,19 +7047,19 @@
         <v>122</v>
       </c>
       <c r="B117" s="4">
-        <v>-0.25629390335872898</v>
+        <v>-2.6164747707054601E-2</v>
       </c>
       <c r="C117" s="4">
-        <v>7.0761281725829003E-2</v>
+        <v>2.69269625132788E-2</v>
       </c>
       <c r="D117" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E117" s="4">
-        <v>-3.6219511165973799</v>
+        <v>-0.97169324962485604</v>
       </c>
       <c r="F117" s="4">
-        <v>3.5639174116116799E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -7064,16 +7067,16 @@
         <v>120</v>
       </c>
       <c r="B118" s="4">
-        <v>-6.1216129188223299E-2</v>
+        <v>4.6997049392928203E-2</v>
       </c>
       <c r="C118" s="4">
-        <v>9.0869161550675107E-2</v>
+        <v>3.45959780101966E-2</v>
       </c>
       <c r="D118" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734533</v>
       </c>
       <c r="E118" s="4">
-        <v>-0.67367331384569795</v>
+        <v>1.35845413530661</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
@@ -7084,19 +7087,19 @@
         <v>121</v>
       </c>
       <c r="B119" s="4">
-        <v>-0.20656078973761299</v>
+        <v>4.5554728523760697E-2</v>
       </c>
       <c r="C119" s="4">
-        <v>7.0250010153017003E-2</v>
+        <v>2.6731910135675802E-2</v>
       </c>
       <c r="D119" s="4">
-        <v>345.44353686793397</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E119" s="4">
-        <v>-2.94036668874049</v>
+        <v>1.7041329367243501</v>
       </c>
       <c r="F119" s="4">
-        <v>0.32542013505742401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -7104,16 +7107,16 @@
         <v>132</v>
       </c>
       <c r="B120" s="4">
-        <v>0.19507777417050501</v>
+        <v>7.3161797099982703E-2</v>
       </c>
       <c r="C120" s="4">
-        <v>0.101564570091098</v>
+        <v>3.86977631379192E-2</v>
       </c>
       <c r="D120" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E120" s="4">
-        <v>1.9207266273615999</v>
+        <v>1.8905949896698999</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
@@ -7124,16 +7127,16 @@
         <v>133</v>
       </c>
       <c r="B121" s="4">
-        <v>4.97331136211158E-2</v>
+        <v>7.1719476230815302E-2</v>
       </c>
       <c r="C121" s="4">
-        <v>8.3625482380467298E-2</v>
+        <v>3.1862677177198102E-2</v>
       </c>
       <c r="D121" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E121" s="4">
-        <v>0.59471242742549602</v>
+        <v>2.2508929752500499</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -7144,23 +7147,29 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>-0.14534466054938899</v>
+        <v>-1.44232086916746E-3</v>
       </c>
       <c r="C122" s="4">
-        <v>0.101209025451322</v>
+        <v>3.8562294812275202E-2</v>
       </c>
       <c r="D122" s="4">
-        <v>345.44353686794301</v>
+        <v>378.11721734534098</v>
       </c>
       <c r="E122" s="4">
-        <v>-1.43608398461751</v>
+        <v>-3.74023609380306E-2</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I2">
+    <sortState ref="A3:I122">
+      <sortCondition ref="F2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7174,7 +7183,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -7217,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -7240,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -7263,7 +7272,7 @@
         <v>0.33130929533853598</v>
       </c>
       <c r="I5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -7286,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -9626,7 +9635,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -9669,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9692,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
@@ -9715,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9738,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -9761,7 +9770,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -13474,7 +13483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13483,7 +13494,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -13508,634 +13519,634 @@
     </row>
     <row r="3" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B3" s="4">
-        <v>-0.506236767864091</v>
+        <v>-5.50118615257391E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>9.8136499045576697E-2</v>
+        <v>9.8890954455237105E-3</v>
       </c>
       <c r="D3" s="4">
-        <v>346.42741138388101</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E3" s="4">
-        <v>-5.1584963065473</v>
+        <v>-5.5628810368738204</v>
       </c>
       <c r="F3" s="5">
-        <v>7.9773081777843107E-5</v>
+        <v>7.1839660437387897E-6</v>
       </c>
       <c r="I3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="4">
-        <v>-0.50478278734978399</v>
+        <v>5.4869802759467498E-2</v>
       </c>
       <c r="C4" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>9.8890954455237694E-3</v>
       </c>
       <c r="D4" s="4">
-        <v>346.42741138388101</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E4" s="4">
-        <v>-5.1436804069742896</v>
+        <v>5.5485158437118702</v>
       </c>
       <c r="F4" s="5">
-        <v>8.5394825272592901E-5</v>
+        <v>7.7317818306855696E-6</v>
       </c>
       <c r="I4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="B5" s="4">
-        <v>0.47911083630638301</v>
+        <v>-4.9615512981758203E-2</v>
       </c>
       <c r="C5" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>9.8890954455237295E-3</v>
       </c>
       <c r="D5" s="4">
-        <v>346.42741138388101</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E5" s="4">
-        <v>4.8820860838318003</v>
+        <v>-5.0171942676735402</v>
       </c>
       <c r="F5" s="4">
-        <v>3.0179690618879101E-4</v>
+        <v>1.25151541284589E-4</v>
       </c>
       <c r="I5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B6" s="4">
-        <v>-0.46439203426401598</v>
+        <v>-4.9473454215486601E-2</v>
       </c>
       <c r="C6" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>9.8890954455237191E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>346.42741138387203</v>
+        <v>699.00000000004695</v>
       </c>
       <c r="E6" s="4">
-        <v>-4.7321031296250204</v>
+        <v>-5.0028290745116299</v>
       </c>
       <c r="F6" s="4">
-        <v>6.06265346225098E-4</v>
+        <v>1.3378612949694799E-4</v>
       </c>
       <c r="I6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B7" s="4">
-        <v>-0.30031002132990697</v>
+        <v>0.18940326756741699</v>
       </c>
       <c r="C7" s="4">
-        <v>6.5560575538463603E-2</v>
+        <v>5.4047364462141402E-2</v>
       </c>
       <c r="D7" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E7" s="4">
-        <v>-4.5806495575030297</v>
+        <v>3.5043941448817302</v>
       </c>
       <c r="F7" s="4">
-        <v>1.0215530043511899E-3</v>
+        <v>9.52233209437683E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="B8" s="4">
-        <v>0.29781305852156498</v>
+        <v>-0.18400691902343599</v>
       </c>
       <c r="C8" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>5.4047364462141402E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E8" s="4">
-        <v>3.8527818936350702</v>
+        <v>-3.4045493402796301</v>
       </c>
       <c r="F8" s="4">
-        <v>2.5739985807087699E-2</v>
+        <v>0.135610267654109</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B9" s="4">
-        <v>-0.29635907800725803</v>
+        <v>8.3676811150958902E-2</v>
       </c>
       <c r="C9" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E9" s="4">
-        <v>-3.8339718729226502</v>
+        <v>2.83771421759181</v>
       </c>
       <c r="F9" s="4">
-        <v>2.75540641513984E-2</v>
+        <v>0.88068104837794603</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c r="B10" s="4">
-        <v>-0.37072386504830701</v>
+        <v>4.2471228222104702E-2</v>
       </c>
       <c r="C10" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>6.4363622308044599E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168499802</v>
       </c>
       <c r="E10" s="4">
-        <v>-3.77763491314413</v>
+        <v>0.65986385941482895</v>
       </c>
       <c r="F10" s="4">
-        <v>3.40951257096977E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>268</v>
+        <v>135</v>
       </c>
       <c r="B11" s="4">
-        <v>-0.369269884534</v>
+        <v>5.25354238925178E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>5.8923313935665203E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168508198</v>
       </c>
       <c r="E11" s="4">
-        <v>-3.7628190135711201</v>
+        <v>0.89158976954144198</v>
       </c>
       <c r="F11" s="4">
-        <v>3.5898225013238701E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B12" s="4">
-        <v>-0.593787934559457</v>
+        <v>7.9565167816115903E-2</v>
       </c>
       <c r="C12" s="4">
-        <v>0.16578877772339701</v>
+        <v>5.4047364462141798E-2</v>
       </c>
       <c r="D12" s="4">
-        <v>346.42741138330803</v>
+        <v>381.77545168521999</v>
       </c>
       <c r="E12" s="4">
-        <v>-3.5815930529998501</v>
+        <v>1.47213779261796</v>
       </c>
       <c r="F12" s="4">
-        <v>7.0650559977062599E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="B13" s="4">
-        <v>0.27068712696385699</v>
+        <v>1.9993452344821701E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>6.3281803709482803E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168500802</v>
       </c>
       <c r="E13" s="4">
-        <v>3.5018560528665601</v>
+        <v>0.31594314910188998</v>
       </c>
       <c r="F13" s="4">
-        <v>9.4049616426290006E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>323</v>
+        <v>138</v>
       </c>
       <c r="B14" s="4">
-        <v>-0.34359793349059897</v>
+        <v>-0.10444175120732101</v>
       </c>
       <c r="C14" s="4">
-        <v>9.8136499045576697E-2</v>
+        <v>4.1171587508844101E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>346.42741138388101</v>
+        <v>699.00000000040495</v>
       </c>
       <c r="E14" s="4">
-        <v>-3.5012246904286299</v>
+        <v>-2.5367433593588098</v>
       </c>
       <c r="F14" s="4">
-        <v>9.4049616426290006E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="B15" s="4">
-        <v>0.342893729245076</v>
+        <v>2.0618508994497801E-2</v>
       </c>
       <c r="C15" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>6.4363622308044599E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168499802</v>
       </c>
       <c r="E15" s="4">
-        <v>3.4940489275639299</v>
+        <v>0.320344136254754</v>
       </c>
       <c r="F15" s="4">
-        <v>9.5670955068100805E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="B16" s="4">
-        <v>-0.34143974873076999</v>
+        <v>1.28470520913791E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>5.8923313935665203E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>346.42741138388101</v>
+        <v>381.775451685093</v>
       </c>
       <c r="E16" s="4">
-        <v>-3.47923302799092</v>
+        <v>2.1803003316150801E-2</v>
       </c>
       <c r="F16" s="4">
-        <v>0.100361714265516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="B17" s="4">
-        <v>0.26195499145579298</v>
+        <v>3.0091713600629299E-2</v>
       </c>
       <c r="C17" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>5.4047364462141798E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168521999</v>
       </c>
       <c r="E17" s="4">
-        <v>3.3888891677163602</v>
+        <v>0.55676560550343701</v>
       </c>
       <c r="F17" s="4">
-        <v>0.13773706954364201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="B18" s="4">
-        <v>-0.55906338372156195</v>
+        <v>3.5603003451538003E-2</v>
       </c>
       <c r="C18" s="4">
-        <v>0.16578877772339701</v>
+        <v>6.3281803709482803E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>346.42741138316899</v>
+        <v>381.77545168500802</v>
       </c>
       <c r="E18" s="4">
-        <v>-3.3721425020353699</v>
+        <v>0.56261044035637697</v>
       </c>
       <c r="F18" s="4">
-        <v>0.14527427620382799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="B19" s="4">
-        <v>0.26050101094148698</v>
+        <v>-3.8698114491549099E-2</v>
       </c>
       <c r="C19" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>4.1171587508844101E-2</v>
       </c>
       <c r="D19" s="4">
-        <v>346.42741138388101</v>
+        <v>699.00000000015496</v>
       </c>
       <c r="E19" s="4">
-        <v>3.3700791470039499</v>
+        <v>-0.93992281651117504</v>
       </c>
       <c r="F19" s="4">
-        <v>0.14549515181230899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="B20" s="4">
-        <v>-0.328879131448232</v>
+        <v>9.11569167520619E-3</v>
       </c>
       <c r="C20" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>6.4363622308044599E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168499802</v>
       </c>
       <c r="E20" s="4">
-        <v>-3.3512417362218399</v>
+        <v>0.14162800893303401</v>
       </c>
       <c r="F20" s="4">
-        <v>0.15453198573124999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="B21" s="4">
-        <v>-0.25596832492149002</v>
+        <v>8.4107753500904398E-3</v>
       </c>
       <c r="C21" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>5.8923313935665203E-2</v>
       </c>
       <c r="D21" s="4">
-        <v>346.42741138388101</v>
+        <v>381.775451685093</v>
       </c>
       <c r="E21" s="4">
-        <v>-3.31144017826943</v>
+        <v>0.14274104405047</v>
       </c>
       <c r="F21" s="4">
-        <v>0.176463879341587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="B22" s="4">
-        <v>0.24907648892992501</v>
+        <v>8.49615163600968E-2</v>
       </c>
       <c r="C22" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>5.4047364462141798E-2</v>
       </c>
       <c r="D22" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168520902</v>
       </c>
       <c r="E22" s="4">
-        <v>3.2222810894973599</v>
+        <v>1.5719825972200601</v>
       </c>
       <c r="F22" s="4">
-        <v>0.23810264031734699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="B23" s="4">
-        <v>0.31576779768736801</v>
+        <v>6.9700320506851196E-2</v>
       </c>
       <c r="C23" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>6.3281803709482803E-2</v>
       </c>
       <c r="D23" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168500802</v>
       </c>
       <c r="E23" s="4">
-        <v>3.2176387048484201</v>
+        <v>1.1014275260995201</v>
       </c>
       <c r="F23" s="4">
-        <v>0.24046027434013301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="B24" s="4">
-        <v>0.247622508415619</v>
+        <v>-4.5219916365538702E-2</v>
       </c>
       <c r="C24" s="4">
-        <v>7.7298187840210295E-2</v>
+        <v>4.1171587508844198E-2</v>
       </c>
       <c r="D24" s="4">
-        <v>346.42741138388101</v>
+        <v>698.99999999979696</v>
       </c>
       <c r="E24" s="4">
-        <v>3.2034710687849599</v>
+        <v>-1.09832821860038</v>
       </c>
       <c r="F24" s="4">
-        <v>0.25076367021114199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>309</v>
+        <v>149</v>
       </c>
       <c r="B25" s="4">
-        <v>0.51579376279058597</v>
+        <v>2.9821882609878801E-2</v>
       </c>
       <c r="C25" s="4">
-        <v>0.16578877772339701</v>
+        <v>6.4363622308044696E-2</v>
       </c>
       <c r="D25" s="4">
-        <v>346.42741138297799</v>
+        <v>381.77545168498699</v>
       </c>
       <c r="E25" s="4">
-        <v>3.1111500420802898</v>
+        <v>0.46333443551624698</v>
       </c>
       <c r="F25" s="4">
-        <v>0.33908424289195299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="B26" s="4">
-        <v>-0.30104899564500098</v>
+        <v>2.2822319375292301E-2</v>
       </c>
       <c r="C26" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>5.8923313935665203E-2</v>
       </c>
       <c r="D26" s="4">
-        <v>346.42741138387203</v>
+        <v>381.775451685093</v>
       </c>
       <c r="E26" s="4">
-        <v>-3.0676557506416402</v>
+        <v>0.38732240009804397</v>
       </c>
       <c r="F26" s="4">
-        <v>0.38866560820413598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B27" s="4">
-        <v>0.234829059898086</v>
+        <v>2.99496548343577E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>5.4047364462141798E-2</v>
       </c>
       <c r="D27" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168520902</v>
       </c>
       <c r="E27" s="4">
-        <v>3.0379633269478501</v>
+        <v>0.55413719304178799</v>
       </c>
       <c r="F27" s="4">
-        <v>0.42539989523159699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="B28" s="4">
-        <v>-0.23274307125823901</v>
+        <v>9.0326105129961195E-3</v>
       </c>
       <c r="C28" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>6.3281803709482803E-2</v>
       </c>
       <c r="D28" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168500802</v>
       </c>
       <c r="E28" s="4">
-        <v>-3.0109770715370598</v>
+        <v>0.14273629990800299</v>
       </c>
       <c r="F28" s="4">
-        <v>0.461219601468975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="B29" s="4">
-        <v>-0.231289090743932</v>
+        <v>1.0064195670412999E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>7.7298187840210295E-2</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D29" s="4">
-        <v>346.42741138388902</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E29" s="4">
-        <v>-2.9921670508246501</v>
+        <v>0.22008746535655799</v>
       </c>
       <c r="F29" s="4">
-        <v>0.48686676190616801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="B30" s="4">
-        <v>0.221950557372217</v>
+        <v>3.7093939594011201E-2</v>
       </c>
       <c r="C30" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D30" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E30" s="4">
-        <v>2.8713552487288601</v>
+        <v>0.94517186418913002</v>
       </c>
       <c r="F30" s="4">
-        <v>0.70719133890145702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B31" s="4">
-        <v>0.220110257855719</v>
+        <v>-2.2477775877283099E-2</v>
       </c>
       <c r="C31" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E31" s="4">
-        <v>2.84754745235072</v>
+        <v>-0.43883037987720802</v>
       </c>
       <c r="F31" s="4">
-        <v>0.75630903947903705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B32" s="4">
-        <v>-0.45827503174367301</v>
+        <v>-0.14691297942942499</v>
       </c>
       <c r="C32" s="4">
-        <v>0.16578877772339701</v>
+        <v>6.4363622308044294E-2</v>
       </c>
       <c r="D32" s="4">
-        <v>346.42741138329899</v>
+        <v>381.77545168445897</v>
       </c>
       <c r="E32" s="4">
-        <v>-2.7642102079325301</v>
+        <v>-2.2825467890278102</v>
       </c>
       <c r="F32" s="4">
-        <v>0.967808343373735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B33" s="4">
-        <v>-0.230524178714445</v>
+        <v>-2.1852719227606999E-2</v>
       </c>
       <c r="C33" s="4">
-        <v>0.168622979226206</v>
+        <v>2.9112708719719101E-2</v>
       </c>
       <c r="D33" s="4">
-        <v>346.42741138331701</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E33" s="4">
-        <v>-1.3670982435033301</v>
+        <v>-0.75062473361694904</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -14143,19 +14154,19 @@
     </row>
     <row r="34" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B34" s="4">
-        <v>-0.34950615815115899</v>
+        <v>-4.1186523012966797E-2</v>
       </c>
       <c r="C34" s="4">
-        <v>0.15437019212748301</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D34" s="4">
-        <v>346.427411383204</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E34" s="4">
-        <v>-2.2640780148963402</v>
+        <v>-0.90068175874420398</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -14163,19 +14174,19 @@
     </row>
     <row r="35" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B35" s="4">
-        <v>-0.12939590029544101</v>
+        <v>-1.23795146214754E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.14162085224315599</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D35" s="4">
-        <v>346.42741138308202</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E35" s="4">
-        <v>-0.91367830546079498</v>
+        <v>-0.31543613432814199</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -14183,19 +14194,19 @@
     </row>
     <row r="36" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B36" s="4">
-        <v>-0.29347791322954903</v>
+        <v>-6.8682247705667701E-3</v>
       </c>
       <c r="C36" s="4">
-        <v>0.16578877772339701</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D36" s="4">
-        <v>346.42741138329899</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E36" s="4">
-        <v>-1.7701916695422499</v>
+        <v>-0.13408736262896501</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -14203,19 +14214,19 @@
     </row>
     <row r="37" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B37" s="4">
-        <v>-0.19485249071755301</v>
+        <v>-8.1169342713653794E-2</v>
       </c>
       <c r="C37" s="4">
-        <v>9.7731935698676498E-2</v>
+        <v>6.4363622308044294E-2</v>
       </c>
       <c r="D37" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E37" s="4">
-        <v>-1.9937443101333401</v>
+        <v>-1.2611058825306201</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -14223,19 +14234,19 @@
     </row>
     <row r="38" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B38" s="4">
-        <v>-0.25144524218832598</v>
+        <v>-3.3355536546898497E-2</v>
       </c>
       <c r="C38" s="4">
-        <v>0.168622979226206</v>
+        <v>2.9112708719719101E-2</v>
       </c>
       <c r="D38" s="4">
-        <v>346.42741138331701</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E38" s="4">
-        <v>-1.49116830542422</v>
+        <v>-1.1457379960081</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -14243,19 +14254,19 @@
     </row>
     <row r="39" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B39" s="4">
-        <v>-0.33662765562529101</v>
+        <v>-3.4060452872014299E-2</v>
       </c>
       <c r="C39" s="4">
-        <v>0.15437019212748301</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D39" s="4">
-        <v>346.42741138321202</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E39" s="4">
-        <v>-2.1806519185212601</v>
+        <v>-0.74484628349743398</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -14263,19 +14274,19 @@
     </row>
     <row r="40" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B40" s="4">
-        <v>-8.9005147209672203E-2</v>
+        <v>4.2490288137992098E-2</v>
       </c>
       <c r="C40" s="4">
-        <v>0.14162085224315599</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D40" s="4">
-        <v>346.427411383091</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E40" s="4">
-        <v>-0.62847487357903098</v>
+        <v>1.0826734849108099</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -14283,19 +14294,19 @@
     </row>
     <row r="41" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B41" s="4">
-        <v>-0.430444895940442</v>
+        <v>2.72290922847464E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>0.16578877772339701</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D41" s="4">
-        <v>346.42741138329899</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E41" s="4">
-        <v>-2.5963451920647902</v>
+        <v>0.53158964553529997</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -14303,19 +14314,19 @@
     </row>
     <row r="42" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B42" s="4">
-        <v>-3.4724550837895003E-2</v>
+        <v>-8.7691144587643405E-2</v>
       </c>
       <c r="C42" s="4">
-        <v>9.7731935698676706E-2</v>
+        <v>6.4363622308044405E-2</v>
       </c>
       <c r="D42" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E42" s="4">
-        <v>-0.35530403229663199</v>
+        <v>-1.36243333490389</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -14323,19 +14334,19 @@
     </row>
     <row r="43" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B43" s="4">
-        <v>-0.23929352506205701</v>
+        <v>-1.26493456122259E-2</v>
       </c>
       <c r="C43" s="4">
-        <v>0.168622979226206</v>
+        <v>2.9112708719719101E-2</v>
       </c>
       <c r="D43" s="4">
-        <v>346.42741138331701</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E43" s="4">
-        <v>-1.41910388584136</v>
+        <v>-0.434495660778485</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -14343,19 +14354,19 @@
     </row>
     <row r="44" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B44" s="4">
-        <v>-0.38536422521693098</v>
+        <v>-1.9648908846812401E-2</v>
       </c>
       <c r="C44" s="4">
-        <v>0.15437019212748301</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D44" s="4">
-        <v>346.42741138321202</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E44" s="4">
-        <v>-2.4963642261887302</v>
+        <v>-0.42968943438075202</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -14363,19 +14374,19 @@
     </row>
     <row r="45" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B45" s="4">
-        <v>-8.7551166695365903E-2</v>
+        <v>-1.2521573387747001E-2</v>
       </c>
       <c r="C45" s="4">
-        <v>0.14162085224315599</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D45" s="4">
-        <v>346.42741138308202</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E45" s="4">
-        <v>-0.61820816150043201</v>
+        <v>-0.31905586171247802</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -14383,19 +14394,19 @@
     </row>
     <row r="46" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B46" s="4">
-        <v>-7.7994171768870302E-2</v>
+        <v>-3.3438617709108602E-2</v>
       </c>
       <c r="C46" s="4">
-        <v>9.77319356986764E-2</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D46" s="4">
-        <v>695.99999999991405</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E46" s="4">
-        <v>-0.79804181930192297</v>
+        <v>-0.65281731573304203</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -14403,19 +14414,19 @@
     </row>
     <row r="47" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B47" s="4">
-        <v>-0.26087043306799301</v>
+        <v>2.7029743923598099E-2</v>
       </c>
       <c r="C47" s="4">
-        <v>0.168622979226206</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D47" s="4">
-        <v>346.42741138332502</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E47" s="4">
-        <v>-1.54706336150091</v>
+        <v>0.91665405952771395</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -14423,19 +14434,19 @@
     </row>
     <row r="48" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B48" s="4">
-        <v>-0.32029423795360401</v>
+        <v>-3.25419715476961E-2</v>
       </c>
       <c r="C48" s="4">
-        <v>0.15437019212748301</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D48" s="4">
-        <v>346.427411383204</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E48" s="4">
-        <v>-2.0748451079797601</v>
+        <v>-0.73636889201952405</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -14443,19 +14454,19 @@
     </row>
     <row r="49" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B49" s="4">
-        <v>-0.114677098253074</v>
+        <v>-0.156977175099838</v>
       </c>
       <c r="C49" s="4">
-        <v>0.14162085224315599</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D49" s="4">
-        <v>346.42741138308202</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E49" s="4">
-        <v>-0.80974726840492794</v>
+        <v>-2.6640927777964598</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -14463,19 +14474,19 @@
     </row>
     <row r="50" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B50" s="4">
-        <v>-0.118981979436715</v>
+        <v>-3.1916914898020003E-2</v>
       </c>
       <c r="C50" s="4">
-        <v>0.11980088971466001</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D50" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E50" s="4">
-        <v>-0.99316440570770304</v>
+        <v>-0.69797062099627305</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -14483,19 +14494,19 @@
     </row>
     <row r="51" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B51" s="4">
-        <v>0.101128278419004</v>
+        <v>-5.1250718683379902E-2</v>
       </c>
       <c r="C51" s="4">
-        <v>0.102852140225792</v>
+        <v>2.0877805414216299E-2</v>
       </c>
       <c r="D51" s="4">
-        <v>346.42741138387203</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E51" s="4">
-        <v>0.98323941725467701</v>
+        <v>-2.4547943457927701</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -14503,19 +14514,19 @@
     </row>
     <row r="52" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="B52" s="4">
-        <v>-6.2953734515104498E-2</v>
+        <v>-2.2443710291888401E-2</v>
       </c>
       <c r="C52" s="4">
-        <v>0.13419394836566301</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D52" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E52" s="4">
-        <v>-0.46912498873319503</v>
+        <v>-0.76112885893684901</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -14523,19 +14534,19 @@
     </row>
     <row r="53" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B53" s="4">
-        <v>3.5671687996891202E-2</v>
+        <v>-1.6932420440979801E-2</v>
       </c>
       <c r="C53" s="4">
-        <v>0.168622979226206</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D53" s="4">
-        <v>346.42741138311698</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E53" s="4">
-        <v>0.21154701548143101</v>
+        <v>-0.383151575836706</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -14543,19 +14554,19 @@
     </row>
     <row r="54" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B54" s="4">
-        <v>-2.0921063473881001E-2</v>
+        <v>-9.1233538384066906E-2</v>
       </c>
       <c r="C54" s="4">
-        <v>6.9106914471021699E-2</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D54" s="4">
-        <v>695.99999999998499</v>
+        <v>381.775451684438</v>
       </c>
       <c r="E54" s="4">
-        <v>-0.302734735503982</v>
+        <v>-1.5483436400688499</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -14563,19 +14574,19 @@
     </row>
     <row r="55" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B55" s="4">
-        <v>-0.106103476910846</v>
+        <v>-4.3419732217311602E-2</v>
       </c>
       <c r="C55" s="4">
-        <v>0.11980088971466001</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D55" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E55" s="4">
-        <v>-0.88566518298454999</v>
+        <v>-0.94951838409322198</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -14583,19 +14594,19 @@
     </row>
     <row r="56" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B56" s="4">
-        <v>0.14151903150477199</v>
+        <v>-4.41246485424273E-2</v>
       </c>
       <c r="C56" s="4">
-        <v>0.102852140225792</v>
+        <v>2.0877805414216299E-2</v>
       </c>
       <c r="D56" s="4">
-        <v>346.42741138387203</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E56" s="4">
-        <v>1.3759463944463799</v>
+        <v>-2.1134715870271301</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -14603,19 +14614,19 @@
     </row>
     <row r="57" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B57" s="4">
-        <v>-0.199920717225997</v>
+        <v>3.2426092467579E-2</v>
       </c>
       <c r="C57" s="4">
-        <v>0.13419394836566301</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D57" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E57" s="4">
-        <v>-1.4897893657710699</v>
+        <v>1.0996593004744499</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -14623,19 +14634,19 @@
     </row>
     <row r="58" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B58" s="4">
-        <v>0.19579962787655</v>
+        <v>1.7164896614333399E-2</v>
       </c>
       <c r="C58" s="4">
-        <v>0.168622979226206</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D58" s="4">
-        <v>346.42741138319502</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E58" s="4">
-        <v>1.1611681205910001</v>
+        <v>0.38841211212420301</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -14643,19 +14654,19 @@
     </row>
     <row r="59" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B59" s="4">
-        <v>-8.76934634761228E-3</v>
+        <v>-9.7755340258056503E-2</v>
       </c>
       <c r="C59" s="4">
-        <v>6.9106914471021699E-2</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D59" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E59" s="4">
-        <v>-0.126895353594314</v>
+        <v>-1.6590265164785201</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -14663,19 +14674,19 @@
     </row>
     <row r="60" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B60" s="4">
-        <v>-0.15484004650248601</v>
+        <v>-2.2713541282638999E-2</v>
       </c>
       <c r="C60" s="4">
-        <v>0.11980088971466001</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D60" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E60" s="4">
-        <v>-1.2924782684943501</v>
+        <v>-0.49670792320380203</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -14683,19 +14694,19 @@
     </row>
     <row r="61" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B61" s="4">
-        <v>0.142973012019079</v>
+        <v>-2.9713104517225399E-2</v>
       </c>
       <c r="C61" s="4">
-        <v>0.102852140225792</v>
+        <v>2.0877805414216299E-2</v>
       </c>
       <c r="D61" s="4">
-        <v>346.42741138387203</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E61" s="4">
-        <v>1.39008300367118</v>
+        <v>-1.4231909881195199</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -14703,19 +14714,19 @@
     </row>
     <row r="62" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B62" s="4">
-        <v>-0.36326375584501203</v>
+        <v>-2.258576905816E-2</v>
       </c>
       <c r="C62" s="4">
-        <v>0.13419394836566301</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D62" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E62" s="4">
-        <v>-2.70700549666488</v>
+        <v>-0.76594646820323498</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -14723,19 +14734,19 @@
     </row>
     <row r="63" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B63" s="4">
-        <v>0.152530006945574</v>
+        <v>-4.35028133795217E-2</v>
       </c>
       <c r="C63" s="4">
-        <v>0.168622979226206</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D63" s="4">
-        <v>346.42741138300403</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E63" s="4">
-        <v>0.90456240095815899</v>
+        <v>-0.98439390622226697</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -14743,19 +14754,19 @@
     </row>
     <row r="64" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B64" s="4">
-        <v>-3.0346254353548499E-2</v>
+        <v>-5.95717154712943E-2</v>
       </c>
       <c r="C64" s="4">
-        <v>6.9106914471021699E-2</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D64" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E64" s="4">
-        <v>-0.43912037725651099</v>
+        <v>-1.59090763748191</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -14763,19 +14774,19 @@
     </row>
     <row r="65" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B65" s="4">
-        <v>-8.9770059239159802E-2</v>
+        <v>-5.8946658821618203E-2</v>
       </c>
       <c r="C65" s="4">
-        <v>0.11980088971466001</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D65" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E65" s="4">
-        <v>-0.74932714984815796</v>
+        <v>-1.50198992115533</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -14783,19 +14794,19 @@
     </row>
     <row r="66" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B66" s="4">
-        <v>0.115847080461371</v>
+        <v>-7.8280462606978005E-2</v>
       </c>
       <c r="C66" s="4">
-        <v>0.102852140225792</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D66" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E66" s="4">
-        <v>1.1263458417787999</v>
+        <v>-2.6547089766450802</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -14803,19 +14814,19 @@
     </row>
     <row r="67" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B67" s="4">
-        <v>-0.22775085302922801</v>
+        <v>-4.3962164364577901E-2</v>
       </c>
       <c r="C67" s="4">
-        <v>0.13419394836566301</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D67" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E67" s="4">
-        <v>-1.69717677885618</v>
+        <v>-1.1740427901819299</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -14823,19 +14834,19 @@
     </row>
     <row r="68" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B68" s="4">
-        <v>5.6028244921610001E-2</v>
+        <v>-0.118263282307665</v>
       </c>
       <c r="C68" s="4">
-        <v>0.11577764409557099</v>
+        <v>5.4047364462141402E-2</v>
       </c>
       <c r="D68" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E68" s="4">
-        <v>0.48392973755244501</v>
+        <v>-2.1881415215075801</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -14843,19 +14854,19 @@
     </row>
     <row r="69" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B69" s="4">
-        <v>0.15465366743360601</v>
+        <v>-7.0449476140909698E-2</v>
       </c>
       <c r="C69" s="4">
-        <v>0.15437019212748301</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D69" s="4">
-        <v>346.42741138296901</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E69" s="4">
-        <v>1.00183633447764</v>
+        <v>-1.7950873761060899</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -14863,19 +14874,19 @@
     </row>
     <row r="70" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B70" s="4">
-        <v>9.8060915962833506E-2</v>
+        <v>-7.1154392466025507E-2</v>
       </c>
       <c r="C70" s="4">
-        <v>0.11980088971466001</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D70" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E70" s="4">
-        <v>0.81853245160694099</v>
+        <v>-2.4130440484960398</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -14883,19 +14894,19 @@
     </row>
     <row r="71" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B71" s="4">
-        <v>1.28785025258682E-2</v>
+        <v>5.3963485439808799E-3</v>
       </c>
       <c r="C71" s="4">
-        <v>4.9559136767154101E-2</v>
+        <v>9.88909544552374E-3</v>
       </c>
       <c r="D71" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E71" s="4">
-        <v>0.25986131651920902</v>
+        <v>0.54568676920026304</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -14903,19 +14914,19 @@
     </row>
     <row r="72" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B72" s="4">
-        <v>-8.0938737789282594E-2</v>
+        <v>-9.8648473092647296E-3</v>
       </c>
       <c r="C72" s="4">
-        <v>0.11577764409557099</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D72" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E72" s="4">
-        <v>-0.69908779386174202</v>
+        <v>-0.26344819521715201</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -14923,19 +14934,19 @@
     </row>
     <row r="73" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B73" s="4">
-        <v>0.31478160731326399</v>
+        <v>-0.124785084181655</v>
       </c>
       <c r="C73" s="4">
-        <v>0.15437019212748301</v>
+        <v>5.4047364462141499E-2</v>
       </c>
       <c r="D73" s="4">
-        <v>346.42741138306502</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E73" s="4">
-        <v>2.0391346475316299</v>
+        <v>-2.3088097897736102</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -14943,19 +14954,19 @@
     </row>
     <row r="74" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B74" s="4">
-        <v>0.11021263308910199</v>
+        <v>-4.9743285206237102E-2</v>
       </c>
       <c r="C74" s="4">
-        <v>0.11980088971466001</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D74" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E74" s="4">
-        <v>0.919965063294646</v>
+        <v>-1.2674834251593301</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
@@ -14963,19 +14974,19 @@
     </row>
     <row r="75" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B75" s="4">
-        <v>-3.58580670657715E-2</v>
+        <v>-5.6742848440823598E-2</v>
       </c>
       <c r="C75" s="4">
-        <v>4.9559136767154101E-2</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D75" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E75" s="4">
-        <v>-0.72354099374742997</v>
+        <v>-1.9243083663488401</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -14983,19 +14994,19 @@
     </row>
     <row r="76" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="B76" s="4">
-        <v>-0.24428177640829701</v>
+        <v>-7.0532557303119803E-2</v>
       </c>
       <c r="C76" s="4">
-        <v>0.11577764409557099</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D76" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168451201</v>
       </c>
       <c r="E76" s="4">
-        <v>-2.1099218101782302</v>
+        <v>-1.8836251938847499</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -15003,19 +15014,19 @@
     </row>
     <row r="77" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B77" s="4">
-        <v>0.27151198638228902</v>
+        <v>-0.12443520355214201</v>
       </c>
       <c r="C77" s="4">
-        <v>0.15437019212748199</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D77" s="4">
-        <v>346.42741138284799</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E77" s="4">
-        <v>1.75883687543815</v>
+        <v>-1.9663662578804799</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -15023,19 +15034,19 @@
     </row>
     <row r="78" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B78" s="4">
-        <v>8.8635725083166E-2</v>
+        <v>6.2505664967609995E-4</v>
       </c>
       <c r="C78" s="4">
-        <v>0.11980088971466001</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D78" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E78" s="4">
-        <v>0.73985865459160804</v>
+        <v>1.22028909141028E-2</v>
       </c>
       <c r="F78" s="4">
         <v>1</v>
@@ -15043,19 +15054,19 @@
     </row>
     <row r="79" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B79" s="4">
-        <v>2.9211920197554701E-2</v>
+        <v>-1.8708747135683799E-2</v>
       </c>
       <c r="C79" s="4">
-        <v>4.9559136767154101E-2</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D79" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E79" s="4">
-        <v>0.58943561375579301</v>
+        <v>-0.42334679628076199</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
@@ -15063,19 +15074,19 @@
     </row>
     <row r="80" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B80" s="4">
-        <v>-0.108768873592513</v>
+        <v>1.00982612558077E-2</v>
       </c>
       <c r="C80" s="4">
-        <v>0.11577764409557099</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D80" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E80" s="4">
-        <v>-0.93946352460521698</v>
+        <v>0.269681690883882</v>
       </c>
       <c r="F80" s="4">
         <v>1</v>
@@ -15083,19 +15094,19 @@
     </row>
     <row r="81" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B81" s="4">
-        <v>-0.16408201293410901</v>
+        <v>1.56095511067163E-2</v>
       </c>
       <c r="C81" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>2.7618740523407102E-2</v>
       </c>
       <c r="D81" s="4">
-        <v>346.42741138387203</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E81" s="4">
-        <v>-1.67197744498614</v>
+        <v>0.56517968636140803</v>
       </c>
       <c r="F81" s="4">
         <v>1</v>
@@ -15103,19 +15114,19 @@
     </row>
     <row r="82" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="B82" s="4">
-        <v>-6.5456590422112895E-2</v>
+        <v>-5.8691566836370702E-2</v>
       </c>
       <c r="C82" s="4">
-        <v>0.14162085224315599</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D82" s="4">
-        <v>346.42741138279598</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E82" s="4">
-        <v>-0.462195992929963</v>
+        <v>-0.92746355817882697</v>
       </c>
       <c r="F82" s="4">
         <v>1</v>
@@ -15123,19 +15134,19 @@
     </row>
     <row r="83" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B83" s="4">
-        <v>-0.12204934189288499</v>
+        <v>-1.08777606696155E-2</v>
       </c>
       <c r="C83" s="4">
-        <v>0.102852140225792</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D83" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E83" s="4">
-        <v>-1.18664853862009</v>
+        <v>-0.21236495429625599</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -15143,19 +15154,19 @@
     </row>
     <row r="84" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B84" s="4">
-        <v>-0.20723175532985</v>
+        <v>-1.15826769947312E-2</v>
       </c>
       <c r="C84" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D84" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E84" s="4">
-        <v>-2.68093937413173</v>
+        <v>-0.26209607530168499</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
@@ -15163,19 +15174,19 @@
     </row>
     <row r="85" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B85" s="4">
-        <v>4.0390753085768401E-2</v>
+        <v>6.4968064015275107E-2</v>
       </c>
       <c r="C85" s="4">
-        <v>2.35500539412699E-2</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D85" s="4">
-        <v>696.00000000002001</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E85" s="4">
-        <v>1.7151023597014501</v>
+        <v>1.7350211995174101</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
@@ -15183,19 +15194,19 @@
     </row>
     <row r="86" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B86" s="4">
-        <v>9.46713494575456E-2</v>
+        <v>4.9706868162029502E-2</v>
       </c>
       <c r="C86" s="4">
-        <v>0.14162085224315599</v>
+        <v>2.7618740523407102E-2</v>
       </c>
       <c r="D86" s="4">
-        <v>346.42741138290899</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E86" s="4">
-        <v>0.66848453429018795</v>
+        <v>1.7997514448532701</v>
       </c>
       <c r="F86" s="4">
         <v>1</v>
@@ -15203,19 +15214,19 @@
     </row>
     <row r="87" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="B87" s="4">
-        <v>-0.10989762476661601</v>
+        <v>-6.5213368710360306E-2</v>
       </c>
       <c r="C87" s="4">
-        <v>0.102852140225792</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D87" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E87" s="4">
-        <v>-1.0685010980360501</v>
+        <v>-1.0305232292326101</v>
       </c>
       <c r="F87" s="4">
         <v>1</v>
@@ -15223,19 +15234,19 @@
     </row>
     <row r="88" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B88" s="4">
-        <v>4.18447336000747E-2</v>
+        <v>9.8284302650571507E-3</v>
       </c>
       <c r="C88" s="4">
-        <v>2.35500539412699E-2</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D88" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E88" s="4">
-        <v>1.77684236751341</v>
+        <v>0.191879027994517</v>
       </c>
       <c r="F88" s="4">
         <v>1</v>
@@ -15243,19 +15254,19 @@
     </row>
     <row r="89" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B89" s="4">
-        <v>5.1401728526570302E-2</v>
+        <v>2.8288670304706899E-3</v>
       </c>
       <c r="C89" s="4">
-        <v>0.14162085224315499</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D89" s="4">
-        <v>346.42741138264802</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E89" s="4">
-        <v>0.36295310833404898</v>
+        <v>6.4012399428384895E-2</v>
       </c>
       <c r="F89" s="4">
         <v>1</v>
@@ -15263,19 +15274,19 @@
     </row>
     <row r="90" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B90" s="4">
-        <v>-0.131474532772553</v>
+        <v>9.9562024895360791E-3</v>
       </c>
       <c r="C90" s="4">
-        <v>0.102852140225792</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D90" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E90" s="4">
-        <v>-1.2782867958209301</v>
+        <v>0.26588790427819498</v>
       </c>
       <c r="F90" s="4">
         <v>1</v>
@@ -15283,19 +15294,19 @@
     </row>
     <row r="91" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B91" s="4">
-        <v>-0.190898337658164</v>
+        <v>-1.09608418318255E-2</v>
       </c>
       <c r="C91" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>2.7618740523407102E-2</v>
       </c>
       <c r="D91" s="4">
-        <v>346.42741138388101</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E91" s="4">
-        <v>-2.4696353561714299</v>
+        <v>-0.39686247903071997</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
@@ -15303,19 +15314,19 @@
     </row>
     <row r="92" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B92" s="4">
-        <v>1.4718802042366899E-2</v>
+        <v>0.12506026020181801</v>
       </c>
       <c r="C92" s="4">
-        <v>2.35500539412699E-2</v>
+        <v>6.4363622308044294E-2</v>
       </c>
       <c r="D92" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E92" s="4">
-        <v>0.62500077830281298</v>
+        <v>1.94302706586773</v>
       </c>
       <c r="F92" s="4">
         <v>1</v>
@@ -15323,19 +15334,19 @@
     </row>
     <row r="93" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B93" s="4">
-        <v>9.86254225119957E-2</v>
+        <v>0.105726456416458</v>
       </c>
       <c r="C93" s="4">
-        <v>0.16578877772339701</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D93" s="4">
-        <v>346.427411383091</v>
+        <v>381.775451684438</v>
       </c>
       <c r="E93" s="4">
-        <v>0.59488599811347298</v>
+        <v>1.79430601157116</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -15343,19 +15354,19 @@
     </row>
     <row r="94" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B94" s="4">
-        <v>4.2032671041223497E-2</v>
+        <v>0.13453346480795</v>
       </c>
       <c r="C94" s="4">
-        <v>0.13419394836566301</v>
+        <v>5.4047364462141402E-2</v>
       </c>
       <c r="D94" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E94" s="4">
-        <v>0.31322329772047097</v>
+        <v>2.4891771531650999</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -15363,19 +15374,19 @@
     </row>
     <row r="95" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B95" s="4">
-        <v>-4.3149742395741798E-2</v>
+        <v>0.14004475465885899</v>
       </c>
       <c r="C95" s="4">
-        <v>0.11577764409557099</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D95" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E95" s="4">
-        <v>-0.37269494238562201</v>
+        <v>2.2130335491349702</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -15383,19 +15394,19 @@
     </row>
     <row r="96" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B96" s="4">
-        <v>0.20447276601987699</v>
+        <v>6.5743636715771506E-2</v>
       </c>
       <c r="C96" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>4.1171587508844101E-2</v>
       </c>
       <c r="D96" s="4">
-        <v>346.42741138388101</v>
+        <v>698.99999999986801</v>
       </c>
       <c r="E96" s="4">
-        <v>2.0835547223354198</v>
+        <v>1.5968205428476401</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -15403,19 +15414,19 @@
     </row>
     <row r="97" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B97" s="4">
-        <v>-0.136966982710893</v>
+        <v>0.113557442882527</v>
       </c>
       <c r="C97" s="4">
-        <v>6.55605755384637E-2</v>
+        <v>6.4363622308044294E-2</v>
       </c>
       <c r="D97" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E97" s="4">
-        <v>-2.0891668748474501</v>
+        <v>1.7643109385460101</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -15423,19 +15434,19 @@
     </row>
     <row r="98" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B98" s="4">
-        <v>0.25875336239165397</v>
+        <v>0.112852526557411</v>
       </c>
       <c r="C98" s="4">
-        <v>0.16578877772339701</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D98" s="4">
-        <v>346.42741138316899</v>
+        <v>381.775451684438</v>
       </c>
       <c r="E98" s="4">
-        <v>1.56074111857776</v>
+        <v>1.9152440523054799</v>
       </c>
       <c r="F98" s="4">
         <v>1</v>
@@ -15443,19 +15454,19 @@
     </row>
     <row r="99" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B99" s="4">
-        <v>5.4184388167492201E-2</v>
+        <v>0.17414207171417201</v>
       </c>
       <c r="C99" s="4">
-        <v>0.13419394836566301</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D99" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E99" s="4">
-        <v>0.40377668909365499</v>
+        <v>2.75185063487812</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -15463,19 +15474,19 @@
     </row>
     <row r="100" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B100" s="4">
-        <v>-9.1886311987381494E-2</v>
+        <v>5.9221834841781798E-2</v>
       </c>
       <c r="C100" s="4">
-        <v>0.11577764409557099</v>
+        <v>4.1171587508844198E-2</v>
       </c>
       <c r="D100" s="4">
-        <v>346.42741138388101</v>
+        <v>699.00000000004695</v>
       </c>
       <c r="E100" s="4">
-        <v>-0.79364468594241</v>
+        <v>1.43841514075842</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
@@ -15483,19 +15494,19 @@
     </row>
     <row r="101" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B101" s="4">
-        <v>0.205926746534183</v>
+        <v>0.134263633817199</v>
       </c>
       <c r="C101" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>6.4363622308044294E-2</v>
       </c>
       <c r="D101" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E101" s="4">
-        <v>2.0983706219084302</v>
+        <v>2.08601736512923</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -15503,19 +15514,19 @@
     </row>
     <row r="102" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B102" s="4">
-        <v>0.215483741460679</v>
+        <v>0.12726407058261299</v>
       </c>
       <c r="C102" s="4">
-        <v>0.16578877772339701</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D102" s="4">
-        <v>346.42741138297799</v>
+        <v>381.775451684438</v>
       </c>
       <c r="E102" s="4">
-        <v>1.2997486586226801</v>
+        <v>2.1598254083530599</v>
       </c>
       <c r="F102" s="4">
         <v>1</v>
@@ -15523,19 +15534,19 @@
     </row>
     <row r="103" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B103" s="4">
-        <v>3.2607480161555999E-2</v>
+        <v>0.13439140604167801</v>
       </c>
       <c r="C103" s="4">
-        <v>0.13419394836566301</v>
+        <v>5.4047364462141402E-2</v>
       </c>
       <c r="D103" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E103" s="4">
-        <v>0.24298770964473301</v>
+        <v>2.4865487407034501</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -15543,19 +15554,19 @@
     </row>
     <row r="104" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B104" s="4">
-        <v>-2.6816324724055301E-2</v>
+        <v>0.113474361720317</v>
       </c>
       <c r="C104" s="4">
-        <v>0.11577764409557099</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D104" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E104" s="4">
-        <v>-0.231619194996914</v>
+        <v>1.7931594086865901</v>
       </c>
       <c r="F104" s="4">
         <v>1</v>
@@ -15563,19 +15574,19 @@
     </row>
     <row r="105" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B105" s="4">
-        <v>0.17880081497647499</v>
+        <v>-1.9333803785359899E-2</v>
       </c>
       <c r="C105" s="4">
-        <v>9.8136499045576794E-2</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D105" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E105" s="4">
-        <v>1.8219603991929301</v>
+        <v>-0.42279860310448902</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -15583,19 +15594,19 @@
     </row>
     <row r="106" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B106" s="4">
-        <v>-0.16479711851412299</v>
+        <v>9.4732046061315796E-3</v>
       </c>
       <c r="C106" s="4">
-        <v>6.5560575538463603E-2</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D106" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E106" s="4">
-        <v>-2.51366186401824</v>
+        <v>0.24138192263805899</v>
       </c>
       <c r="F106" s="4">
         <v>1</v>
@@ -15603,19 +15614,19 @@
     </row>
     <row r="107" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B107" s="4">
-        <v>-5.6592751470772203E-2</v>
+        <v>1.49844944570402E-2</v>
       </c>
       <c r="C107" s="4">
-        <v>0.168622979226206</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D107" s="4">
-        <v>346.42741138310799</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E107" s="4">
-        <v>-0.33561707740232499</v>
+        <v>0.29254012633414</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -15623,19 +15634,19 @@
     </row>
     <row r="108" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B108" s="4">
-        <v>-0.141775164907738</v>
+        <v>-5.9316623486046799E-2</v>
       </c>
       <c r="C108" s="4">
-        <v>0.15437019212748301</v>
+        <v>6.4363622308044294E-2</v>
       </c>
       <c r="D108" s="4">
-        <v>346.42741138296901</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E108" s="4">
-        <v>-0.91841023810254896</v>
+        <v>-0.921586159370544</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -15643,19 +15654,19 @@
     </row>
     <row r="109" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B109" s="4">
-        <v>0.105847343507881</v>
+        <v>-1.15028173192916E-2</v>
       </c>
       <c r="C109" s="4">
-        <v>0.14162085224315599</v>
+        <v>2.9112708719719101E-2</v>
       </c>
       <c r="D109" s="4">
-        <v>346.42741138279598</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E109" s="4">
-        <v>0.74739942481172805</v>
+        <v>-0.39511326239115302</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -15663,19 +15674,19 @@
     </row>
     <row r="110" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B110" s="4">
-        <v>-0.23559240522288799</v>
+        <v>-1.22077336444073E-2</v>
       </c>
       <c r="C110" s="4">
-        <v>0.16578877772339701</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D110" s="4">
-        <v>346.427411383091</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E110" s="4">
-        <v>-1.42103952063602</v>
+        <v>-0.26696312785771897</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
@@ -15683,19 +15694,19 @@
     </row>
     <row r="111" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B111" s="4">
-        <v>0.16012793987965801</v>
+        <v>6.4343007365599003E-2</v>
       </c>
       <c r="C111" s="4">
-        <v>9.77319356986764E-2</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D111" s="4">
-        <v>695.99999999987801</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E111" s="4">
-        <v>1.63844027783671</v>
+        <v>1.63949154187701</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -15703,19 +15714,19 @@
     </row>
     <row r="112" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B112" s="4">
-        <v>-4.4441034344503499E-2</v>
+        <v>4.9081811512353399E-2</v>
       </c>
       <c r="C112" s="4">
-        <v>0.168622979226206</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D112" s="4">
-        <v>346.42741138311698</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E112" s="4">
-        <v>-0.26355265781946802</v>
+        <v>0.95821713449840495</v>
       </c>
       <c r="F112" s="4">
         <v>1</v>
@@ -15723,19 +15734,19 @@
     </row>
     <row r="113" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B113" s="4">
-        <v>-0.190511734499377</v>
+        <v>-6.5838425360036507E-2</v>
       </c>
       <c r="C113" s="4">
-        <v>0.15437019212748301</v>
+        <v>6.4363622308044405E-2</v>
       </c>
       <c r="D113" s="4">
-        <v>346.42741138296901</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E113" s="4">
-        <v>-1.23412254577003</v>
+        <v>-1.02291361174382</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -15743,19 +15754,19 @@
     </row>
     <row r="114" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B114" s="4">
-        <v>0.107301324022188</v>
+        <v>9.2033736153810507E-3</v>
       </c>
       <c r="C114" s="4">
-        <v>0.14162085224315599</v>
+        <v>2.9112708719719101E-2</v>
       </c>
       <c r="D114" s="4">
-        <v>346.42741138279598</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E114" s="4">
-        <v>0.75766613689032702</v>
+        <v>0.31612907283846298</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -15763,19 +15774,19 @@
     </row>
     <row r="115" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B115" s="4">
-        <v>-0.39893544384190299</v>
+        <v>2.2038103807945899E-3</v>
       </c>
       <c r="C115" s="4">
-        <v>0.16578877772339701</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D115" s="4">
-        <v>346.427411383091</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E115" s="4">
-        <v>-2.4062873815710799</v>
+        <v>4.8193721258963401E-2</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -15783,19 +15794,19 @@
     </row>
     <row r="116" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B116" s="4">
-        <v>0.116858318948683</v>
+        <v>9.3311458398599792E-3</v>
       </c>
       <c r="C116" s="4">
-        <v>9.7731935698676303E-2</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D116" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E116" s="4">
-        <v>1.19570249083142</v>
+        <v>0.237762195253723</v>
       </c>
       <c r="F116" s="4">
         <v>1</v>
@@ -15803,19 +15814,19 @@
     </row>
     <row r="117" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B117" s="4">
-        <v>-6.6017942350439701E-2</v>
+        <v>-1.15858984815016E-2</v>
       </c>
       <c r="C117" s="4">
-        <v>0.168622979226206</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D117" s="4">
-        <v>346.42741138310799</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E117" s="4">
-        <v>-0.39151213347901598</v>
+        <v>-0.22618982676993701</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -15823,19 +15834,19 @@
     </row>
     <row r="118" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B118" s="4">
-        <v>-0.125441747236051</v>
+        <v>2.88070083914914E-2</v>
       </c>
       <c r="C118" s="4">
-        <v>0.15437019212748301</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D118" s="4">
-        <v>346.42741138296901</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E118" s="4">
-        <v>-0.81260342756105497</v>
+        <v>0.97692605818051803</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
@@ -15843,19 +15854,19 @@
     </row>
     <row r="119" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B119" s="4">
-        <v>8.01753924644798E-2</v>
+        <v>3.4318298242400097E-2</v>
       </c>
       <c r="C119" s="4">
-        <v>0.14162085224315599</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D119" s="4">
-        <v>346.42741138279598</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E119" s="4">
-        <v>0.56612702998582998</v>
+        <v>0.77656411246358004</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -15863,19 +15874,19 @@
     </row>
     <row r="120" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B120" s="4">
-        <v>-0.26342254102611901</v>
+        <v>-3.9982819700686997E-2</v>
       </c>
       <c r="C120" s="4">
-        <v>0.16578877772339701</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D120" s="4">
-        <v>346.427411383091</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E120" s="4">
-        <v>-1.58890453650376</v>
+        <v>-0.67855687384355301</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
@@ -15883,19 +15894,19 @@
     </row>
     <row r="121" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="B121" s="4">
-        <v>-8.5182413436965296E-2</v>
+        <v>7.8309864660682793E-3</v>
       </c>
       <c r="C121" s="4">
-        <v>0.11980088971466001</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D121" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E121" s="4">
-        <v>-0.71103322888378695</v>
+        <v>0.17125084000754001</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -15903,19 +15914,19 @@
     </row>
     <row r="122" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B122" s="4">
-        <v>0.162440094978653</v>
+        <v>7.12607014095253E-3</v>
       </c>
       <c r="C122" s="4">
-        <v>0.102852140225792</v>
+        <v>2.0877805414216299E-2</v>
       </c>
       <c r="D122" s="4">
-        <v>346.42741138387203</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E122" s="4">
-        <v>1.5793555158118</v>
+        <v>0.34132275876564</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
@@ -15923,19 +15934,19 @@
     </row>
     <row r="123" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B123" s="4">
-        <v>-0.17899965375211599</v>
+        <v>6.8415615297713298E-2</v>
       </c>
       <c r="C123" s="4">
-        <v>0.13419394836566301</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D123" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E123" s="4">
-        <v>-1.3338876747583499</v>
+        <v>1.5481278004244901</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -15943,19 +15954,19 @@
     </row>
     <row r="124" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B124" s="4">
-        <v>0.21672069135043101</v>
+        <v>-4.6504621574676601E-2</v>
       </c>
       <c r="C124" s="4">
-        <v>0.168622979226206</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D124" s="4">
-        <v>346.42741138319502</v>
+        <v>381.775451684438</v>
       </c>
       <c r="E124" s="4">
-        <v>1.2852381825118999</v>
+        <v>-0.78923975025322601</v>
       </c>
       <c r="F124" s="4">
         <v>1</v>
@@ -15963,19 +15974,19 @@
     </row>
     <row r="125" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B125" s="4">
-        <v>1.21517171262688E-2</v>
+        <v>2.8537177400740899E-2</v>
       </c>
       <c r="C125" s="4">
-        <v>6.9106914471021699E-2</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D125" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E125" s="4">
-        <v>0.175839381909668</v>
+        <v>0.62406130089695999</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -15983,19 +15994,19 @@
     </row>
     <row r="126" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B126" s="4">
-        <v>-0.133918983028605</v>
+        <v>2.1537614166154399E-2</v>
       </c>
       <c r="C126" s="4">
-        <v>0.11980088971466001</v>
+        <v>2.0877805414216299E-2</v>
       </c>
       <c r="D126" s="4">
-        <v>346.42741138387203</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E126" s="4">
-        <v>-1.11784631439358</v>
+        <v>1.0316033576732599</v>
       </c>
       <c r="F126" s="4">
         <v>1</v>
@@ -16003,19 +16014,19 @@
     </row>
     <row r="127" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B127" s="4">
-        <v>0.16389407549296001</v>
+        <v>2.8664949625219802E-2</v>
       </c>
       <c r="C127" s="4">
-        <v>0.102852140225792</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D127" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E127" s="4">
-        <v>1.5934921250366001</v>
+        <v>0.97210844891413195</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -16023,19 +16034,19 @@
     </row>
     <row r="128" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B128" s="4">
-        <v>-0.34234269237113102</v>
+        <v>7.7479053038582201E-3</v>
       </c>
       <c r="C128" s="4">
-        <v>0.13419394836566301</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D128" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E128" s="4">
-        <v>-2.5511038056521498</v>
+        <v>0.17532178207801899</v>
       </c>
       <c r="F128" s="4">
         <v>1</v>
@@ -16043,19 +16054,19 @@
     </row>
     <row r="129" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B129" s="4">
-        <v>0.17345107041945501</v>
+        <v>5.51128985090863E-3</v>
       </c>
       <c r="C129" s="4">
-        <v>0.168622979226206</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D129" s="4">
-        <v>346.42741138301301</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E129" s="4">
-        <v>1.02863246287905</v>
+        <v>0.14718315641610299</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -16063,19 +16074,19 @@
     </row>
     <row r="130" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B130" s="4">
-        <v>-9.4251908796674604E-3</v>
+        <v>-6.8789828092178401E-2</v>
       </c>
       <c r="C130" s="4">
-        <v>6.9106914471021699E-2</v>
+        <v>5.4047364462141402E-2</v>
       </c>
       <c r="D130" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E130" s="4">
-        <v>-0.13638564175253001</v>
+        <v>-1.27276933439305</v>
       </c>
       <c r="F130" s="4">
         <v>1</v>
@@ -16083,19 +16094,19 @@
     </row>
     <row r="131" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B131" s="4">
-        <v>-6.8848995765278795E-2</v>
+        <v>-2.09760219254231E-2</v>
       </c>
       <c r="C131" s="4">
-        <v>0.11980088971466001</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D131" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E131" s="4">
-        <v>-0.57469519574739603</v>
+        <v>-0.53447937758881703</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -16103,19 +16114,19 @@
     </row>
     <row r="132" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B132" s="4">
-        <v>0.136768143935252</v>
+        <v>-2.1680938250538899E-2</v>
       </c>
       <c r="C132" s="4">
-        <v>0.102852140225792</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D132" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E132" s="4">
-        <v>1.32975496314422</v>
+        <v>-0.73526113003147497</v>
       </c>
       <c r="F132" s="4">
         <v>1</v>
@@ -16123,19 +16134,19 @@
     </row>
     <row r="133" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B133" s="4">
-        <v>-0.206829789555347</v>
+        <v>3.9608606906221901E-2</v>
       </c>
       <c r="C133" s="4">
-        <v>0.13419394836566301</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D133" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E133" s="4">
-        <v>-1.54127508784345</v>
+        <v>1.0577777513808799</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -16143,19 +16154,19 @@
     </row>
     <row r="134" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B134" s="4">
-        <v>-9.3817240315150804E-2</v>
+        <v>-7.5311629966167998E-2</v>
       </c>
       <c r="C134" s="4">
-        <v>0.11577764409557099</v>
+        <v>5.4047364462141499E-2</v>
       </c>
       <c r="D134" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E134" s="4">
-        <v>-0.81032258902856602</v>
+        <v>-1.39343760265908</v>
       </c>
       <c r="F134" s="4">
         <v>1</v>
@@ -16163,19 +16174,19 @@
     </row>
     <row r="135" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="B135" s="4">
-        <v>0.30190310478739601</v>
+        <v>-2.6983099075052902E-4</v>
       </c>
       <c r="C135" s="4">
-        <v>0.15437019212748301</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D135" s="4">
-        <v>346.42741138306502</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E135" s="4">
-        <v>1.95570855115654</v>
+        <v>-6.87542664206131E-3</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -16183,19 +16194,19 @@
     </row>
     <row r="136" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B136" s="4">
-        <v>9.7334130563234103E-2</v>
+        <v>-7.2693942253369897E-3</v>
       </c>
       <c r="C136" s="4">
-        <v>0.11980088971466001</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D136" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E136" s="4">
-        <v>0.81246584057149296</v>
+        <v>-0.24652544788428199</v>
       </c>
       <c r="F136" s="4">
         <v>1</v>
@@ -16203,19 +16214,19 @@
     </row>
     <row r="137" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B137" s="4">
-        <v>-4.8736569591639703E-2</v>
+        <v>-1.4205876627160701E-4</v>
       </c>
       <c r="C137" s="4">
-        <v>4.9559136767154101E-2</v>
+        <v>9.8890954455236896E-3</v>
       </c>
       <c r="D137" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E137" s="4">
-        <v>-0.98340231026663905</v>
+        <v>-1.43651931619195E-2</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -16223,19 +16234,19 @@
     </row>
     <row r="138" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B138" s="4">
-        <v>-0.25716027893416599</v>
+        <v>-2.1059103087633198E-2</v>
       </c>
       <c r="C138" s="4">
-        <v>0.11577764409557099</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D138" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E138" s="4">
-        <v>-2.2211566053450502</v>
+        <v>-0.56239924728672097</v>
       </c>
       <c r="F138" s="4">
         <v>1</v>
@@ -16243,19 +16254,19 @@
     </row>
     <row r="139" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B139" s="4">
-        <v>0.25863348385642099</v>
+        <v>-7.4301117943087094E-2</v>
       </c>
       <c r="C139" s="4">
-        <v>0.15437019212748199</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D139" s="4">
-        <v>346.42741138284799</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E139" s="4">
-        <v>1.6754107790630699</v>
+        <v>-1.17413084943332</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -16263,19 +16274,19 @@
     </row>
     <row r="140" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B140" s="4">
-        <v>7.5757222557297804E-2</v>
+        <v>-2.64873117763318E-2</v>
       </c>
       <c r="C140" s="4">
-        <v>0.11980088971466001</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D140" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E140" s="4">
-        <v>0.632359431868454</v>
+        <v>-0.51710797154449895</v>
       </c>
       <c r="F140" s="4">
         <v>1</v>
@@ -16283,19 +16294,19 @@
     </row>
     <row r="141" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B141" s="4">
-        <v>1.6333417671686501E-2</v>
+        <v>-2.7192228101447499E-2</v>
       </c>
       <c r="C141" s="4">
-        <v>4.9559136767153997E-2</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D141" s="4">
-        <v>696.00000000002001</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E141" s="4">
-        <v>0.32957429723658399</v>
+        <v>-0.61531339148450204</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -16303,19 +16314,19 @@
     </row>
     <row r="142" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B142" s="4">
-        <v>-0.121647376118382</v>
+        <v>4.9358512908558798E-2</v>
       </c>
       <c r="C142" s="4">
-        <v>0.11577764409557099</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D142" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E142" s="4">
-        <v>-1.0506983197720401</v>
+        <v>1.31815635221743</v>
       </c>
       <c r="F142" s="4">
         <v>1</v>
@@ -16323,19 +16334,19 @@
     </row>
     <row r="143" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B143" s="4">
-        <v>5.42805963717772E-2</v>
+        <v>3.40973170553132E-2</v>
       </c>
       <c r="C143" s="4">
-        <v>0.14162085224315599</v>
+        <v>2.7618740523407102E-2</v>
       </c>
       <c r="D143" s="4">
-        <v>346.427411382917</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E143" s="4">
-        <v>0.383281102408423</v>
+        <v>1.2345717584918701</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -16343,19 +16354,19 @@
     </row>
     <row r="144" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="B144" s="4">
-        <v>-0.150288377852385</v>
+        <v>-8.0822919817076705E-2</v>
       </c>
       <c r="C144" s="4">
-        <v>0.102852140225792</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D144" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E144" s="4">
-        <v>-1.4612080752277601</v>
+        <v>-1.2771905204870999</v>
       </c>
       <c r="F144" s="4">
         <v>1</v>
@@ -16363,19 +16374,19 @@
     </row>
     <row r="145" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B145" s="4">
-        <v>1.45398051430626E-3</v>
+        <v>-5.7811208416591597E-3</v>
       </c>
       <c r="C145" s="4">
-        <v>2.35500539412699E-2</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D145" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E145" s="4">
-        <v>6.17400078119675E-2</v>
+        <v>-0.112863989253726</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -16383,19 +16394,19 @@
     </row>
     <row r="146" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B146" s="4">
-        <v>1.1010975440801899E-2</v>
+        <v>-1.2780684076245601E-2</v>
       </c>
       <c r="C146" s="4">
-        <v>0.14162085224315499</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D146" s="4">
-        <v>346.42741138264802</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E146" s="4">
-        <v>7.7749676452282895E-2</v>
+        <v>-0.289204916754432</v>
       </c>
       <c r="F146" s="4">
         <v>1</v>
@@ -16403,19 +16414,19 @@
     </row>
     <row r="147" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B147" s="4">
-        <v>-0.171865285858321</v>
+        <v>-5.65334861718024E-3</v>
       </c>
       <c r="C147" s="4">
-        <v>0.102852140225792</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D147" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E147" s="4">
-        <v>-1.6709937730126401</v>
+        <v>-0.15097694302178999</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -16423,19 +16434,19 @@
     </row>
     <row r="148" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B148" s="4">
-        <v>-2.56719510434015E-2</v>
+        <v>-2.6570392938541802E-2</v>
       </c>
       <c r="C148" s="4">
-        <v>2.35500539412699E-2</v>
+        <v>2.7618740523407102E-2</v>
       </c>
       <c r="D148" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E148" s="4">
-        <v>-1.0901015813986401</v>
+        <v>-0.96204216539212795</v>
       </c>
       <c r="F148" s="4">
         <v>1</v>
@@ -16443,19 +16454,19 @@
     </row>
     <row r="149" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B149" s="4">
-        <v>0.395720345102547</v>
+        <v>4.7813806166755297E-2</v>
       </c>
       <c r="C149" s="4">
-        <v>0.16578877772339701</v>
+        <v>6.4363622308044294E-2</v>
       </c>
       <c r="D149" s="4">
-        <v>346.42741138317803</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E149" s="4">
-        <v>2.38689464110031</v>
+        <v>0.74287003204882396</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -16463,19 +16474,19 @@
     </row>
     <row r="150" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B150" s="4">
-        <v>0.19115137087838499</v>
+        <v>4.7108889841639502E-2</v>
       </c>
       <c r="C150" s="4">
-        <v>0.13419394836566301</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D150" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E150" s="4">
-        <v>1.4244410661315301</v>
+        <v>0.79949491457787203</v>
       </c>
       <c r="F150" s="4">
         <v>1</v>
@@ -16483,19 +16494,19 @@
     </row>
     <row r="151" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B151" s="4">
-        <v>4.5080670723511101E-2</v>
+        <v>0.123659630851646</v>
       </c>
       <c r="C151" s="4">
-        <v>0.11577764409557099</v>
+        <v>5.4047364462141402E-2</v>
       </c>
       <c r="D151" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E151" s="4">
-        <v>0.38937284547177697</v>
+        <v>2.2879863261096798</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -16503,19 +16514,19 @@
     </row>
     <row r="152" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B152" s="4">
-        <v>-0.163343038619015</v>
+        <v>0.1083984349984</v>
       </c>
       <c r="C152" s="4">
-        <v>6.5560575538463603E-2</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D152" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E152" s="4">
-        <v>-2.4914826826555698</v>
+        <v>1.71294793517646</v>
       </c>
       <c r="F152" s="4">
         <v>1</v>
@@ -16523,19 +16534,19 @@
     </row>
     <row r="153" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B153" s="4">
-        <v>0.35245072417157203</v>
+        <v>-6.5218018739896001E-3</v>
       </c>
       <c r="C153" s="4">
-        <v>0.16578877772339701</v>
+        <v>4.1171587508844198E-2</v>
       </c>
       <c r="D153" s="4">
-        <v>346.42741138297799</v>
+        <v>698.99999999993997</v>
       </c>
       <c r="E153" s="4">
-        <v>2.1259021811452299</v>
+        <v>-0.158405402089211</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -16543,19 +16554,19 @@
     </row>
     <row r="154" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B154" s="4">
-        <v>0.16957446287244901</v>
+        <v>6.8519997101427907E-2</v>
       </c>
       <c r="C154" s="4">
-        <v>0.13419394836566301</v>
+        <v>6.4363622308044294E-2</v>
       </c>
       <c r="D154" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E154" s="4">
-        <v>1.26365208668261</v>
+        <v>1.0645764586320401</v>
       </c>
       <c r="F154" s="4">
         <v>1</v>
@@ -16563,19 +16574,19 @@
     </row>
     <row r="155" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B155" s="4">
-        <v>0.110150657986837</v>
+        <v>6.1520433866841397E-2</v>
       </c>
       <c r="C155" s="4">
-        <v>0.11577764409557099</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D155" s="4">
-        <v>346.42741138388101</v>
+        <v>381.775451684438</v>
       </c>
       <c r="E155" s="4">
-        <v>0.951398336417274</v>
+        <v>1.0440762706254501</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -16583,19 +16594,19 @@
     </row>
     <row r="156" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B156" s="4">
-        <v>-2.78301358032308E-2</v>
+        <v>6.8647769325906799E-2</v>
       </c>
       <c r="C156" s="4">
-        <v>6.55605755384637E-2</v>
+        <v>5.4047364462141402E-2</v>
       </c>
       <c r="D156" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E156" s="4">
-        <v>-0.42449498917078798</v>
+        <v>1.2701409219313999</v>
       </c>
       <c r="F156" s="4">
         <v>1</v>
@@ -16603,19 +16614,19 @@
     </row>
     <row r="157" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B157" s="4">
-        <v>-0.20456897422416201</v>
+        <v>4.7730725004545199E-2</v>
       </c>
       <c r="C157" s="4">
-        <v>0.168622979226206</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D157" s="4">
-        <v>346.42741138319502</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E157" s="4">
-        <v>-1.21317376292904</v>
+        <v>0.75425670898493902</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -16623,19 +16634,19 @@
     </row>
     <row r="158" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B158" s="4">
-        <v>-0.35063967437903598</v>
+        <v>-7.0491632511575201E-4</v>
       </c>
       <c r="C158" s="4">
-        <v>0.15437019212748301</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D158" s="4">
-        <v>346.42741138306502</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E158" s="4">
-        <v>-2.2714208588240199</v>
+        <v>-1.54153647607706E-2</v>
       </c>
       <c r="F158" s="4">
         <v>1</v>
@@ -16643,19 +16654,19 @@
     </row>
     <row r="159" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B159" s="4">
-        <v>-5.28266158574709E-2</v>
+        <v>7.5845824684890595E-2</v>
       </c>
       <c r="C159" s="4">
-        <v>0.14162085224315599</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D159" s="4">
-        <v>346.42741138290899</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E159" s="4">
-        <v>-0.37301439032982397</v>
+        <v>1.9325889968277701</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -16663,19 +16674,19 @@
     </row>
     <row r="160" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B160" s="4">
-        <v>-4.3269620930975299E-2</v>
+        <v>6.0584628831644997E-2</v>
       </c>
       <c r="C160" s="4">
-        <v>9.77319356986764E-2</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D160" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E160" s="4">
-        <v>-0.44273778700528998</v>
+        <v>1.18278497970876</v>
       </c>
       <c r="F160" s="4">
         <v>1</v>
@@ -16683,19 +16694,19 @@
     </row>
     <row r="161" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B161" s="4">
-        <v>-0.22614588223009799</v>
+        <v>-5.4335608040744901E-2</v>
       </c>
       <c r="C161" s="4">
-        <v>0.168622979226206</v>
+        <v>6.4363622308044405E-2</v>
       </c>
       <c r="D161" s="4">
-        <v>346.42741138319502</v>
+        <v>381.77545168445897</v>
       </c>
       <c r="E161" s="4">
-        <v>-1.3411332385885899</v>
+        <v>-0.84419748442209497</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -16703,19 +16714,19 @@
     </row>
     <row r="162" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B162" s="4">
-        <v>-0.28556968711570901</v>
+        <v>2.0706190934672599E-2</v>
       </c>
       <c r="C162" s="4">
-        <v>0.15437019212748301</v>
+        <v>2.9112708719719101E-2</v>
       </c>
       <c r="D162" s="4">
-        <v>346.42741138306502</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E162" s="4">
-        <v>-1.84990174061505</v>
+        <v>0.711242335229616</v>
       </c>
       <c r="F162" s="4">
         <v>1</v>
@@ -16723,19 +16734,19 @@
     </row>
     <row r="163" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B163" s="4">
-        <v>-7.9952547415178696E-2</v>
+        <v>1.37066277000862E-2</v>
       </c>
       <c r="C163" s="4">
-        <v>0.14162085224315599</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D163" s="4">
-        <v>346.427411382917</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E163" s="4">
-        <v>-0.56455349723432102</v>
+        <v>0.29974148435591202</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -16743,19 +16754,19 @@
     </row>
     <row r="164" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B164" s="4">
-        <v>-0.42355048090577802</v>
+        <v>2.0833963159151501E-2</v>
       </c>
       <c r="C164" s="4">
-        <v>0.16578877772339701</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D164" s="4">
-        <v>346.42741138316899</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E164" s="4">
-        <v>-2.5547596569680402</v>
+        <v>0.530859650204481</v>
       </c>
       <c r="F164" s="4">
         <v>1</v>
@@ -16763,19 +16774,19 @@
     </row>
     <row r="165" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B165" s="4">
-        <v>-0.146070700154874</v>
+        <v>295</v>
+      </c>
+      <c r="B165" s="5">
+        <v>-8.3081162210064404E-5</v>
       </c>
       <c r="C165" s="4">
-        <v>0.11980088971466001</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D165" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E165" s="4">
-        <v>-1.21927892608129</v>
+        <v>-1.62198155957809E-3</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -16783,19 +16794,19 @@
     </row>
     <row r="166" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B166" s="4">
-        <v>0.151742358366691</v>
+        <v>7.6550741010006404E-2</v>
       </c>
       <c r="C166" s="4">
-        <v>0.102852140225792</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D166" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E166" s="4">
-        <v>1.47534468445255</v>
+        <v>2.59604928944277</v>
       </c>
       <c r="F166" s="4">
         <v>1</v>
@@ -16803,19 +16814,19 @@
     </row>
     <row r="167" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B167" s="4">
-        <v>-0.35449440949740002</v>
+        <v>6.12895451567608E-2</v>
       </c>
       <c r="C167" s="4">
-        <v>0.13419394836566301</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D167" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E167" s="4">
-        <v>-2.64165719702534</v>
+        <v>1.3868770794454099</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -16823,19 +16834,19 @@
     </row>
     <row r="168" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B168" s="4">
-        <v>0.16129935329318701</v>
+        <v>-5.3630691715629099E-2</v>
       </c>
       <c r="C168" s="4">
-        <v>0.168622979226206</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D168" s="4">
-        <v>346.42741138301301</v>
+        <v>381.775451684438</v>
       </c>
       <c r="E168" s="4">
-        <v>0.95656804329619605</v>
+        <v>-0.91017779098754503</v>
       </c>
       <c r="F168" s="4">
         <v>1</v>
@@ -16843,19 +16854,19 @@
     </row>
     <row r="169" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B169" s="4">
-        <v>-2.1576908005936202E-2</v>
+        <v>2.1411107259788401E-2</v>
       </c>
       <c r="C169" s="4">
-        <v>6.9106914471021602E-2</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D169" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E169" s="4">
-        <v>-0.31222502366219801</v>
+        <v>0.468225825650191</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -16863,19 +16874,19 @@
     </row>
     <row r="170" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B170" s="4">
-        <v>-8.1000712891547505E-2</v>
+        <v>1.44115440252019E-2</v>
       </c>
       <c r="C170" s="4">
-        <v>0.11980088971466001</v>
+        <v>2.0877805414216299E-2</v>
       </c>
       <c r="D170" s="4">
-        <v>346.42741138387203</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E170" s="4">
-        <v>-0.67612780743510104</v>
+        <v>0.69028059890761695</v>
       </c>
       <c r="F170" s="4">
         <v>1</v>
@@ -16883,19 +16894,19 @@
     </row>
     <row r="171" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B171" s="4">
-        <v>0.12461642680898299</v>
+        <v>2.15388794842673E-2</v>
       </c>
       <c r="C171" s="4">
-        <v>0.102852140225792</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D171" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E171" s="4">
-        <v>1.2116075225601699</v>
+        <v>0.730443520765089</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -16903,19 +16914,19 @@
     </row>
     <row r="172" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B172" s="4">
-        <v>-0.21898150668161601</v>
+        <v>6.2183516290568704E-4</v>
       </c>
       <c r="C172" s="4">
-        <v>0.13419394836566301</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D172" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E172" s="4">
-        <v>-1.63182847921664</v>
+        <v>1.4071061098941301E-2</v>
       </c>
       <c r="F172" s="4">
         <v>1</v>
@@ -16923,19 +16934,19 @@
     </row>
     <row r="173" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B173" s="4">
-        <v>-0.20842370934252599</v>
+        <v>-1.5261195853245599E-2</v>
       </c>
       <c r="C173" s="4">
-        <v>0.11577764409557099</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D173" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E173" s="4">
-        <v>-1.8002068617882601</v>
+        <v>-0.40756175725265298</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -16943,19 +16954,19 @@
     </row>
     <row r="174" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B174" s="4">
-        <v>0.30737005344806001</v>
+        <v>-0.13018143272563501</v>
       </c>
       <c r="C174" s="4">
-        <v>0.15437019212748199</v>
+        <v>5.4047364462141499E-2</v>
       </c>
       <c r="D174" s="4">
-        <v>346.42741138284799</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E174" s="4">
-        <v>1.9911230867305501</v>
+        <v>-2.4086545943757098</v>
       </c>
       <c r="F174" s="4">
         <v>1</v>
@@ -16963,19 +16974,19 @@
     </row>
     <row r="175" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B175" s="4">
-        <v>0.12449379214893801</v>
+        <v>-5.5139633750217999E-2</v>
       </c>
       <c r="C175" s="4">
-        <v>0.11980088971466001</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D175" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E175" s="4">
-        <v>1.03917251737825</v>
+        <v>-1.40498504588102</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -16983,19 +16994,19 @@
     </row>
     <row r="176" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B176" s="4">
-        <v>6.5069987263326204E-2</v>
+        <v>-6.2139196984804503E-2</v>
       </c>
       <c r="C176" s="4">
-        <v>4.9559136767154101E-2</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D176" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E176" s="4">
-        <v>1.3129766075032201</v>
+        <v>-2.10731360729558</v>
       </c>
       <c r="F176" s="4">
         <v>1</v>
@@ -17003,19 +17014,19 @@
     </row>
     <row r="177" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B177" s="4">
-        <v>-7.2910806526741895E-2</v>
+        <v>-7.59289058471007E-2</v>
       </c>
       <c r="C177" s="4">
-        <v>0.11577764409557099</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D177" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E177" s="4">
-        <v>-0.62974857621525204</v>
+        <v>-2.0277387559202502</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -17023,19 +17034,19 @@
     </row>
     <row r="178" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B178" s="4">
-        <v>9.5569949264956398E-3</v>
+        <v>-0.11492023687239</v>
       </c>
       <c r="C178" s="4">
-        <v>0.14162085224315499</v>
+        <v>6.3281803709482498E-2</v>
       </c>
       <c r="D178" s="4">
-        <v>346.42741138264802</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E178" s="4">
-        <v>6.7482964373684104E-2</v>
+        <v>-1.8160076062302499</v>
       </c>
       <c r="F178" s="4">
         <v>1</v>
@@ -17043,19 +17054,19 @@
     </row>
     <row r="179" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B179" s="4">
-        <v>-0.17331926637262701</v>
+        <v>-3.9878437896972402E-2</v>
       </c>
       <c r="C179" s="4">
-        <v>0.102852140225792</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D179" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E179" s="4">
-        <v>-1.6851303822374399</v>
+        <v>-0.77854099741799099</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -17063,19 +17074,19 @@
     </row>
     <row r="180" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B180" s="4">
-        <v>-2.7125931557707698E-2</v>
+        <v>-4.6878001131558801E-2</v>
       </c>
       <c r="C180" s="4">
-        <v>2.35500539412699E-2</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D180" s="4">
-        <v>696.00000000002001</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E180" s="4">
-        <v>-1.1518415892106</v>
+        <v>-1.06076860471534</v>
       </c>
       <c r="F180" s="4">
         <v>1</v>
@@ -17083,19 +17094,19 @@
     </row>
     <row r="181" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B181" s="4">
-        <v>0.33291750149146299</v>
+        <v>-3.9750665672493503E-2</v>
       </c>
       <c r="C181" s="4">
-        <v>0.13419394836566301</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D181" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E181" s="4">
-        <v>2.4808682175764099</v>
+        <v>-1.06157153798657</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -17103,19 +17114,19 @@
     </row>
     <row r="182" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B182" s="4">
-        <v>0.27349369660585199</v>
+        <v>-6.0667709993855103E-2</v>
       </c>
       <c r="C182" s="4">
-        <v>0.11577764409557099</v>
+        <v>2.7618740523407102E-2</v>
       </c>
       <c r="D182" s="4">
-        <v>346.42741138388101</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E182" s="4">
-        <v>2.3622323527337601</v>
+        <v>-2.1966139238839899</v>
       </c>
       <c r="F182" s="4">
         <v>1</v>
@@ -17123,19 +17134,19 @@
     </row>
     <row r="183" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B183" s="4">
-        <v>0.13551290281578399</v>
+        <v>7.5041798975417504E-2</v>
       </c>
       <c r="C183" s="4">
-        <v>6.55605755384637E-2</v>
+        <v>6.4363622308044405E-2</v>
       </c>
       <c r="D183" s="4">
-        <v>695.99999999998499</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E183" s="4">
-        <v>2.0669876934847902</v>
+        <v>1.16590391100531</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -17143,19 +17154,19 @@
     </row>
     <row r="184" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B184" s="4">
-        <v>-0.18287626129912299</v>
+        <v>6.8042235740831E-2</v>
       </c>
       <c r="C184" s="4">
-        <v>0.168622979226206</v>
+        <v>5.8923313935664898E-2</v>
       </c>
       <c r="D184" s="4">
-        <v>346.42741138301301</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E184" s="4">
-        <v>-1.08452751895574</v>
+        <v>1.1547591470351199</v>
       </c>
       <c r="F184" s="4">
         <v>1</v>
@@ -17163,19 +17174,19 @@
     </row>
     <row r="185" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B185" s="4">
-        <v>-0.24230006618473399</v>
+        <v>7.5169571199896396E-2</v>
       </c>
       <c r="C185" s="4">
-        <v>0.15437019212748199</v>
+        <v>5.4047364462141499E-2</v>
       </c>
       <c r="D185" s="4">
-        <v>346.42741138284799</v>
+        <v>381.77545168442799</v>
       </c>
       <c r="E185" s="4">
-        <v>-1.5696039685215699</v>
+        <v>1.39080919019743</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -17183,19 +17194,19 @@
     </row>
     <row r="186" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B186" s="4">
-        <v>-3.6682926484203397E-2</v>
+        <v>5.4252526878534803E-2</v>
       </c>
       <c r="C186" s="4">
-        <v>0.14162085224315499</v>
+        <v>6.3281803709482595E-2</v>
       </c>
       <c r="D186" s="4">
-        <v>346.42741138264802</v>
+        <v>381.77545168444902</v>
       </c>
       <c r="E186" s="4">
-        <v>-0.259022071278181</v>
+        <v>0.85731638003872601</v>
       </c>
       <c r="F186" s="4">
         <v>1</v>
@@ -17203,19 +17214,19 @@
     </row>
     <row r="187" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B187" s="4">
-        <v>-0.38028085997480199</v>
+        <v>-6.9995632345864599E-3</v>
       </c>
       <c r="C187" s="4">
-        <v>0.16578877772339701</v>
+        <v>4.5728163819362899E-2</v>
       </c>
       <c r="D187" s="4">
-        <v>346.42741138297799</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E187" s="4">
-        <v>-2.2937671970129698</v>
+        <v>-0.15306897653350801</v>
       </c>
       <c r="F187" s="4">
         <v>1</v>
@@ -17223,19 +17234,19 @@
     </row>
     <row r="188" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B188" s="4">
-        <v>-5.9423804885611303E-2</v>
+        <v>1.2777222447892201E-4</v>
       </c>
       <c r="C188" s="4">
-        <v>0.11980088971466001</v>
+        <v>3.9245708637163403E-2</v>
       </c>
       <c r="D188" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E188" s="4">
-        <v>-0.49602139873206302</v>
+        <v>3.2556992577254598E-3</v>
       </c>
       <c r="F188" s="4">
         <v>1</v>
@@ -17243,19 +17254,19 @@
     </row>
     <row r="189" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B189" s="4">
-        <v>0.146193334814919</v>
+        <v>-2.0789272096882701E-2</v>
       </c>
       <c r="C189" s="4">
-        <v>0.102852140225792</v>
+        <v>5.1222014035520402E-2</v>
       </c>
       <c r="D189" s="4">
-        <v>346.42741138387203</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E189" s="4">
-        <v>1.4213932203450499</v>
+        <v>-0.40586596385035101</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -17263,19 +17274,19 @@
     </row>
     <row r="190" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B190" s="4">
-        <v>-0.197404598675679</v>
+        <v>7.1273354590653901E-3</v>
       </c>
       <c r="C190" s="4">
-        <v>0.13419394836566301</v>
+        <v>2.94873989185458E-2</v>
       </c>
       <c r="D190" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E190" s="4">
-        <v>-1.4710394997677201</v>
+        <v>0.24170783861789599</v>
       </c>
       <c r="F190" s="4">
         <v>1</v>
@@ -17283,19 +17294,19 @@
     </row>
     <row r="191" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B191" s="4">
-        <v>0.205617139700531</v>
+        <v>-1.3789708862296199E-2</v>
       </c>
       <c r="C191" s="4">
-        <v>7.7298187840210406E-2</v>
+        <v>4.4192485451752798E-2</v>
       </c>
       <c r="D191" s="4">
-        <v>346.42741138388902</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E191" s="4">
-        <v>2.66005123076856</v>
+        <v>-0.31203741363112902</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -17303,31 +17314,32 @@
     </row>
     <row r="192" spans="1:6" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B192" s="4">
-        <v>-0.137980793790068</v>
+        <v>-2.09170443213616E-2</v>
       </c>
       <c r="C192" s="4">
-        <v>0.11577764409557099</v>
+        <v>3.74451125054528E-2</v>
       </c>
       <c r="D192" s="4">
-        <v>346.42741138388101</v>
+        <v>381.77545168450098</v>
       </c>
       <c r="E192" s="4">
-        <v>-1.19177406716075</v>
+        <v>-0.55860546068103401</v>
       </c>
       <c r="F192" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F192">
-    <sortState ref="A2:F191">
-      <sortCondition ref="F1:F191"/>
+  <autoFilter ref="A2:F8">
+    <sortState ref="A3:F192">
+      <sortCondition ref="F2:F8"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17341,7 +17353,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -17384,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -17407,7 +17419,7 @@
         <v>4.0736472113021598E-38</v>
       </c>
       <c r="I4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
@@ -17430,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -17453,7 +17465,7 @@
         <v>1.9226240154150199E-4</v>
       </c>
       <c r="I6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -17476,7 +17488,7 @@
         <v>2.4896470626564199E-19</v>
       </c>
       <c r="I7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -21188,15 +21200,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -21239,7 +21251,7 @@
         <v>2.9002588133382699E-18</v>
       </c>
       <c r="I3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -21262,7 +21274,7 @@
         <v>2.66022948371523E-10</v>
       </c>
       <c r="I4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -21285,7 +21297,7 @@
         <v>8.0760426601403703E-8</v>
       </c>
       <c r="I5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -21308,7 +21320,7 @@
         <v>1.5477850497565401E-5</v>
       </c>
       <c r="I6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -21331,7 +21343,7 @@
         <v>2.2567682113544299E-4</v>
       </c>
       <c r="I7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -21354,7 +21366,7 @@
         <v>4.86312434451488E-4</v>
       </c>
       <c r="I8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -26771,13 +26783,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -26820,7 +26834,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -26843,7 +26857,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -26866,7 +26880,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -26889,7 +26903,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -26912,7 +26926,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -26935,7 +26949,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -27135,7 +27149,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -27178,7 +27192,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -27201,7 +27215,7 @@
         <v>5.36215444604044E-306</v>
       </c>
       <c r="J4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -27224,7 +27238,7 @@
         <v>2.0344814549352E-119</v>
       </c>
       <c r="J5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -27247,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -27270,7 +27284,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -27293,7 +27307,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
